--- a/MODS-DC-Generators/00 Illustrative-MODS-Generator-NEW/Illustrative-MODS-03.7.xlsx
+++ b/MODS-DC-Generators/00 Illustrative-MODS-Generator-NEW/Illustrative-MODS-03.7.xlsx
@@ -8445,9 +8445,6 @@
     <t>The first page of The Standard (24 Nov. 1869), reconstructed from the folia of David Livingstone's 1871 Field Diary and showing Livingstone's overtext</t>
   </si>
   <si>
-    <t>Dr. Livingstone's Remains at Southampton; Procession to the Railway Station. Illustration from Illustrated London News (25 April)</t>
-  </si>
-  <si>
     <t>A page from C.A. Alington's transcription of Livingstone's 1871 Field Diary (corresponding to CXIII)</t>
   </si>
   <si>
@@ -8937,9 +8934,6 @@
     <t>The first page of The Standard (24 Nov. 1869), reconstructed from the folia of David Livingstone's 1871 Field Diary and showing Livingstone's overtext, 2010-2011</t>
   </si>
   <si>
-    <t>Dr. Livingstone's Remains at Southampton; Procession to the Railway Station. Illustration from Illustrated London News (25 April), 1874</t>
-  </si>
-  <si>
     <t>A page from C.A. Alington's transcription of Livingstone's 1871 Field Diary (corresponding to CXIII), 1874</t>
   </si>
   <si>
@@ -9256,6 +9250,12 @@
   </si>
   <si>
     <t>&amp;#169; National Trust for Scotland/ John Sinclair.</t>
+  </si>
+  <si>
+    <t>Dr. Livingstone's Remains at Southampton; Procession to the Railway Station. Illustration from Illustrated London News (25 Apr. 1874), 1874</t>
+  </si>
+  <si>
+    <t>Dr. Livingstone's Remains at Southampton; Procession to the Railway Station. Illustration from Illustrated London News (25 Apr. 1874)</t>
   </si>
 </sst>
 </file>
@@ -9376,7 +9376,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="800">
+  <cellStyleXfs count="802">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -9438,6 +9438,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -10358,7 +10360,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="800">
+  <cellStyles count="802">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -10767,6 +10769,7 @@
     <cellStyle name="Followed Hyperlink" xfId="795" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="797" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="799" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="801" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -11158,6 +11161,7 @@
     <cellStyle name="Hyperlink" xfId="794" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="796" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="798" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="800" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -11490,8 +11494,8 @@
   <dimension ref="A1:P1109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1107" sqref="D1107"/>
+      <pane ySplit="1" topLeftCell="A991" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B994" sqref="B994"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -50088,7 +50092,7 @@
         <v>2763</v>
       </c>
       <c r="C941" s="9" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="F941" s="15" t="s">
         <v>1180</v>
@@ -50103,10 +50107,10 @@
         <v>973</v>
       </c>
       <c r="J941" s="37" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K941" s="37" t="s">
         <v>2911</v>
-      </c>
-      <c r="K941" s="37" t="s">
-        <v>2912</v>
       </c>
       <c r="L941" s="4" t="s">
         <v>1532</v>
@@ -50121,7 +50125,7 @@
         <v>1149</v>
       </c>
       <c r="P941" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="942" spans="1:16" ht="45">
@@ -50132,7 +50136,7 @@
         <v>2764</v>
       </c>
       <c r="C942" s="9" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="F942" s="15" t="s">
         <v>1180</v>
@@ -50147,10 +50151,10 @@
         <v>973</v>
       </c>
       <c r="J942" s="37" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K942" s="37" t="s">
         <v>2911</v>
-      </c>
-      <c r="K942" s="37" t="s">
-        <v>2912</v>
       </c>
       <c r="L942" s="4" t="s">
         <v>1532</v>
@@ -50165,7 +50169,7 @@
         <v>1149</v>
       </c>
       <c r="P942" s="15" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="943" spans="1:16" ht="90">
@@ -50176,7 +50180,7 @@
         <v>2765</v>
       </c>
       <c r="C943" s="9" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="F943" s="15" t="s">
         <v>1180</v>
@@ -50191,10 +50195,10 @@
         <v>973</v>
       </c>
       <c r="J943" s="37" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K943" s="37" t="s">
         <v>2911</v>
-      </c>
-      <c r="K943" s="37" t="s">
-        <v>2912</v>
       </c>
       <c r="L943" s="4" t="s">
         <v>1532</v>
@@ -50209,7 +50213,7 @@
         <v>1149</v>
       </c>
       <c r="P943" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="944" spans="1:16" ht="45">
@@ -50220,7 +50224,7 @@
         <v>2764</v>
       </c>
       <c r="C944" s="9" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="F944" s="15" t="s">
         <v>1180</v>
@@ -50235,20 +50239,20 @@
         <v>973</v>
       </c>
       <c r="J944" s="37" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K944" s="37" t="s">
         <v>2911</v>
       </c>
-      <c r="K944" s="37" t="s">
-        <v>2912</v>
-      </c>
       <c r="L944" s="4" t="s">
         <v>1532</v>
       </c>
       <c r="M944" s="11" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="N944" s="37"/>
       <c r="P944" s="11" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="945" spans="1:16" ht="90">
@@ -50259,7 +50263,7 @@
         <v>2766</v>
       </c>
       <c r="C945" s="9" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="F945" s="15" t="s">
         <v>1180</v>
@@ -50274,10 +50278,10 @@
         <v>973</v>
       </c>
       <c r="J945" s="37" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K945" s="37" t="s">
         <v>2911</v>
-      </c>
-      <c r="K945" s="37" t="s">
-        <v>2912</v>
       </c>
       <c r="L945" s="4" t="s">
         <v>1532</v>
@@ -50292,7 +50296,7 @@
         <v>1149</v>
       </c>
       <c r="P945" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="946" spans="1:16" ht="90">
@@ -50303,7 +50307,7 @@
         <v>2767</v>
       </c>
       <c r="C946" s="9" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="F946" s="15" t="s">
         <v>1180</v>
@@ -50318,10 +50322,10 @@
         <v>973</v>
       </c>
       <c r="J946" s="37" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K946" s="37" t="s">
         <v>2911</v>
-      </c>
-      <c r="K946" s="37" t="s">
-        <v>2912</v>
       </c>
       <c r="L946" s="4" t="s">
         <v>1532</v>
@@ -50336,7 +50340,7 @@
         <v>1149</v>
       </c>
       <c r="P946" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="947" spans="1:16" ht="90">
@@ -50347,7 +50351,7 @@
         <v>2768</v>
       </c>
       <c r="C947" s="9" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="F947" s="15" t="s">
         <v>1180</v>
@@ -50362,10 +50366,10 @@
         <v>973</v>
       </c>
       <c r="J947" s="37" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K947" s="37" t="s">
         <v>2911</v>
-      </c>
-      <c r="K947" s="37" t="s">
-        <v>2912</v>
       </c>
       <c r="L947" s="4" t="s">
         <v>1532</v>
@@ -50380,7 +50384,7 @@
         <v>1149</v>
       </c>
       <c r="P947" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="948" spans="1:16" ht="45">
@@ -50391,7 +50395,7 @@
         <v>2769</v>
       </c>
       <c r="C948" s="9" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="F948" s="34" t="s">
         <v>2494</v>
@@ -50406,10 +50410,10 @@
         <v>973</v>
       </c>
       <c r="J948" s="37" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K948" s="37" t="s">
         <v>2911</v>
-      </c>
-      <c r="K948" s="37" t="s">
-        <v>2912</v>
       </c>
       <c r="L948" s="4" t="s">
         <v>1532</v>
@@ -50428,7 +50432,7 @@
         <v>2770</v>
       </c>
       <c r="C949" s="9" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="F949" s="34" t="s">
         <v>2494</v>
@@ -50443,10 +50447,10 @@
         <v>973</v>
       </c>
       <c r="J949" s="37" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K949" s="37" t="s">
         <v>2911</v>
-      </c>
-      <c r="K949" s="37" t="s">
-        <v>2912</v>
       </c>
       <c r="L949" s="4" t="s">
         <v>1532</v>
@@ -50465,7 +50469,7 @@
         <v>2771</v>
       </c>
       <c r="C950" s="9" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="F950" s="15" t="s">
         <v>1180</v>
@@ -50480,10 +50484,10 @@
         <v>973</v>
       </c>
       <c r="J950" s="37" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K950" s="37" t="s">
         <v>2911</v>
-      </c>
-      <c r="K950" s="37" t="s">
-        <v>2912</v>
       </c>
       <c r="L950" s="4" t="s">
         <v>1532</v>
@@ -50498,7 +50502,7 @@
         <v>1149</v>
       </c>
       <c r="P950" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="951" spans="1:16" ht="90">
@@ -50509,7 +50513,7 @@
         <v>2772</v>
       </c>
       <c r="C951" s="9" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="F951" s="15" t="s">
         <v>1180</v>
@@ -50524,10 +50528,10 @@
         <v>973</v>
       </c>
       <c r="J951" s="37" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K951" s="37" t="s">
         <v>2911</v>
-      </c>
-      <c r="K951" s="37" t="s">
-        <v>2912</v>
       </c>
       <c r="L951" s="4" t="s">
         <v>1532</v>
@@ -50542,7 +50546,7 @@
         <v>1149</v>
       </c>
       <c r="P951" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="952" spans="1:16" ht="90">
@@ -50553,7 +50557,7 @@
         <v>2773</v>
       </c>
       <c r="C952" s="9" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="F952" s="15" t="s">
         <v>1180</v>
@@ -50568,10 +50572,10 @@
         <v>973</v>
       </c>
       <c r="J952" s="37" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K952" s="37" t="s">
         <v>2911</v>
-      </c>
-      <c r="K952" s="37" t="s">
-        <v>2912</v>
       </c>
       <c r="L952" s="4" t="s">
         <v>1532</v>
@@ -50586,7 +50590,7 @@
         <v>1149</v>
       </c>
       <c r="P952" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="953" spans="1:16" ht="90">
@@ -50597,7 +50601,7 @@
         <v>2774</v>
       </c>
       <c r="C953" s="9" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="F953" s="15" t="s">
         <v>1180</v>
@@ -50612,10 +50616,10 @@
         <v>973</v>
       </c>
       <c r="J953" s="37" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K953" s="37" t="s">
         <v>2911</v>
-      </c>
-      <c r="K953" s="37" t="s">
-        <v>2912</v>
       </c>
       <c r="L953" s="4" t="s">
         <v>1532</v>
@@ -50630,7 +50634,7 @@
         <v>1149</v>
       </c>
       <c r="P953" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="954" spans="1:16" ht="90">
@@ -50641,7 +50645,7 @@
         <v>2775</v>
       </c>
       <c r="C954" s="9" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="F954" s="15" t="s">
         <v>1180</v>
@@ -50656,10 +50660,10 @@
         <v>973</v>
       </c>
       <c r="J954" s="37" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K954" s="37" t="s">
         <v>2911</v>
-      </c>
-      <c r="K954" s="37" t="s">
-        <v>2912</v>
       </c>
       <c r="L954" s="4" t="s">
         <v>1532</v>
@@ -50674,7 +50678,7 @@
         <v>1149</v>
       </c>
       <c r="P954" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="955" spans="1:16" ht="90">
@@ -50685,7 +50689,7 @@
         <v>2776</v>
       </c>
       <c r="C955" s="9" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="F955" s="15" t="s">
         <v>1180</v>
@@ -50700,10 +50704,10 @@
         <v>973</v>
       </c>
       <c r="J955" s="37" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K955" s="37" t="s">
         <v>2911</v>
-      </c>
-      <c r="K955" s="37" t="s">
-        <v>2912</v>
       </c>
       <c r="L955" s="4" t="s">
         <v>1532</v>
@@ -50718,7 +50722,7 @@
         <v>1149</v>
       </c>
       <c r="P955" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="956" spans="1:16" ht="90">
@@ -50729,7 +50733,7 @@
         <v>2777</v>
       </c>
       <c r="C956" s="9" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="F956" s="15" t="s">
         <v>1180</v>
@@ -50744,10 +50748,10 @@
         <v>973</v>
       </c>
       <c r="J956" s="37" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K956" s="37" t="s">
         <v>2911</v>
-      </c>
-      <c r="K956" s="37" t="s">
-        <v>2912</v>
       </c>
       <c r="L956" s="4" t="s">
         <v>1532</v>
@@ -50762,7 +50766,7 @@
         <v>1149</v>
       </c>
       <c r="P956" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="957" spans="1:16" ht="45">
@@ -50773,7 +50777,7 @@
         <v>2778</v>
       </c>
       <c r="C957" s="9" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="F957" s="34" t="s">
         <v>2494</v>
@@ -50788,10 +50792,10 @@
         <v>973</v>
       </c>
       <c r="J957" s="37" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K957" s="37" t="s">
         <v>2911</v>
-      </c>
-      <c r="K957" s="37" t="s">
-        <v>2912</v>
       </c>
       <c r="L957" s="4" t="s">
         <v>1532</v>
@@ -50810,7 +50814,7 @@
         <v>2779</v>
       </c>
       <c r="C958" s="9" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="F958" s="34" t="s">
         <v>2494</v>
@@ -50825,10 +50829,10 @@
         <v>973</v>
       </c>
       <c r="J958" s="37" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K958" s="37" t="s">
         <v>2911</v>
-      </c>
-      <c r="K958" s="37" t="s">
-        <v>2912</v>
       </c>
       <c r="L958" s="4" t="s">
         <v>1532</v>
@@ -50847,7 +50851,7 @@
         <v>2780</v>
       </c>
       <c r="C959" s="9" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="F959" s="34" t="s">
         <v>2494</v>
@@ -50862,10 +50866,10 @@
         <v>973</v>
       </c>
       <c r="J959" s="37" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K959" s="37" t="s">
         <v>2911</v>
-      </c>
-      <c r="K959" s="37" t="s">
-        <v>2912</v>
       </c>
       <c r="L959" s="4" t="s">
         <v>1532</v>
@@ -50884,7 +50888,7 @@
         <v>2781</v>
       </c>
       <c r="C960" s="9" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="F960" s="15" t="s">
         <v>1180</v>
@@ -50899,10 +50903,10 @@
         <v>973</v>
       </c>
       <c r="J960" s="38" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="K960" s="38" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="L960" s="4" t="s">
         <v>1532</v>
@@ -50917,7 +50921,7 @@
         <v>1149</v>
       </c>
       <c r="P960" s="15" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="961" spans="1:16" ht="90">
@@ -50928,7 +50932,7 @@
         <v>2782</v>
       </c>
       <c r="C961" s="9" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="F961" s="15" t="s">
         <v>1180</v>
@@ -50943,10 +50947,10 @@
         <v>973</v>
       </c>
       <c r="J961" s="39" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K961" s="39" t="s">
         <v>2911</v>
-      </c>
-      <c r="K961" s="39" t="s">
-        <v>2912</v>
       </c>
       <c r="L961" s="4" t="s">
         <v>1532</v>
@@ -50961,7 +50965,7 @@
         <v>1149</v>
       </c>
       <c r="P961" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="962" spans="1:16" ht="90">
@@ -50972,7 +50976,7 @@
         <v>2783</v>
       </c>
       <c r="C962" s="9" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="F962" s="15" t="s">
         <v>1180</v>
@@ -50987,10 +50991,10 @@
         <v>973</v>
       </c>
       <c r="J962" s="39" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K962" s="39" t="s">
         <v>2911</v>
-      </c>
-      <c r="K962" s="39" t="s">
-        <v>2912</v>
       </c>
       <c r="L962" s="4" t="s">
         <v>1532</v>
@@ -51005,7 +51009,7 @@
         <v>1149</v>
       </c>
       <c r="P962" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="963" spans="1:16" ht="90">
@@ -51016,7 +51020,7 @@
         <v>2784</v>
       </c>
       <c r="C963" s="9" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="F963" s="15" t="s">
         <v>1180</v>
@@ -51031,10 +51035,10 @@
         <v>973</v>
       </c>
       <c r="J963" s="39" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K963" s="39" t="s">
         <v>2911</v>
-      </c>
-      <c r="K963" s="39" t="s">
-        <v>2912</v>
       </c>
       <c r="L963" s="4" t="s">
         <v>1532</v>
@@ -51049,7 +51053,7 @@
         <v>1149</v>
       </c>
       <c r="P963" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="964" spans="1:16" ht="45">
@@ -51060,10 +51064,10 @@
         <v>2785</v>
       </c>
       <c r="C964" s="9" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="F964" s="9" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="G964" s="9" t="s">
         <v>1141</v>
@@ -51084,16 +51088,16 @@
         <v>1532</v>
       </c>
       <c r="M964" s="11" t="s">
+        <v>2920</v>
+      </c>
+      <c r="N964" s="7" t="s">
         <v>2921</v>
-      </c>
-      <c r="N964" s="7" t="s">
-        <v>2922</v>
       </c>
       <c r="O964" s="14" t="s">
         <v>1149</v>
       </c>
       <c r="P964" s="28" t="s">
-        <v>3066</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="965" spans="1:16" ht="45">
@@ -51104,7 +51108,7 @@
         <v>2786</v>
       </c>
       <c r="C965" s="9" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="F965" s="15" t="s">
         <v>1180</v>
@@ -51128,16 +51132,16 @@
         <v>1532</v>
       </c>
       <c r="M965" s="11" t="s">
+        <v>2920</v>
+      </c>
+      <c r="N965" s="7" t="s">
         <v>2921</v>
-      </c>
-      <c r="N965" s="7" t="s">
-        <v>2922</v>
       </c>
       <c r="O965" s="14" t="s">
         <v>1149</v>
       </c>
       <c r="P965" s="28" t="s">
-        <v>3066</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="966" spans="1:16" ht="60">
@@ -51148,7 +51152,7 @@
         <v>615</v>
       </c>
       <c r="C966" s="9" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="D966" s="18" t="s">
         <v>1179</v>
@@ -51192,10 +51196,10 @@
         <v>2787</v>
       </c>
       <c r="C967" s="9" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="F967" s="9" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="G967" s="9" t="s">
         <v>1141</v>
@@ -51218,7 +51222,7 @@
       <c r="M967" s="40"/>
       <c r="N967" s="40"/>
       <c r="P967" s="28" t="s">
-        <v>3067</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="968" spans="1:16" ht="60">
@@ -51229,10 +51233,10 @@
         <v>2788</v>
       </c>
       <c r="C968" s="9" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="F968" s="9" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="G968" s="9" t="s">
         <v>1141</v>
@@ -51273,10 +51277,10 @@
         <v>2789</v>
       </c>
       <c r="C969" s="9" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="F969" s="9" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="G969" s="9" t="s">
         <v>1141</v>
@@ -51317,7 +51321,7 @@
         <v>2790</v>
       </c>
       <c r="C970" s="9" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="F970" s="15" t="s">
         <v>1180</v>
@@ -51332,10 +51336,10 @@
         <v>973</v>
       </c>
       <c r="J970" s="37" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="K970" s="37" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="L970" s="4" t="s">
         <v>1532</v>
@@ -51361,7 +51365,7 @@
         <v>2790</v>
       </c>
       <c r="C971" s="9" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="F971" s="15" t="s">
         <v>1180</v>
@@ -51376,10 +51380,10 @@
         <v>973</v>
       </c>
       <c r="J971" s="37" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="K971" s="37" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="L971" s="4" t="s">
         <v>1532</v>
@@ -51405,10 +51409,10 @@
         <v>2791</v>
       </c>
       <c r="C972" s="9" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="F972" s="9" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="G972" s="9" t="s">
         <v>1141</v>
@@ -51429,11 +51433,11 @@
         <v>1532</v>
       </c>
       <c r="M972" s="11" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="N972" s="7"/>
       <c r="P972" s="28" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="973" spans="1:16" ht="60">
@@ -51444,10 +51448,10 @@
         <v>2792</v>
       </c>
       <c r="C973" s="9" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="F973" s="9" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="G973" s="9" t="s">
         <v>1141</v>
@@ -51488,7 +51492,7 @@
         <v>2786</v>
       </c>
       <c r="C974" s="9" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="F974" s="15" t="s">
         <v>1180</v>
@@ -51512,16 +51516,16 @@
         <v>1532</v>
       </c>
       <c r="M974" s="11" t="s">
+        <v>2920</v>
+      </c>
+      <c r="N974" s="7" t="s">
         <v>2921</v>
-      </c>
-      <c r="N974" s="7" t="s">
-        <v>2922</v>
       </c>
       <c r="O974" s="14" t="s">
         <v>1149</v>
       </c>
       <c r="P974" s="28" t="s">
-        <v>3066</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="975" spans="1:16" ht="60">
@@ -51532,10 +51536,10 @@
         <v>2793</v>
       </c>
       <c r="C975" s="9" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="F975" s="9" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="G975" s="9" t="s">
         <v>1141</v>
@@ -51565,7 +51569,7 @@
         <v>1149</v>
       </c>
       <c r="P975" s="28" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="976" spans="1:16" ht="90">
@@ -51576,7 +51580,7 @@
         <v>2794</v>
       </c>
       <c r="C976" s="9" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="F976" s="15" t="s">
         <v>1180</v>
@@ -51591,10 +51595,10 @@
         <v>973</v>
       </c>
       <c r="J976" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K976" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K976" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L976" s="4" t="s">
         <v>1532</v>
@@ -51609,7 +51613,7 @@
         <v>1149</v>
       </c>
       <c r="P976" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="977" spans="1:16" ht="60">
@@ -51620,7 +51624,7 @@
         <v>615</v>
       </c>
       <c r="C977" s="9" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="D977" s="15" t="s">
         <v>1179</v>
@@ -51664,7 +51668,7 @@
         <v>2795</v>
       </c>
       <c r="C978" s="9" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="F978" s="15" t="s">
         <v>1180</v>
@@ -51679,10 +51683,10 @@
         <v>973</v>
       </c>
       <c r="J978" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K978" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K978" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L978" s="4" t="s">
         <v>1532</v>
@@ -51697,7 +51701,7 @@
         <v>1149</v>
       </c>
       <c r="P978" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="979" spans="1:16" ht="90">
@@ -51708,7 +51712,7 @@
         <v>2795</v>
       </c>
       <c r="C979" s="9" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="F979" s="15" t="s">
         <v>1180</v>
@@ -51723,10 +51727,10 @@
         <v>973</v>
       </c>
       <c r="J979" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K979" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K979" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L979" s="4" t="s">
         <v>1532</v>
@@ -51741,7 +51745,7 @@
         <v>1149</v>
       </c>
       <c r="P979" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="980" spans="1:16" ht="90">
@@ -51752,7 +51756,7 @@
         <v>2796</v>
       </c>
       <c r="C980" s="9" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="F980" s="15" t="s">
         <v>1180</v>
@@ -51767,10 +51771,10 @@
         <v>973</v>
       </c>
       <c r="J980" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K980" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K980" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L980" s="4" t="s">
         <v>1532</v>
@@ -51785,7 +51789,7 @@
         <v>1149</v>
       </c>
       <c r="P980" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="981" spans="1:16" ht="90">
@@ -51796,7 +51800,7 @@
         <v>2797</v>
       </c>
       <c r="C981" s="9" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="F981" s="15" t="s">
         <v>1180</v>
@@ -51811,10 +51815,10 @@
         <v>973</v>
       </c>
       <c r="J981" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K981" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K981" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L981" s="4" t="s">
         <v>1532</v>
@@ -51829,7 +51833,7 @@
         <v>1149</v>
       </c>
       <c r="P981" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="982" spans="1:16" ht="90">
@@ -51840,7 +51844,7 @@
         <v>2798</v>
       </c>
       <c r="C982" s="9" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="F982" s="15" t="s">
         <v>1180</v>
@@ -51855,10 +51859,10 @@
         <v>973</v>
       </c>
       <c r="J982" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K982" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K982" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L982" s="4" t="s">
         <v>1532</v>
@@ -51873,7 +51877,7 @@
         <v>1149</v>
       </c>
       <c r="P982" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="983" spans="1:16" ht="90">
@@ -51884,7 +51888,7 @@
         <v>2799</v>
       </c>
       <c r="C983" s="9" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="F983" s="15" t="s">
         <v>1180</v>
@@ -51899,10 +51903,10 @@
         <v>973</v>
       </c>
       <c r="J983" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K983" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K983" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L983" s="4" t="s">
         <v>1532</v>
@@ -51917,7 +51921,7 @@
         <v>1149</v>
       </c>
       <c r="P983" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="984" spans="1:16" ht="90">
@@ -51928,7 +51932,7 @@
         <v>2800</v>
       </c>
       <c r="C984" s="9" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="F984" s="15" t="s">
         <v>1180</v>
@@ -51943,10 +51947,10 @@
         <v>973</v>
       </c>
       <c r="J984" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K984" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K984" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L984" s="4" t="s">
         <v>1532</v>
@@ -51961,7 +51965,7 @@
         <v>1149</v>
       </c>
       <c r="P984" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="985" spans="1:16" ht="90">
@@ -51972,7 +51976,7 @@
         <v>2801</v>
       </c>
       <c r="C985" s="9" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="F985" s="15" t="s">
         <v>1180</v>
@@ -51987,10 +51991,10 @@
         <v>973</v>
       </c>
       <c r="J985" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K985" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K985" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L985" s="4" t="s">
         <v>1532</v>
@@ -52005,7 +52009,7 @@
         <v>1149</v>
       </c>
       <c r="P985" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="986" spans="1:16" ht="60">
@@ -52016,7 +52020,7 @@
         <v>2802</v>
       </c>
       <c r="C986" s="9" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="F986" s="15" t="s">
         <v>1180</v>
@@ -52031,10 +52035,10 @@
         <v>973</v>
       </c>
       <c r="J986" s="37" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="K986" s="37" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="L986" s="4" t="s">
         <v>1532</v>
@@ -52060,7 +52064,7 @@
         <v>2803</v>
       </c>
       <c r="C987" s="9" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="F987" s="15" t="s">
         <v>1180</v>
@@ -52075,10 +52079,10 @@
         <v>973</v>
       </c>
       <c r="J987" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K987" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K987" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L987" s="4" t="s">
         <v>1532</v>
@@ -52093,7 +52097,7 @@
         <v>1149</v>
       </c>
       <c r="P987" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="988" spans="1:16" ht="90">
@@ -52104,7 +52108,7 @@
         <v>2804</v>
       </c>
       <c r="C988" s="9" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="F988" s="15" t="s">
         <v>1180</v>
@@ -52119,10 +52123,10 @@
         <v>973</v>
       </c>
       <c r="J988" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K988" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K988" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L988" s="4" t="s">
         <v>1532</v>
@@ -52137,7 +52141,7 @@
         <v>1149</v>
       </c>
       <c r="P988" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="989" spans="1:16" ht="90">
@@ -52148,7 +52152,7 @@
         <v>2805</v>
       </c>
       <c r="C989" s="9" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="F989" s="15" t="s">
         <v>1180</v>
@@ -52163,10 +52167,10 @@
         <v>973</v>
       </c>
       <c r="J989" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K989" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K989" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L989" s="4" t="s">
         <v>1532</v>
@@ -52181,7 +52185,7 @@
         <v>1149</v>
       </c>
       <c r="P989" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="990" spans="1:16" ht="45">
@@ -52192,7 +52196,7 @@
         <v>2806</v>
       </c>
       <c r="C990" s="9" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="F990" s="15" t="s">
         <v>1180</v>
@@ -52207,20 +52211,20 @@
         <v>973</v>
       </c>
       <c r="J990" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K990" s="35" t="s">
         <v>2911</v>
       </c>
-      <c r="K990" s="35" t="s">
-        <v>2912</v>
-      </c>
       <c r="L990" s="4" t="s">
         <v>1532</v>
       </c>
       <c r="M990" s="41" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="N990" s="41"/>
       <c r="P990" s="11" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="991" spans="1:16" ht="90">
@@ -52231,7 +52235,7 @@
         <v>2807</v>
       </c>
       <c r="C991" s="9" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="F991" s="15" t="s">
         <v>1180</v>
@@ -52246,10 +52250,10 @@
         <v>973</v>
       </c>
       <c r="J991" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K991" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K991" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L991" s="4" t="s">
         <v>1532</v>
@@ -52264,7 +52268,7 @@
         <v>1149</v>
       </c>
       <c r="P991" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="992" spans="1:16" ht="90">
@@ -52275,7 +52279,7 @@
         <v>2803</v>
       </c>
       <c r="C992" s="9" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="F992" s="15" t="s">
         <v>1180</v>
@@ -52290,10 +52294,10 @@
         <v>973</v>
       </c>
       <c r="J992" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K992" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K992" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L992" s="4" t="s">
         <v>1532</v>
@@ -52308,7 +52312,7 @@
         <v>1149</v>
       </c>
       <c r="P992" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="993" spans="1:16" ht="45">
@@ -52319,7 +52323,7 @@
         <v>2765</v>
       </c>
       <c r="C993" s="9" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="F993" s="15" t="s">
         <v>1180</v>
@@ -52334,20 +52338,20 @@
         <v>973</v>
       </c>
       <c r="J993" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K993" s="35" t="s">
         <v>2911</v>
       </c>
-      <c r="K993" s="35" t="s">
-        <v>2912</v>
-      </c>
       <c r="L993" s="4" t="s">
         <v>1532</v>
       </c>
       <c r="M993" s="11" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="N993" s="35"/>
       <c r="P993" s="11" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="994" spans="1:16" ht="60">
@@ -52355,13 +52359,13 @@
         <v>2645</v>
       </c>
       <c r="B994" s="9" t="s">
-        <v>2808</v>
+        <v>3078</v>
       </c>
       <c r="C994" s="9" t="s">
-        <v>2972</v>
+        <v>3077</v>
       </c>
       <c r="E994" s="9" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="G994" s="9" t="s">
         <v>1141</v>
@@ -52399,10 +52403,10 @@
         <v>2646</v>
       </c>
       <c r="B995" s="34" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="C995" s="9" t="s">
-        <v>2973</v>
+        <v>2971</v>
       </c>
       <c r="F995" s="15" t="s">
         <v>1180</v>
@@ -52417,20 +52421,20 @@
         <v>973</v>
       </c>
       <c r="J995" s="37" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="K995" s="37" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="L995" s="4" t="s">
         <v>1532</v>
       </c>
       <c r="M995" s="11" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="N995" s="37"/>
       <c r="P995" s="11" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="996" spans="1:16" ht="45">
@@ -52438,10 +52442,10 @@
         <v>2647</v>
       </c>
       <c r="B996" s="9" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="C996" s="9" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="E996" s="9" t="s">
         <v>2</v>
@@ -52474,7 +52478,7 @@
         <v>1149</v>
       </c>
       <c r="P996" s="28" t="s">
-        <v>3071</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="997" spans="1:16" ht="45">
@@ -52482,10 +52486,10 @@
         <v>2648</v>
       </c>
       <c r="B997" s="9" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="C997" s="9" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="E997" s="9" t="s">
         <v>543</v>
@@ -52518,7 +52522,7 @@
         <v>1149</v>
       </c>
       <c r="P997" s="28" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="998" spans="1:16" ht="60">
@@ -52526,10 +52530,10 @@
         <v>2649</v>
       </c>
       <c r="B998" s="34" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="C998" s="9" t="s">
-        <v>2976</v>
+        <v>2974</v>
       </c>
       <c r="E998" s="34" t="s">
         <v>2</v>
@@ -52544,10 +52548,10 @@
         <v>973</v>
       </c>
       <c r="J998" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="K998" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="L998" s="4" t="s">
         <v>1532</v>
@@ -52570,10 +52574,10 @@
         <v>2650</v>
       </c>
       <c r="B999" s="34" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="C999" s="9" t="s">
-        <v>2977</v>
+        <v>2975</v>
       </c>
       <c r="E999" s="34" t="s">
         <v>2</v>
@@ -52588,10 +52592,10 @@
         <v>973</v>
       </c>
       <c r="J999" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="K999" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="L999" s="4" t="s">
         <v>1532</v>
@@ -52614,10 +52618,10 @@
         <v>2651</v>
       </c>
       <c r="B1000" s="34" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="C1000" s="9" t="s">
-        <v>2978</v>
+        <v>2976</v>
       </c>
       <c r="F1000" s="15" t="s">
         <v>1180</v>
@@ -52632,10 +52636,10 @@
         <v>973</v>
       </c>
       <c r="J1000" s="37" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="K1000" s="37" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="L1000" s="4" t="s">
         <v>1532</v>
@@ -52650,7 +52654,7 @@
         <v>1149</v>
       </c>
       <c r="P1000" s="15" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="1001" spans="1:16" ht="90">
@@ -52658,10 +52662,10 @@
         <v>2652</v>
       </c>
       <c r="B1001" s="36" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="C1001" s="9" t="s">
-        <v>2979</v>
+        <v>2977</v>
       </c>
       <c r="F1001" s="15" t="s">
         <v>1180</v>
@@ -52676,10 +52680,10 @@
         <v>973</v>
       </c>
       <c r="J1001" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1001" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1001" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1001" s="4" t="s">
         <v>1532</v>
@@ -52694,7 +52698,7 @@
         <v>1149</v>
       </c>
       <c r="P1001" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1002" spans="1:16" ht="90">
@@ -52705,7 +52709,7 @@
         <v>2805</v>
       </c>
       <c r="C1002" s="9" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="F1002" s="15" t="s">
         <v>1180</v>
@@ -52720,10 +52724,10 @@
         <v>973</v>
       </c>
       <c r="J1002" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1002" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1002" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1002" s="4" t="s">
         <v>1532</v>
@@ -52738,7 +52742,7 @@
         <v>1149</v>
       </c>
       <c r="P1002" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1003" spans="1:16" ht="90">
@@ -52746,10 +52750,10 @@
         <v>2654</v>
       </c>
       <c r="B1003" s="36" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="C1003" s="9" t="s">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="F1003" s="15" t="s">
         <v>1180</v>
@@ -52764,10 +52768,10 @@
         <v>973</v>
       </c>
       <c r="J1003" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1003" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1003" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1003" s="4" t="s">
         <v>1532</v>
@@ -52782,7 +52786,7 @@
         <v>1149</v>
       </c>
       <c r="P1003" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1004" spans="1:16" ht="90">
@@ -52790,10 +52794,10 @@
         <v>2655</v>
       </c>
       <c r="B1004" s="36" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="C1004" s="9" t="s">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="F1004" s="15" t="s">
         <v>1180</v>
@@ -52808,10 +52812,10 @@
         <v>973</v>
       </c>
       <c r="J1004" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1004" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1004" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1004" s="4" t="s">
         <v>1532</v>
@@ -52826,7 +52830,7 @@
         <v>1149</v>
       </c>
       <c r="P1004" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1005" spans="1:16" ht="90">
@@ -52834,10 +52838,10 @@
         <v>2656</v>
       </c>
       <c r="B1005" s="36" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="C1005" s="9" t="s">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="F1005" s="15" t="s">
         <v>1180</v>
@@ -52852,10 +52856,10 @@
         <v>973</v>
       </c>
       <c r="J1005" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1005" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1005" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1005" s="4" t="s">
         <v>1532</v>
@@ -52870,7 +52874,7 @@
         <v>1149</v>
       </c>
       <c r="P1005" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1006" spans="1:16" ht="90">
@@ -52878,10 +52882,10 @@
         <v>2657</v>
       </c>
       <c r="B1006" s="36" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="C1006" s="9" t="s">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="F1006" s="15" t="s">
         <v>1180</v>
@@ -52896,10 +52900,10 @@
         <v>973</v>
       </c>
       <c r="J1006" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1006" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1006" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1006" s="4" t="s">
         <v>1532</v>
@@ -52914,7 +52918,7 @@
         <v>1149</v>
       </c>
       <c r="P1006" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1007" spans="1:16" ht="45">
@@ -52922,10 +52926,10 @@
         <v>2658</v>
       </c>
       <c r="B1007" s="9" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="C1007" s="9" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="E1007" s="9" t="s">
         <v>2</v>
@@ -52958,7 +52962,7 @@
         <v>1149</v>
       </c>
       <c r="P1007" s="28" t="s">
-        <v>3071</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="1008" spans="1:16" ht="45">
@@ -52966,10 +52970,10 @@
         <v>2659</v>
       </c>
       <c r="B1008" s="9" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="C1008" s="9" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="E1008" s="9" t="s">
         <v>543</v>
@@ -53002,7 +53006,7 @@
         <v>1149</v>
       </c>
       <c r="P1008" s="28" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="1009" spans="1:16" ht="60">
@@ -53010,10 +53014,10 @@
         <v>2660</v>
       </c>
       <c r="B1009" s="34" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="C1009" s="9" t="s">
-        <v>2981</v>
+        <v>2979</v>
       </c>
       <c r="E1009" s="34" t="s">
         <v>2</v>
@@ -53028,10 +53032,10 @@
         <v>973</v>
       </c>
       <c r="J1009" s="37" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="K1009" s="37" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="L1009" s="4" t="s">
         <v>1532</v>
@@ -53054,10 +53058,10 @@
         <v>2661</v>
       </c>
       <c r="B1010" s="34" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="C1010" s="9" t="s">
-        <v>2982</v>
+        <v>2980</v>
       </c>
       <c r="E1010" s="34" t="s">
         <v>2</v>
@@ -53072,10 +53076,10 @@
         <v>973</v>
       </c>
       <c r="J1010" s="37" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="K1010" s="37" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="L1010" s="4" t="s">
         <v>1532</v>
@@ -53098,13 +53102,13 @@
         <v>2662</v>
       </c>
       <c r="B1011" s="34" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="C1011" s="9" t="s">
-        <v>2983</v>
+        <v>2981</v>
       </c>
       <c r="E1011" s="34" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="G1011" s="9" t="s">
         <v>1141</v>
@@ -53116,10 +53120,10 @@
         <v>973</v>
       </c>
       <c r="J1011" s="37" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="K1011" s="37" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="L1011" s="4" t="s">
         <v>1532</v>
@@ -53127,7 +53131,7 @@
       <c r="M1011" s="37"/>
       <c r="N1011" s="37"/>
       <c r="P1011" s="15" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="1012" spans="1:16" ht="45">
@@ -53135,13 +53139,13 @@
         <v>2663</v>
       </c>
       <c r="B1012" s="34" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="C1012" s="9" t="s">
-        <v>2984</v>
+        <v>2982</v>
       </c>
       <c r="E1012" s="34" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="G1012" s="9" t="s">
         <v>1141</v>
@@ -53153,10 +53157,10 @@
         <v>973</v>
       </c>
       <c r="J1012" s="37" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="K1012" s="37" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="L1012" s="4" t="s">
         <v>1532</v>
@@ -53172,13 +53176,13 @@
         <v>2664</v>
       </c>
       <c r="B1013" s="34" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="C1013" s="9" t="s">
-        <v>2985</v>
+        <v>2983</v>
       </c>
       <c r="E1013" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1013" s="9" t="s">
         <v>1141</v>
@@ -53190,10 +53194,10 @@
         <v>973</v>
       </c>
       <c r="J1013" s="37" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="K1013" s="37" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="L1013" s="4" t="s">
         <v>1532</v>
@@ -53201,7 +53205,7 @@
       <c r="M1013" s="37"/>
       <c r="N1013" s="37"/>
       <c r="P1013" s="15" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1014" spans="1:16" ht="45">
@@ -53209,13 +53213,13 @@
         <v>2665</v>
       </c>
       <c r="B1014" s="34" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="C1014" s="9" t="s">
-        <v>2986</v>
+        <v>2984</v>
       </c>
       <c r="E1014" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1014" s="9" t="s">
         <v>1141</v>
@@ -53227,10 +53231,10 @@
         <v>973</v>
       </c>
       <c r="J1014" s="37" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="K1014" s="37" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="L1014" s="4" t="s">
         <v>1532</v>
@@ -53238,7 +53242,7 @@
       <c r="M1014" s="37"/>
       <c r="N1014" s="37"/>
       <c r="P1014" s="15" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1015" spans="1:16" ht="90">
@@ -53246,10 +53250,10 @@
         <v>2666</v>
       </c>
       <c r="B1015" s="34" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="C1015" s="9" t="s">
-        <v>2987</v>
+        <v>2985</v>
       </c>
       <c r="F1015" s="15" t="s">
         <v>1180</v>
@@ -53264,10 +53268,10 @@
         <v>973</v>
       </c>
       <c r="J1015" s="37" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="K1015" s="37" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="L1015" s="4" t="s">
         <v>1532</v>
@@ -53282,7 +53286,7 @@
         <v>1149</v>
       </c>
       <c r="P1015" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1016" spans="1:16" ht="45">
@@ -53290,13 +53294,13 @@
         <v>2667</v>
       </c>
       <c r="B1016" s="34" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="C1016" s="9" t="s">
-        <v>2988</v>
+        <v>2986</v>
       </c>
       <c r="E1016" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1016" s="9" t="s">
         <v>1141</v>
@@ -53308,10 +53312,10 @@
         <v>973</v>
       </c>
       <c r="J1016" s="37" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="K1016" s="37" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="L1016" s="4" t="s">
         <v>1532</v>
@@ -53319,7 +53323,7 @@
       <c r="M1016" s="37"/>
       <c r="N1016" s="37"/>
       <c r="P1016" s="15" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1017" spans="1:16" ht="45">
@@ -53327,13 +53331,13 @@
         <v>2668</v>
       </c>
       <c r="B1017" s="9" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="C1017" s="9" t="s">
-        <v>2989</v>
+        <v>2987</v>
       </c>
       <c r="E1017" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1017" s="9" t="s">
         <v>1141</v>
@@ -53356,7 +53360,7 @@
       <c r="M1017" s="40"/>
       <c r="N1017" s="40"/>
       <c r="P1017" s="9" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1018" spans="1:16" ht="45">
@@ -53364,10 +53368,10 @@
         <v>2669</v>
       </c>
       <c r="B1018" s="9" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="C1018" s="9" t="s">
-        <v>2974</v>
+        <v>2972</v>
       </c>
       <c r="E1018" s="9" t="s">
         <v>2</v>
@@ -53400,7 +53404,7 @@
         <v>1149</v>
       </c>
       <c r="P1018" s="28" t="s">
-        <v>3071</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="1019" spans="1:16" ht="45">
@@ -53408,10 +53412,10 @@
         <v>2670</v>
       </c>
       <c r="B1019" s="9" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="C1019" s="9" t="s">
-        <v>2975</v>
+        <v>2973</v>
       </c>
       <c r="E1019" s="9" t="s">
         <v>543</v>
@@ -53444,7 +53448,7 @@
         <v>1149</v>
       </c>
       <c r="P1019" s="28" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="1020" spans="1:16" ht="60">
@@ -53455,7 +53459,7 @@
         <v>615</v>
       </c>
       <c r="C1020" s="9" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="D1020" s="17" t="s">
         <v>1179</v>
@@ -53496,13 +53500,13 @@
         <v>2672</v>
       </c>
       <c r="B1021" s="34" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="C1021" s="9" t="s">
-        <v>2990</v>
+        <v>2988</v>
       </c>
       <c r="E1021" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1021" s="9" t="s">
         <v>1141</v>
@@ -53514,10 +53518,10 @@
         <v>973</v>
       </c>
       <c r="J1021" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1021" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1021" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1021" s="4" t="s">
         <v>1532</v>
@@ -53525,7 +53529,7 @@
       <c r="M1021" s="35"/>
       <c r="N1021" s="35"/>
       <c r="P1021" s="15" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1022" spans="1:16" ht="45">
@@ -53533,13 +53537,13 @@
         <v>2673</v>
       </c>
       <c r="B1022" s="9" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="C1022" s="9" t="s">
-        <v>2991</v>
+        <v>2989</v>
       </c>
       <c r="E1022" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1022" s="9" t="s">
         <v>1141</v>
@@ -53562,7 +53566,7 @@
       <c r="M1022" s="40"/>
       <c r="N1022" s="40"/>
       <c r="P1022" s="9" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1023" spans="1:16" ht="45">
@@ -53570,13 +53574,13 @@
         <v>2674</v>
       </c>
       <c r="B1023" s="9" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="C1023" s="9" t="s">
-        <v>2991</v>
+        <v>2989</v>
       </c>
       <c r="E1023" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1023" s="9" t="s">
         <v>1141</v>
@@ -53599,7 +53603,7 @@
       <c r="M1023" s="40"/>
       <c r="N1023" s="40"/>
       <c r="P1023" s="9" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1024" spans="1:16" ht="45">
@@ -53607,13 +53611,13 @@
         <v>2675</v>
       </c>
       <c r="B1024" s="9" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="C1024" s="9" t="s">
-        <v>2991</v>
+        <v>2989</v>
       </c>
       <c r="E1024" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1024" s="9" t="s">
         <v>1141</v>
@@ -53636,7 +53640,7 @@
       <c r="M1024" s="40"/>
       <c r="N1024" s="40"/>
       <c r="P1024" s="9" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1025" spans="1:16" ht="45">
@@ -53644,13 +53648,13 @@
         <v>2676</v>
       </c>
       <c r="B1025" s="9" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="C1025" s="9" t="s">
-        <v>2991</v>
+        <v>2989</v>
       </c>
       <c r="E1025" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1025" s="9" t="s">
         <v>1141</v>
@@ -53673,7 +53677,7 @@
       <c r="M1025" s="40"/>
       <c r="N1025" s="40"/>
       <c r="P1025" s="9" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1026" spans="1:16" ht="45">
@@ -53681,13 +53685,13 @@
         <v>2677</v>
       </c>
       <c r="B1026" s="9" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="C1026" s="9" t="s">
-        <v>2991</v>
+        <v>2989</v>
       </c>
       <c r="E1026" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1026" s="9" t="s">
         <v>1141</v>
@@ -53710,7 +53714,7 @@
       <c r="M1026" s="40"/>
       <c r="N1026" s="40"/>
       <c r="P1026" s="9" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1027" spans="1:16" ht="45">
@@ -53718,13 +53722,13 @@
         <v>2678</v>
       </c>
       <c r="B1027" s="9" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="C1027" s="9" t="s">
-        <v>2991</v>
+        <v>2989</v>
       </c>
       <c r="E1027" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1027" s="9" t="s">
         <v>1141</v>
@@ -53747,7 +53751,7 @@
       <c r="M1027" s="40"/>
       <c r="N1027" s="40"/>
       <c r="P1027" s="9" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1028" spans="1:16" ht="75">
@@ -53755,13 +53759,13 @@
         <v>2679</v>
       </c>
       <c r="B1028" s="34" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="C1028" s="9" t="s">
-        <v>2992</v>
+        <v>2990</v>
       </c>
       <c r="E1028" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1028" s="9" t="s">
         <v>1141</v>
@@ -53773,10 +53777,10 @@
         <v>973</v>
       </c>
       <c r="J1028" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="K1028" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="L1028" s="4" t="s">
         <v>1532</v>
@@ -53784,7 +53788,7 @@
       <c r="M1028" s="37"/>
       <c r="N1028" s="37"/>
       <c r="P1028" s="15" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1029" spans="1:16" ht="45">
@@ -53792,13 +53796,13 @@
         <v>2680</v>
       </c>
       <c r="B1029" s="34" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="C1029" s="9" t="s">
-        <v>2993</v>
+        <v>2991</v>
       </c>
       <c r="E1029" s="34" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="G1029" s="9" t="s">
         <v>1141</v>
@@ -53810,10 +53814,10 @@
         <v>973</v>
       </c>
       <c r="J1029" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="K1029" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="L1029" s="4" t="s">
         <v>1532</v>
@@ -53821,7 +53825,7 @@
       <c r="M1029" s="37"/>
       <c r="N1029" s="37"/>
       <c r="P1029" s="28" t="s">
-        <v>3075</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="1030" spans="1:16" ht="60">
@@ -53829,13 +53833,13 @@
         <v>2681</v>
       </c>
       <c r="B1030" s="34" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="C1030" s="9" t="s">
-        <v>2994</v>
+        <v>2992</v>
       </c>
       <c r="E1030" s="34" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="G1030" s="9" t="s">
         <v>1141</v>
@@ -53847,10 +53851,10 @@
         <v>973</v>
       </c>
       <c r="J1030" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="K1030" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="L1030" s="4" t="s">
         <v>1532</v>
@@ -53858,7 +53862,7 @@
       <c r="M1030" s="37"/>
       <c r="N1030" s="37"/>
       <c r="P1030" s="28" t="s">
-        <v>3075</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="1031" spans="1:16" ht="45">
@@ -53866,13 +53870,13 @@
         <v>2682</v>
       </c>
       <c r="B1031" s="9" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="C1031" s="9" t="s">
-        <v>2995</v>
+        <v>2993</v>
       </c>
       <c r="E1031" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1031" s="9" t="s">
         <v>1141</v>
@@ -53884,10 +53888,10 @@
         <v>973</v>
       </c>
       <c r="J1031" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="K1031" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="L1031" s="4" t="s">
         <v>1532</v>
@@ -53895,7 +53899,7 @@
       <c r="M1031" s="37"/>
       <c r="N1031" s="37"/>
       <c r="P1031" s="15" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1032" spans="1:16" ht="45">
@@ -53903,13 +53907,13 @@
         <v>2683</v>
       </c>
       <c r="B1032" s="9" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="C1032" s="9" t="s">
-        <v>2995</v>
+        <v>2993</v>
       </c>
       <c r="E1032" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1032" s="9" t="s">
         <v>1141</v>
@@ -53921,10 +53925,10 @@
         <v>973</v>
       </c>
       <c r="J1032" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="K1032" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="L1032" s="4" t="s">
         <v>1532</v>
@@ -53932,7 +53936,7 @@
       <c r="M1032" s="37"/>
       <c r="N1032" s="37"/>
       <c r="P1032" s="15" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1033" spans="1:16" ht="45">
@@ -53940,13 +53944,13 @@
         <v>2684</v>
       </c>
       <c r="B1033" s="34" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="C1033" s="9" t="s">
-        <v>2996</v>
+        <v>2994</v>
       </c>
       <c r="E1033" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1033" s="9" t="s">
         <v>1141</v>
@@ -53958,10 +53962,10 @@
         <v>973</v>
       </c>
       <c r="J1033" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="K1033" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="L1033" s="4" t="s">
         <v>1532</v>
@@ -53969,7 +53973,7 @@
       <c r="M1033" s="37"/>
       <c r="N1033" s="37"/>
       <c r="P1033" s="15" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1034" spans="1:16" ht="45">
@@ -53977,13 +53981,13 @@
         <v>2685</v>
       </c>
       <c r="B1034" s="34" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="C1034" s="9" t="s">
-        <v>2997</v>
+        <v>2995</v>
       </c>
       <c r="E1034" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1034" s="9" t="s">
         <v>1141</v>
@@ -53995,10 +53999,10 @@
         <v>973</v>
       </c>
       <c r="J1034" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="K1034" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="L1034" s="4" t="s">
         <v>1532</v>
@@ -54006,7 +54010,7 @@
       <c r="M1034" s="37"/>
       <c r="N1034" s="37"/>
       <c r="P1034" s="15" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1035" spans="1:16" ht="45">
@@ -54014,13 +54018,13 @@
         <v>2686</v>
       </c>
       <c r="B1035" s="9" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="C1035" s="9" t="s">
-        <v>2998</v>
+        <v>2996</v>
       </c>
       <c r="E1035" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1035" s="9" t="s">
         <v>1141</v>
@@ -54043,7 +54047,7 @@
       <c r="M1035" s="40"/>
       <c r="N1035" s="40"/>
       <c r="P1035" s="15" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1036" spans="1:16" ht="45">
@@ -54051,13 +54055,13 @@
         <v>2687</v>
       </c>
       <c r="B1036" s="34" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="C1036" s="9" t="s">
-        <v>2999</v>
+        <v>2997</v>
       </c>
       <c r="E1036" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1036" s="9" t="s">
         <v>1141</v>
@@ -54069,10 +54073,10 @@
         <v>973</v>
       </c>
       <c r="J1036" s="37" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="K1036" s="37" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="L1036" s="4" t="s">
         <v>1532</v>
@@ -54080,7 +54084,7 @@
       <c r="M1036" s="37"/>
       <c r="N1036" s="37"/>
       <c r="P1036" s="9" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1037" spans="1:16" ht="45">
@@ -54088,13 +54092,13 @@
         <v>2688</v>
       </c>
       <c r="B1037" s="34" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="C1037" s="9" t="s">
-        <v>3000</v>
+        <v>2998</v>
       </c>
       <c r="F1037" s="9" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="G1037" s="9" t="s">
         <v>1141</v>
@@ -54106,10 +54110,10 @@
         <v>973</v>
       </c>
       <c r="J1037" s="37" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="K1037" s="37" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="L1037" s="4" t="s">
         <v>1532</v>
@@ -54117,7 +54121,7 @@
       <c r="M1037" s="37"/>
       <c r="N1037" s="37"/>
       <c r="P1037" s="9" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1038" spans="1:16" ht="45">
@@ -54125,13 +54129,13 @@
         <v>2689</v>
       </c>
       <c r="B1038" s="34" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="C1038" s="9" t="s">
-        <v>3001</v>
+        <v>2999</v>
       </c>
       <c r="F1038" s="9" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="G1038" s="9" t="s">
         <v>1141</v>
@@ -54143,10 +54147,10 @@
         <v>973</v>
       </c>
       <c r="J1038" s="37" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="K1038" s="37" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="L1038" s="4" t="s">
         <v>1532</v>
@@ -54154,7 +54158,7 @@
       <c r="M1038" s="37"/>
       <c r="N1038" s="37"/>
       <c r="P1038" s="15" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1039" spans="1:16" ht="45">
@@ -54162,13 +54166,13 @@
         <v>2690</v>
       </c>
       <c r="B1039" s="34" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="C1039" s="9" t="s">
-        <v>3002</v>
+        <v>3000</v>
       </c>
       <c r="F1039" s="9" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="G1039" s="9" t="s">
         <v>1141</v>
@@ -54180,10 +54184,10 @@
         <v>973</v>
       </c>
       <c r="J1039" s="37" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="K1039" s="37" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="L1039" s="4" t="s">
         <v>1532</v>
@@ -54191,7 +54195,7 @@
       <c r="M1039" s="37"/>
       <c r="N1039" s="37"/>
       <c r="P1039" s="15" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1040" spans="1:16" ht="90">
@@ -54199,10 +54203,10 @@
         <v>2691</v>
       </c>
       <c r="B1040" s="34" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
       <c r="C1040" s="9" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="F1040" s="15" t="s">
         <v>1180</v>
@@ -54217,10 +54221,10 @@
         <v>973</v>
       </c>
       <c r="J1040" s="37" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="K1040" s="37" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="L1040" s="4" t="s">
         <v>1532</v>
@@ -54235,7 +54239,7 @@
         <v>1149</v>
       </c>
       <c r="P1040" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1041" spans="1:16" ht="90">
@@ -54243,10 +54247,10 @@
         <v>2692</v>
       </c>
       <c r="B1041" s="34" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="C1041" s="9" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="F1041" s="15" t="s">
         <v>1180</v>
@@ -54261,10 +54265,10 @@
         <v>973</v>
       </c>
       <c r="J1041" s="37" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="K1041" s="37" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="L1041" s="4" t="s">
         <v>1532</v>
@@ -54279,7 +54283,7 @@
         <v>1149</v>
       </c>
       <c r="P1041" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1042" spans="1:16" ht="90">
@@ -54287,10 +54291,10 @@
         <v>2693</v>
       </c>
       <c r="B1042" s="34" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="C1042" s="9" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="F1042" s="15" t="s">
         <v>1180</v>
@@ -54305,10 +54309,10 @@
         <v>973</v>
       </c>
       <c r="J1042" s="37" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="K1042" s="37" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="L1042" s="4" t="s">
         <v>1532</v>
@@ -54323,7 +54327,7 @@
         <v>1149</v>
       </c>
       <c r="P1042" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1043" spans="1:16" ht="45">
@@ -54331,13 +54335,13 @@
         <v>2694</v>
       </c>
       <c r="B1043" s="34" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="C1043" s="9" t="s">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="E1043" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1043" s="9" t="s">
         <v>1141</v>
@@ -54349,10 +54353,10 @@
         <v>973</v>
       </c>
       <c r="J1043" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="K1043" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="L1043" s="4" t="s">
         <v>1532</v>
@@ -54360,7 +54364,7 @@
       <c r="M1043" s="37"/>
       <c r="N1043" s="37"/>
       <c r="P1043" s="15" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1044" spans="1:16" ht="45">
@@ -54368,13 +54372,13 @@
         <v>2695</v>
       </c>
       <c r="B1044" s="34" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="C1044" s="9" t="s">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="E1044" s="34" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="G1044" s="9" t="s">
         <v>1141</v>
@@ -54386,10 +54390,10 @@
         <v>973</v>
       </c>
       <c r="J1044" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="K1044" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="L1044" s="4" t="s">
         <v>1532</v>
@@ -54397,7 +54401,7 @@
       <c r="M1044" s="37"/>
       <c r="N1044" s="37"/>
       <c r="P1044" s="28" t="s">
-        <v>3075</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="1045" spans="1:16" ht="90">
@@ -54405,10 +54409,10 @@
         <v>2696</v>
       </c>
       <c r="B1045" s="34" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="C1045" s="9" t="s">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="F1045" s="15" t="s">
         <v>1180</v>
@@ -54423,10 +54427,10 @@
         <v>973</v>
       </c>
       <c r="J1045" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1045" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1045" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1045" s="4" t="s">
         <v>1532</v>
@@ -54441,7 +54445,7 @@
         <v>1149</v>
       </c>
       <c r="P1045" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1046" spans="1:16" ht="90">
@@ -54449,10 +54453,10 @@
         <v>2697</v>
       </c>
       <c r="B1046" s="36" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="C1046" s="9" t="s">
-        <v>3008</v>
+        <v>3006</v>
       </c>
       <c r="F1046" s="15" t="s">
         <v>1180</v>
@@ -54467,10 +54471,10 @@
         <v>973</v>
       </c>
       <c r="J1046" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1046" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1046" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1046" s="4" t="s">
         <v>1532</v>
@@ -54485,7 +54489,7 @@
         <v>1149</v>
       </c>
       <c r="P1046" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1047" spans="1:16" ht="90">
@@ -54493,10 +54497,10 @@
         <v>2698</v>
       </c>
       <c r="B1047" s="36" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="C1047" s="9" t="s">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="F1047" s="15" t="s">
         <v>1180</v>
@@ -54511,10 +54515,10 @@
         <v>973</v>
       </c>
       <c r="J1047" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1047" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1047" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1047" s="4" t="s">
         <v>1532</v>
@@ -54529,7 +54533,7 @@
         <v>1149</v>
       </c>
       <c r="P1047" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1048" spans="1:16" ht="90">
@@ -54537,10 +54541,10 @@
         <v>2699</v>
       </c>
       <c r="B1048" s="34" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="C1048" s="9" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="F1048" s="15" t="s">
         <v>1180</v>
@@ -54555,10 +54559,10 @@
         <v>973</v>
       </c>
       <c r="J1048" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1048" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1048" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1048" s="4" t="s">
         <v>1532</v>
@@ -54573,7 +54577,7 @@
         <v>1149</v>
       </c>
       <c r="P1048" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1049" spans="1:16" ht="45">
@@ -54581,13 +54585,13 @@
         <v>2700</v>
       </c>
       <c r="B1049" s="34" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="C1049" s="9" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="E1049" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1049" s="9" t="s">
         <v>1141</v>
@@ -54599,10 +54603,10 @@
         <v>973</v>
       </c>
       <c r="J1049" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1049" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1049" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1049" s="4" t="s">
         <v>1532</v>
@@ -54610,7 +54614,7 @@
       <c r="M1049" s="35"/>
       <c r="N1049" s="35"/>
       <c r="P1049" s="15" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1050" spans="1:16" ht="45">
@@ -54618,13 +54622,13 @@
         <v>2701</v>
       </c>
       <c r="B1050" s="34" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="C1050" s="9" t="s">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="E1050" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1050" s="9" t="s">
         <v>1141</v>
@@ -54636,10 +54640,10 @@
         <v>973</v>
       </c>
       <c r="J1050" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="K1050" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="L1050" s="4" t="s">
         <v>1532</v>
@@ -54647,7 +54651,7 @@
       <c r="M1050" s="37"/>
       <c r="N1050" s="37"/>
       <c r="P1050" s="15" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1051" spans="1:16" ht="90">
@@ -54655,10 +54659,10 @@
         <v>2702</v>
       </c>
       <c r="B1051" s="34" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="C1051" s="9" t="s">
-        <v>3013</v>
+        <v>3011</v>
       </c>
       <c r="F1051" s="15" t="s">
         <v>1180</v>
@@ -54673,10 +54677,10 @@
         <v>973</v>
       </c>
       <c r="J1051" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1051" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1051" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1051" s="4" t="s">
         <v>1532</v>
@@ -54691,7 +54695,7 @@
         <v>1149</v>
       </c>
       <c r="P1051" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1052" spans="1:16" ht="45">
@@ -54699,13 +54703,13 @@
         <v>2703</v>
       </c>
       <c r="B1052" s="34" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="C1052" s="9" t="s">
-        <v>3014</v>
+        <v>3012</v>
       </c>
       <c r="E1052" s="34" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="G1052" s="9" t="s">
         <v>1141</v>
@@ -54717,10 +54721,10 @@
         <v>973</v>
       </c>
       <c r="J1052" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="K1052" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="L1052" s="4" t="s">
         <v>1532</v>
@@ -54728,7 +54732,7 @@
       <c r="M1052" s="37"/>
       <c r="N1052" s="37"/>
       <c r="P1052" s="28" t="s">
-        <v>3075</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="1053" spans="1:16" ht="45">
@@ -54736,10 +54740,10 @@
         <v>2704</v>
       </c>
       <c r="B1053" s="34" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="C1053" s="9" t="s">
-        <v>3015</v>
+        <v>3013</v>
       </c>
       <c r="F1053" s="15" t="s">
         <v>1180</v>
@@ -54754,10 +54758,10 @@
         <v>973</v>
       </c>
       <c r="J1053" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1053" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1053" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1053" s="4" t="s">
         <v>1532</v>
@@ -54772,7 +54776,7 @@
         <v>1149</v>
       </c>
       <c r="P1053" s="15" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="1054" spans="1:16" ht="45">
@@ -54780,10 +54784,10 @@
         <v>2705</v>
       </c>
       <c r="B1054" s="34" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="C1054" s="9" t="s">
-        <v>3016</v>
+        <v>3014</v>
       </c>
       <c r="F1054" s="15" t="s">
         <v>1180</v>
@@ -54798,10 +54802,10 @@
         <v>973</v>
       </c>
       <c r="J1054" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1054" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1054" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1054" s="4" t="s">
         <v>1532</v>
@@ -54816,7 +54820,7 @@
         <v>1149</v>
       </c>
       <c r="P1054" s="15" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="1055" spans="1:16" ht="45">
@@ -54824,13 +54828,13 @@
         <v>2706</v>
       </c>
       <c r="B1055" s="9" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="C1055" s="9" t="s">
-        <v>3017</v>
+        <v>3015</v>
       </c>
       <c r="E1055" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1055" s="9" t="s">
         <v>1141</v>
@@ -54842,10 +54846,10 @@
         <v>973</v>
       </c>
       <c r="J1055" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1055" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1055" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1055" s="4" t="s">
         <v>1532</v>
@@ -54853,7 +54857,7 @@
       <c r="M1055" s="35"/>
       <c r="N1055" s="35"/>
       <c r="P1055" s="15" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1056" spans="1:16" ht="45">
@@ -54861,13 +54865,13 @@
         <v>2707</v>
       </c>
       <c r="B1056" s="34" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="C1056" s="9" t="s">
-        <v>3018</v>
+        <v>3016</v>
       </c>
       <c r="E1056" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1056" s="9" t="s">
         <v>1141</v>
@@ -54879,10 +54883,10 @@
         <v>973</v>
       </c>
       <c r="J1056" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="K1056" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="L1056" s="4" t="s">
         <v>1532</v>
@@ -54890,7 +54894,7 @@
       <c r="M1056" s="37"/>
       <c r="N1056" s="37"/>
       <c r="P1056" s="15" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1057" spans="1:16" ht="45">
@@ -54898,13 +54902,13 @@
         <v>2708</v>
       </c>
       <c r="B1057" s="9" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="C1057" s="9" t="s">
-        <v>3019</v>
+        <v>3017</v>
       </c>
       <c r="E1057" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1057" s="9" t="s">
         <v>1141</v>
@@ -54916,10 +54920,10 @@
         <v>973</v>
       </c>
       <c r="J1057" s="37" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="K1057" s="37" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="L1057" s="4" t="s">
         <v>1532</v>
@@ -54927,7 +54931,7 @@
       <c r="M1057" s="37"/>
       <c r="N1057" s="37"/>
       <c r="P1057" s="9" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1058" spans="1:16" ht="45">
@@ -54935,13 +54939,13 @@
         <v>2709</v>
       </c>
       <c r="B1058" s="34" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="C1058" s="9" t="s">
-        <v>3020</v>
+        <v>3018</v>
       </c>
       <c r="E1058" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1058" s="9" t="s">
         <v>1141</v>
@@ -54953,10 +54957,10 @@
         <v>973</v>
       </c>
       <c r="J1058" s="37" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="K1058" s="37" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="L1058" s="4" t="s">
         <v>1532</v>
@@ -54964,7 +54968,7 @@
       <c r="M1058" s="37"/>
       <c r="N1058" s="37"/>
       <c r="P1058" s="15" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1059" spans="1:16" ht="45">
@@ -54972,13 +54976,13 @@
         <v>2710</v>
       </c>
       <c r="B1059" s="34" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="C1059" s="9" t="s">
-        <v>3021</v>
+        <v>3019</v>
       </c>
       <c r="E1059" s="34" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="G1059" s="9" t="s">
         <v>1141</v>
@@ -54990,10 +54994,10 @@
         <v>973</v>
       </c>
       <c r="J1059" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="K1059" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="L1059" s="4" t="s">
         <v>1532</v>
@@ -55001,7 +55005,7 @@
       <c r="M1059" s="37"/>
       <c r="N1059" s="37"/>
       <c r="P1059" s="28" t="s">
-        <v>3075</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="1060" spans="1:16" ht="45">
@@ -55009,13 +55013,13 @@
         <v>2711</v>
       </c>
       <c r="B1060" s="34" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="C1060" s="9" t="s">
-        <v>3022</v>
+        <v>3020</v>
       </c>
       <c r="E1060" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1060" s="9" t="s">
         <v>1141</v>
@@ -55027,10 +55031,10 @@
         <v>973</v>
       </c>
       <c r="J1060" s="37" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="K1060" s="37" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="L1060" s="4" t="s">
         <v>1532</v>
@@ -55038,7 +55042,7 @@
       <c r="M1060" s="37"/>
       <c r="N1060" s="37"/>
       <c r="P1060" s="15" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1061" spans="1:16" ht="45">
@@ -55046,13 +55050,13 @@
         <v>2712</v>
       </c>
       <c r="B1061" s="34" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="C1061" s="9" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="E1061" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1061" s="9" t="s">
         <v>1141</v>
@@ -55064,10 +55068,10 @@
         <v>973</v>
       </c>
       <c r="J1061" s="37" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="K1061" s="37" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="L1061" s="4" t="s">
         <v>1532</v>
@@ -55075,7 +55079,7 @@
       <c r="M1061" s="37"/>
       <c r="N1061" s="37"/>
       <c r="P1061" s="15" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1062" spans="1:16" ht="45">
@@ -55083,13 +55087,13 @@
         <v>2713</v>
       </c>
       <c r="B1062" s="34" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="C1062" s="9" t="s">
-        <v>3024</v>
+        <v>3022</v>
       </c>
       <c r="E1062" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1062" s="9" t="s">
         <v>1141</v>
@@ -55101,10 +55105,10 @@
         <v>973</v>
       </c>
       <c r="J1062" s="37" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="K1062" s="37" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="L1062" s="4" t="s">
         <v>1532</v>
@@ -55112,7 +55116,7 @@
       <c r="M1062" s="37"/>
       <c r="N1062" s="37"/>
       <c r="P1062" s="15" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1063" spans="1:16" ht="60">
@@ -55120,13 +55124,13 @@
         <v>2714</v>
       </c>
       <c r="B1063" s="9" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="C1063" s="9" t="s">
-        <v>3025</v>
+        <v>3023</v>
       </c>
       <c r="E1063" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1063" s="9" t="s">
         <v>1141</v>
@@ -55149,7 +55153,7 @@
       <c r="M1063" s="40"/>
       <c r="N1063" s="40"/>
       <c r="P1063" s="9" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1064" spans="1:16" ht="60">
@@ -55157,13 +55161,13 @@
         <v>2715</v>
       </c>
       <c r="B1064" s="9" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="C1064" s="9" t="s">
-        <v>3026</v>
+        <v>3024</v>
       </c>
       <c r="E1064" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1064" s="9" t="s">
         <v>1141</v>
@@ -55186,7 +55190,7 @@
       <c r="M1064" s="40"/>
       <c r="N1064" s="40"/>
       <c r="P1064" s="15" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1065" spans="1:16" ht="90">
@@ -55197,7 +55201,7 @@
         <v>2768</v>
       </c>
       <c r="C1065" s="9" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="F1065" s="15" t="s">
         <v>1180</v>
@@ -55212,10 +55216,10 @@
         <v>973</v>
       </c>
       <c r="J1065" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1065" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1065" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1065" s="4" t="s">
         <v>1532</v>
@@ -55230,7 +55234,7 @@
         <v>1149</v>
       </c>
       <c r="P1065" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1066" spans="1:16" ht="90">
@@ -55241,7 +55245,7 @@
         <v>2799</v>
       </c>
       <c r="C1066" s="9" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="F1066" s="15" t="s">
         <v>1180</v>
@@ -55256,10 +55260,10 @@
         <v>973</v>
       </c>
       <c r="J1066" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1066" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1066" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1066" s="4" t="s">
         <v>1532</v>
@@ -55274,7 +55278,7 @@
         <v>1149</v>
       </c>
       <c r="P1066" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1067" spans="1:16" ht="45">
@@ -55282,10 +55286,10 @@
         <v>2718</v>
       </c>
       <c r="B1067" s="34" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="C1067" s="9" t="s">
-        <v>3027</v>
+        <v>3025</v>
       </c>
       <c r="F1067" s="34" t="s">
         <v>2494</v>
@@ -55300,10 +55304,10 @@
         <v>973</v>
       </c>
       <c r="J1067" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1067" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1067" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1067" s="4" t="s">
         <v>1532</v>
@@ -55319,13 +55323,13 @@
         <v>2719</v>
       </c>
       <c r="B1068" s="9" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="C1068" s="9" t="s">
-        <v>3028</v>
+        <v>3026</v>
       </c>
       <c r="F1068" s="9" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="G1068" s="9" t="s">
         <v>1141</v>
@@ -55348,7 +55352,7 @@
       <c r="M1068" s="40"/>
       <c r="N1068" s="40"/>
       <c r="P1068" s="28" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="1069" spans="1:16" ht="45">
@@ -55356,13 +55360,13 @@
         <v>2720</v>
       </c>
       <c r="B1069" s="34" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="C1069" s="9" t="s">
-        <v>3029</v>
+        <v>3027</v>
       </c>
       <c r="F1069" s="34" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="G1069" s="9" t="s">
         <v>1141</v>
@@ -55374,10 +55378,10 @@
         <v>973</v>
       </c>
       <c r="J1069" s="37" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="K1069" s="37" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="L1069" s="4" t="s">
         <v>1532</v>
@@ -55385,7 +55389,7 @@
       <c r="M1069" s="37"/>
       <c r="N1069" s="37"/>
       <c r="P1069" s="28" t="s">
-        <v>3077</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="1070" spans="1:16" ht="45">
@@ -55393,13 +55397,13 @@
         <v>2721</v>
       </c>
       <c r="B1070" s="34" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="C1070" s="9" t="s">
-        <v>3030</v>
+        <v>3028</v>
       </c>
       <c r="F1070" s="34" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="G1070" s="9" t="s">
         <v>1141</v>
@@ -55411,10 +55415,10 @@
         <v>973</v>
       </c>
       <c r="J1070" s="37" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="K1070" s="37" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="L1070" s="4" t="s">
         <v>1532</v>
@@ -55422,7 +55426,7 @@
       <c r="M1070" s="37"/>
       <c r="N1070" s="37"/>
       <c r="P1070" s="28" t="s">
-        <v>3078</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="1071" spans="1:16" ht="75">
@@ -55430,13 +55434,13 @@
         <v>2722</v>
       </c>
       <c r="B1071" s="34" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="C1071" s="9" t="s">
-        <v>3031</v>
+        <v>3029</v>
       </c>
       <c r="E1071" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1071" s="9" t="s">
         <v>1141</v>
@@ -55448,10 +55452,10 @@
         <v>973</v>
       </c>
       <c r="J1071" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="K1071" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="L1071" s="4" t="s">
         <v>1532</v>
@@ -55459,7 +55463,7 @@
       <c r="M1071" s="37"/>
       <c r="N1071" s="37"/>
       <c r="P1071" s="15" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1072" spans="1:16" ht="75">
@@ -55467,13 +55471,13 @@
         <v>2723</v>
       </c>
       <c r="B1072" s="34" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="C1072" s="9" t="s">
-        <v>3032</v>
+        <v>3030</v>
       </c>
       <c r="E1072" s="9" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="G1072" s="9" t="s">
         <v>1141</v>
@@ -55485,10 +55489,10 @@
         <v>973</v>
       </c>
       <c r="J1072" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="K1072" s="37" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="L1072" s="4" t="s">
         <v>1532</v>
@@ -55496,7 +55500,7 @@
       <c r="M1072" s="37"/>
       <c r="N1072" s="37"/>
       <c r="P1072" s="15" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1073" spans="1:16" ht="45">
@@ -55504,28 +55508,28 @@
         <v>2724</v>
       </c>
       <c r="B1073" s="34" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="C1073" s="9" t="s">
-        <v>3033</v>
+        <v>3031</v>
       </c>
       <c r="F1073" s="36" t="s">
+        <v>2909</v>
+      </c>
+      <c r="G1073" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H1073" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="I1073" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="J1073" s="35" t="s">
         <v>2910</v>
       </c>
-      <c r="G1073" s="9" t="s">
-        <v>1141</v>
-      </c>
-      <c r="H1073" s="5" t="s">
-        <v>1145</v>
-      </c>
-      <c r="I1073" s="5" t="s">
-        <v>973</v>
-      </c>
-      <c r="J1073" s="35" t="s">
+      <c r="K1073" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1073" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1073" s="4" t="s">
         <v>1532</v>
@@ -55540,7 +55544,7 @@
         <v>1149</v>
       </c>
       <c r="P1073" s="15" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="1074" spans="1:16" ht="45">
@@ -55548,28 +55552,28 @@
         <v>2725</v>
       </c>
       <c r="B1074" s="34" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="C1074" s="9" t="s">
-        <v>3034</v>
+        <v>3032</v>
       </c>
       <c r="F1074" s="36" t="s">
+        <v>2909</v>
+      </c>
+      <c r="G1074" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H1074" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="I1074" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="J1074" s="35" t="s">
         <v>2910</v>
       </c>
-      <c r="G1074" s="9" t="s">
-        <v>1141</v>
-      </c>
-      <c r="H1074" s="5" t="s">
-        <v>1145</v>
-      </c>
-      <c r="I1074" s="5" t="s">
-        <v>973</v>
-      </c>
-      <c r="J1074" s="35" t="s">
+      <c r="K1074" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1074" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1074" s="4" t="s">
         <v>1532</v>
@@ -55584,7 +55588,7 @@
         <v>1149</v>
       </c>
       <c r="P1074" s="15" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="1075" spans="1:16" ht="90">
@@ -55592,10 +55596,10 @@
         <v>2726</v>
       </c>
       <c r="B1075" s="34" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="C1075" s="9" t="s">
-        <v>3035</v>
+        <v>3033</v>
       </c>
       <c r="F1075" s="15" t="s">
         <v>1180</v>
@@ -55610,10 +55614,10 @@
         <v>973</v>
       </c>
       <c r="J1075" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1075" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1075" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1075" s="4" t="s">
         <v>1532</v>
@@ -55628,7 +55632,7 @@
         <v>1149</v>
       </c>
       <c r="P1075" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1076" spans="1:16" ht="90">
@@ -55636,10 +55640,10 @@
         <v>2727</v>
       </c>
       <c r="B1076" s="34" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="C1076" s="9" t="s">
-        <v>3036</v>
+        <v>3034</v>
       </c>
       <c r="F1076" s="15" t="s">
         <v>1180</v>
@@ -55654,10 +55658,10 @@
         <v>973</v>
       </c>
       <c r="J1076" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1076" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1076" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1076" s="4" t="s">
         <v>1532</v>
@@ -55672,7 +55676,7 @@
         <v>1149</v>
       </c>
       <c r="P1076" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1077" spans="1:16" ht="90">
@@ -55680,10 +55684,10 @@
         <v>2728</v>
       </c>
       <c r="B1077" s="34" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="C1077" s="9" t="s">
-        <v>3037</v>
+        <v>3035</v>
       </c>
       <c r="F1077" s="15" t="s">
         <v>1180</v>
@@ -55698,10 +55702,10 @@
         <v>973</v>
       </c>
       <c r="J1077" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1077" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1077" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1077" s="4" t="s">
         <v>1532</v>
@@ -55716,7 +55720,7 @@
         <v>1149</v>
       </c>
       <c r="P1077" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1078" spans="1:16" ht="90">
@@ -55724,10 +55728,10 @@
         <v>2729</v>
       </c>
       <c r="B1078" s="34" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="C1078" s="9" t="s">
-        <v>3038</v>
+        <v>3036</v>
       </c>
       <c r="F1078" s="15" t="s">
         <v>1180</v>
@@ -55742,10 +55746,10 @@
         <v>973</v>
       </c>
       <c r="J1078" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1078" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1078" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1078" s="4" t="s">
         <v>1532</v>
@@ -55760,7 +55764,7 @@
         <v>1149</v>
       </c>
       <c r="P1078" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1079" spans="1:16" ht="90">
@@ -55768,10 +55772,10 @@
         <v>2730</v>
       </c>
       <c r="B1079" s="34" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="C1079" s="9" t="s">
-        <v>3039</v>
+        <v>3037</v>
       </c>
       <c r="F1079" s="15" t="s">
         <v>1180</v>
@@ -55786,10 +55790,10 @@
         <v>973</v>
       </c>
       <c r="J1079" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1079" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1079" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1079" s="4" t="s">
         <v>1532</v>
@@ -55804,7 +55808,7 @@
         <v>1149</v>
       </c>
       <c r="P1079" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1080" spans="1:16" ht="90">
@@ -55812,10 +55816,10 @@
         <v>2731</v>
       </c>
       <c r="B1080" s="34" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="C1080" s="9" t="s">
-        <v>3040</v>
+        <v>3038</v>
       </c>
       <c r="F1080" s="15" t="s">
         <v>1180</v>
@@ -55830,10 +55834,10 @@
         <v>973</v>
       </c>
       <c r="J1080" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1080" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1080" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1080" s="4" t="s">
         <v>1532</v>
@@ -55848,7 +55852,7 @@
         <v>1149</v>
       </c>
       <c r="P1080" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1081" spans="1:16" ht="90">
@@ -55856,10 +55860,10 @@
         <v>2732</v>
       </c>
       <c r="B1081" s="34" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="C1081" s="9" t="s">
-        <v>3041</v>
+        <v>3039</v>
       </c>
       <c r="F1081" s="15" t="s">
         <v>1180</v>
@@ -55874,10 +55878,10 @@
         <v>973</v>
       </c>
       <c r="J1081" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1081" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1081" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1081" s="4" t="s">
         <v>1532</v>
@@ -55892,7 +55896,7 @@
         <v>1149</v>
       </c>
       <c r="P1081" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1082" spans="1:16" ht="90">
@@ -55900,10 +55904,10 @@
         <v>2733</v>
       </c>
       <c r="B1082" s="34" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="C1082" s="9" t="s">
-        <v>3042</v>
+        <v>3040</v>
       </c>
       <c r="F1082" s="15" t="s">
         <v>1180</v>
@@ -55918,10 +55922,10 @@
         <v>973</v>
       </c>
       <c r="J1082" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1082" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1082" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1082" s="4" t="s">
         <v>1532</v>
@@ -55936,7 +55940,7 @@
         <v>1149</v>
       </c>
       <c r="P1082" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1083" spans="1:16" ht="90">
@@ -55944,10 +55948,10 @@
         <v>2734</v>
       </c>
       <c r="B1083" s="35" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="C1083" s="9" t="s">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="F1083" s="15" t="s">
         <v>1180</v>
@@ -55962,10 +55966,10 @@
         <v>973</v>
       </c>
       <c r="J1083" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1083" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1083" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1083" s="4" t="s">
         <v>1532</v>
@@ -55980,7 +55984,7 @@
         <v>1149</v>
       </c>
       <c r="P1083" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1084" spans="1:16" ht="90">
@@ -55988,10 +55992,10 @@
         <v>2735</v>
       </c>
       <c r="B1084" s="34" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="C1084" s="9" t="s">
-        <v>3044</v>
+        <v>3042</v>
       </c>
       <c r="F1084" s="15" t="s">
         <v>1180</v>
@@ -56006,10 +56010,10 @@
         <v>973</v>
       </c>
       <c r="J1084" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1084" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1084" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1084" s="4" t="s">
         <v>1532</v>
@@ -56024,7 +56028,7 @@
         <v>1149</v>
       </c>
       <c r="P1084" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1085" spans="1:16" ht="90">
@@ -56032,10 +56036,10 @@
         <v>2736</v>
       </c>
       <c r="B1085" s="34" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="C1085" s="9" t="s">
-        <v>3045</v>
+        <v>3043</v>
       </c>
       <c r="F1085" s="15" t="s">
         <v>1180</v>
@@ -56050,10 +56054,10 @@
         <v>973</v>
       </c>
       <c r="J1085" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1085" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1085" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1085" s="4" t="s">
         <v>1532</v>
@@ -56068,7 +56072,7 @@
         <v>1149</v>
       </c>
       <c r="P1085" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1086" spans="1:16" ht="90">
@@ -56076,10 +56080,10 @@
         <v>2737</v>
       </c>
       <c r="B1086" s="35" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="C1086" s="9" t="s">
-        <v>3041</v>
+        <v>3039</v>
       </c>
       <c r="F1086" s="15" t="s">
         <v>1180</v>
@@ -56094,10 +56098,10 @@
         <v>973</v>
       </c>
       <c r="J1086" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1086" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1086" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1086" s="4" t="s">
         <v>1532</v>
@@ -56112,7 +56116,7 @@
         <v>1149</v>
       </c>
       <c r="P1086" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1087" spans="1:16" ht="90">
@@ -56120,10 +56124,10 @@
         <v>2738</v>
       </c>
       <c r="B1087" s="35" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="C1087" s="9" t="s">
-        <v>3046</v>
+        <v>3044</v>
       </c>
       <c r="F1087" s="15" t="s">
         <v>1180</v>
@@ -56138,10 +56142,10 @@
         <v>973</v>
       </c>
       <c r="J1087" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1087" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1087" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1087" s="4" t="s">
         <v>1532</v>
@@ -56156,7 +56160,7 @@
         <v>1149</v>
       </c>
       <c r="P1087" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1088" spans="1:16" ht="90">
@@ -56167,7 +56171,7 @@
         <v>2774</v>
       </c>
       <c r="C1088" s="9" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="F1088" s="15" t="s">
         <v>1180</v>
@@ -56182,10 +56186,10 @@
         <v>973</v>
       </c>
       <c r="J1088" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1088" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1088" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1088" s="4" t="s">
         <v>1532</v>
@@ -56200,7 +56204,7 @@
         <v>1149</v>
       </c>
       <c r="P1088" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1089" spans="1:16" ht="90">
@@ -56208,10 +56212,10 @@
         <v>2740</v>
       </c>
       <c r="B1089" s="35" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="C1089" s="9" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="F1089" s="15" t="s">
         <v>1180</v>
@@ -56226,10 +56230,10 @@
         <v>973</v>
       </c>
       <c r="J1089" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1089" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1089" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1089" s="4" t="s">
         <v>1532</v>
@@ -56244,7 +56248,7 @@
         <v>1149</v>
       </c>
       <c r="P1089" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1090" spans="1:16" ht="90">
@@ -56252,10 +56256,10 @@
         <v>2741</v>
       </c>
       <c r="B1090" s="35" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="C1090" s="9" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="F1090" s="15" t="s">
         <v>1180</v>
@@ -56270,10 +56274,10 @@
         <v>973</v>
       </c>
       <c r="J1090" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1090" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1090" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1090" s="4" t="s">
         <v>1532</v>
@@ -56288,7 +56292,7 @@
         <v>1149</v>
       </c>
       <c r="P1090" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1091" spans="1:16" ht="90">
@@ -56299,7 +56303,7 @@
         <v>2799</v>
       </c>
       <c r="C1091" s="9" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="F1091" s="15" t="s">
         <v>1180</v>
@@ -56314,10 +56318,10 @@
         <v>973</v>
       </c>
       <c r="J1091" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1091" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1091" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1091" s="4" t="s">
         <v>1532</v>
@@ -56332,7 +56336,7 @@
         <v>1149</v>
       </c>
       <c r="P1091" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1092" spans="1:16" ht="90">
@@ -56340,10 +56344,10 @@
         <v>2743</v>
       </c>
       <c r="B1092" s="35" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="C1092" s="9" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="F1092" s="15" t="s">
         <v>1180</v>
@@ -56358,10 +56362,10 @@
         <v>973</v>
       </c>
       <c r="J1092" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1092" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1092" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1092" s="4" t="s">
         <v>1532</v>
@@ -56376,7 +56380,7 @@
         <v>1149</v>
       </c>
       <c r="P1092" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1093" spans="1:16" ht="90">
@@ -56384,10 +56388,10 @@
         <v>2744</v>
       </c>
       <c r="B1093" s="35" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="C1093" s="9" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="F1093" s="15" t="s">
         <v>1180</v>
@@ -56402,10 +56406,10 @@
         <v>973</v>
       </c>
       <c r="J1093" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1093" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1093" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1093" s="4" t="s">
         <v>1532</v>
@@ -56420,7 +56424,7 @@
         <v>1149</v>
       </c>
       <c r="P1093" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1094" spans="1:16" ht="90">
@@ -56431,7 +56435,7 @@
         <v>2801</v>
       </c>
       <c r="C1094" s="9" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="F1094" s="15" t="s">
         <v>1180</v>
@@ -56446,10 +56450,10 @@
         <v>973</v>
       </c>
       <c r="J1094" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1094" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1094" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1094" s="4" t="s">
         <v>1532</v>
@@ -56464,7 +56468,7 @@
         <v>1149</v>
       </c>
       <c r="P1094" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1095" spans="1:16" ht="90">
@@ -56472,10 +56476,10 @@
         <v>2746</v>
       </c>
       <c r="B1095" s="35" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="C1095" s="9" t="s">
-        <v>2980</v>
+        <v>2978</v>
       </c>
       <c r="F1095" s="15" t="s">
         <v>1180</v>
@@ -56490,10 +56494,10 @@
         <v>973</v>
       </c>
       <c r="J1095" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1095" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1095" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1095" s="4" t="s">
         <v>1532</v>
@@ -56508,7 +56512,7 @@
         <v>1149</v>
       </c>
       <c r="P1095" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1096" spans="1:16" ht="90">
@@ -56519,7 +56523,7 @@
         <v>2796</v>
       </c>
       <c r="C1096" s="9" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="F1096" s="15" t="s">
         <v>1180</v>
@@ -56534,10 +56538,10 @@
         <v>973</v>
       </c>
       <c r="J1096" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1096" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1096" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1096" s="4" t="s">
         <v>1532</v>
@@ -56552,7 +56556,7 @@
         <v>1149</v>
       </c>
       <c r="P1096" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1097" spans="1:16" ht="90">
@@ -56560,10 +56564,10 @@
         <v>2748</v>
       </c>
       <c r="B1097" s="35" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="C1097" s="9" t="s">
-        <v>3051</v>
+        <v>3049</v>
       </c>
       <c r="F1097" s="15" t="s">
         <v>1180</v>
@@ -56578,10 +56582,10 @@
         <v>973</v>
       </c>
       <c r="J1097" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1097" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1097" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1097" s="4" t="s">
         <v>1532</v>
@@ -56596,7 +56600,7 @@
         <v>1149</v>
       </c>
       <c r="P1097" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1098" spans="1:16" ht="90">
@@ -56604,10 +56608,10 @@
         <v>2749</v>
       </c>
       <c r="B1098" s="35" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="C1098" s="9" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
       <c r="F1098" s="15" t="s">
         <v>1180</v>
@@ -56622,10 +56626,10 @@
         <v>973</v>
       </c>
       <c r="J1098" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1098" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1098" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1098" s="4" t="s">
         <v>1532</v>
@@ -56640,7 +56644,7 @@
         <v>1149</v>
       </c>
       <c r="P1098" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1099" spans="1:16" ht="90">
@@ -56648,10 +56652,10 @@
         <v>2750</v>
       </c>
       <c r="B1099" s="34" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="C1099" s="9" t="s">
-        <v>3053</v>
+        <v>3051</v>
       </c>
       <c r="F1099" s="15" t="s">
         <v>1180</v>
@@ -56666,10 +56670,10 @@
         <v>973</v>
       </c>
       <c r="J1099" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1099" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1099" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1099" s="4" t="s">
         <v>1532</v>
@@ -56684,7 +56688,7 @@
         <v>1149</v>
       </c>
       <c r="P1099" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1100" spans="1:16" ht="90">
@@ -56692,10 +56696,10 @@
         <v>2751</v>
       </c>
       <c r="B1100" s="35" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="C1100" s="9" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="F1100" s="15" t="s">
         <v>1180</v>
@@ -56710,10 +56714,10 @@
         <v>973</v>
       </c>
       <c r="J1100" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1100" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1100" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1100" s="4" t="s">
         <v>1532</v>
@@ -56728,7 +56732,7 @@
         <v>1149</v>
       </c>
       <c r="P1100" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1101" spans="1:16" ht="45">
@@ -56736,10 +56740,10 @@
         <v>2752</v>
       </c>
       <c r="B1101" s="34" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="C1101" s="9" t="s">
-        <v>3055</v>
+        <v>3053</v>
       </c>
       <c r="F1101" s="15" t="s">
         <v>1180</v>
@@ -56754,10 +56758,10 @@
         <v>973</v>
       </c>
       <c r="J1101" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1101" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1101" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1101" s="4" t="s">
         <v>1532</v>
@@ -56772,7 +56776,7 @@
         <v>1149</v>
       </c>
       <c r="P1101" s="15" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="1102" spans="1:16" ht="90">
@@ -56780,10 +56784,10 @@
         <v>2753</v>
       </c>
       <c r="B1102" s="35" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="C1102" s="9" t="s">
-        <v>3056</v>
+        <v>3054</v>
       </c>
       <c r="F1102" s="15" t="s">
         <v>1180</v>
@@ -56798,10 +56802,10 @@
         <v>973</v>
       </c>
       <c r="J1102" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1102" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1102" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1102" s="4" t="s">
         <v>1532</v>
@@ -56816,7 +56820,7 @@
         <v>1149</v>
       </c>
       <c r="P1102" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1103" spans="1:16" ht="90">
@@ -56824,10 +56828,10 @@
         <v>2754</v>
       </c>
       <c r="B1103" s="35" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="C1103" s="9" t="s">
-        <v>3057</v>
+        <v>3055</v>
       </c>
       <c r="F1103" s="15" t="s">
         <v>1180</v>
@@ -56842,10 +56846,10 @@
         <v>973</v>
       </c>
       <c r="J1103" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1103" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1103" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1103" s="4" t="s">
         <v>1532</v>
@@ -56860,7 +56864,7 @@
         <v>1149</v>
       </c>
       <c r="P1103" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1104" spans="1:16" ht="90">
@@ -56868,10 +56872,10 @@
         <v>2755</v>
       </c>
       <c r="B1104" s="35" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="C1104" s="9" t="s">
-        <v>3058</v>
+        <v>3056</v>
       </c>
       <c r="F1104" s="15" t="s">
         <v>1180</v>
@@ -56886,10 +56890,10 @@
         <v>973</v>
       </c>
       <c r="J1104" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1104" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1104" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1104" s="4" t="s">
         <v>1532</v>
@@ -56904,7 +56908,7 @@
         <v>1149</v>
       </c>
       <c r="P1104" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1105" spans="1:16" ht="45">
@@ -56912,10 +56916,10 @@
         <v>2756</v>
       </c>
       <c r="B1105" s="35" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="C1105" s="9" t="s">
-        <v>3059</v>
+        <v>3057</v>
       </c>
       <c r="F1105" s="15" t="s">
         <v>1180</v>
@@ -56930,10 +56934,10 @@
         <v>973</v>
       </c>
       <c r="J1105" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1105" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1105" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1105" s="4" t="s">
         <v>1532</v>
@@ -56948,7 +56952,7 @@
         <v>1149</v>
       </c>
       <c r="P1105" s="15" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="1106" spans="1:16" ht="45">
@@ -56959,7 +56963,7 @@
         <v>2764</v>
       </c>
       <c r="C1106" s="9" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="F1106" s="15" t="s">
         <v>1180</v>
@@ -56974,20 +56978,20 @@
         <v>973</v>
       </c>
       <c r="J1106" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1106" s="35" t="s">
         <v>2911</v>
       </c>
-      <c r="K1106" s="35" t="s">
-        <v>2912</v>
-      </c>
       <c r="L1106" s="4" t="s">
         <v>1532</v>
       </c>
       <c r="M1106" s="11" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="N1106" s="35"/>
       <c r="P1106" s="11" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="1107" spans="1:16" ht="90">
@@ -56995,10 +56999,10 @@
         <v>2758</v>
       </c>
       <c r="B1107" s="34" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="C1107" s="9" t="s">
-        <v>3060</v>
+        <v>3058</v>
       </c>
       <c r="F1107" s="15" t="s">
         <v>1180</v>
@@ -57013,10 +57017,10 @@
         <v>973</v>
       </c>
       <c r="J1107" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1107" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1107" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1107" s="4" t="s">
         <v>1532</v>
@@ -57031,7 +57035,7 @@
         <v>1149</v>
       </c>
       <c r="P1107" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1108" spans="1:16" ht="90">
@@ -57039,10 +57043,10 @@
         <v>2759</v>
       </c>
       <c r="B1108" s="34" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="C1108" s="9" t="s">
-        <v>3061</v>
+        <v>3059</v>
       </c>
       <c r="F1108" s="15" t="s">
         <v>1180</v>
@@ -57057,10 +57061,10 @@
         <v>973</v>
       </c>
       <c r="J1108" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1108" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1108" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1108" s="4" t="s">
         <v>1532</v>
@@ -57075,7 +57079,7 @@
         <v>1149</v>
       </c>
       <c r="P1108" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1109" spans="1:16" ht="90">
@@ -57083,10 +57087,10 @@
         <v>2760</v>
       </c>
       <c r="B1109" s="34" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="C1109" s="9" t="s">
-        <v>3062</v>
+        <v>3060</v>
       </c>
       <c r="F1109" s="15" t="s">
         <v>1180</v>
@@ -57101,10 +57105,10 @@
         <v>973</v>
       </c>
       <c r="J1109" s="35" t="s">
+        <v>2910</v>
+      </c>
+      <c r="K1109" s="35" t="s">
         <v>2911</v>
-      </c>
-      <c r="K1109" s="35" t="s">
-        <v>2912</v>
       </c>
       <c r="L1109" s="4" t="s">
         <v>1532</v>
@@ -57119,7 +57123,7 @@
         <v>1149</v>
       </c>
       <c r="P1109" s="15" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
   </sheetData>

--- a/MODS-DC-Generators/00 Illustrative-MODS-Generator-NEW/Illustrative-MODS-03.7.xlsx
+++ b/MODS-DC-Generators/00 Illustrative-MODS-Generator-NEW/Illustrative-MODS-03.7.xlsx
@@ -9240,9 +9240,6 @@
     <t>&amp;#169; Livingstone Spectral Imaging Project team. Creative Commons Attribution-NonCommercial 3.0 Unported (https://creativecommons.org/licenses/by-nc/3.0/).</t>
   </si>
   <si>
-    <t>Copyright Callum Bennetts - Maverick Photo Agency. Used by permission.</t>
-  </si>
-  <si>
     <t>Courtesy of Keith Boyer/Indiana University of Pennsylvania.</t>
   </si>
   <si>
@@ -9256,6 +9253,9 @@
   </si>
   <si>
     <t>Dr. Livingstone's Remains at Southampton; Procession to the Railway Station. Illustration from Illustrated London News (25 Apr. 1874)</t>
+  </si>
+  <si>
+    <t>&amp;#169; Callum Bennetts - Maverick Photo Agency. Used by permission.</t>
   </si>
 </sst>
 </file>
@@ -9376,7 +9376,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="802">
+  <cellStyleXfs count="804">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -9438,6 +9438,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -10360,7 +10362,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="802">
+  <cellStyles count="804">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -10770,6 +10772,7 @@
     <cellStyle name="Followed Hyperlink" xfId="797" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="799" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="801" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="803" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -11162,6 +11165,7 @@
     <cellStyle name="Hyperlink" xfId="796" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="798" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="800" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="802" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -11493,9 +11497,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A991" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B994" sqref="B994"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1025" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P1028" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -52359,10 +52363,10 @@
         <v>2645</v>
       </c>
       <c r="B994" s="9" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="C994" s="9" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="E994" s="9" t="s">
         <v>2900</v>
@@ -53825,7 +53829,7 @@
       <c r="M1029" s="37"/>
       <c r="N1029" s="37"/>
       <c r="P1029" s="28" t="s">
-        <v>3073</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="1030" spans="1:16" ht="60">
@@ -53862,7 +53866,7 @@
       <c r="M1030" s="37"/>
       <c r="N1030" s="37"/>
       <c r="P1030" s="28" t="s">
-        <v>3073</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="1031" spans="1:16" ht="45">
@@ -54401,7 +54405,7 @@
       <c r="M1044" s="37"/>
       <c r="N1044" s="37"/>
       <c r="P1044" s="28" t="s">
-        <v>3073</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="1045" spans="1:16" ht="90">
@@ -54732,7 +54736,7 @@
       <c r="M1052" s="37"/>
       <c r="N1052" s="37"/>
       <c r="P1052" s="28" t="s">
-        <v>3073</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="1053" spans="1:16" ht="45">
@@ -55005,7 +55009,7 @@
       <c r="M1059" s="37"/>
       <c r="N1059" s="37"/>
       <c r="P1059" s="28" t="s">
-        <v>3073</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="1060" spans="1:16" ht="45">
@@ -55352,7 +55356,7 @@
       <c r="M1068" s="40"/>
       <c r="N1068" s="40"/>
       <c r="P1068" s="28" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="1069" spans="1:16" ht="45">
@@ -55389,7 +55393,7 @@
       <c r="M1069" s="37"/>
       <c r="N1069" s="37"/>
       <c r="P1069" s="28" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="1070" spans="1:16" ht="45">
@@ -55426,7 +55430,7 @@
       <c r="M1070" s="37"/>
       <c r="N1070" s="37"/>
       <c r="P1070" s="28" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="1071" spans="1:16" ht="75">

--- a/MODS-DC-Generators/00 Illustrative-MODS-Generator-NEW/Illustrative-MODS-03.7.xlsx
+++ b/MODS-DC-Generators/00 Illustrative-MODS-Generator-NEW/Illustrative-MODS-03.7.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12452" uniqueCount="3078">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12452" uniqueCount="3080">
   <si>
     <t>liv_013001</t>
   </si>
@@ -7800,513 +7800,6 @@
     <t>&amp;#169; Roger L. Easton, Jr. Creative Commons Attribution-NonCommercial 3.0 Unported (https://creativecommons.org/licenses/by-nc/3.0/).</t>
   </si>
   <si>
-    <t>liv_013945</t>
-  </si>
-  <si>
-    <t>liv_013946</t>
-  </si>
-  <si>
-    <t>liv_013947</t>
-  </si>
-  <si>
-    <t>liv_013948</t>
-  </si>
-  <si>
-    <t>liv_013949</t>
-  </si>
-  <si>
-    <t>liv_013950</t>
-  </si>
-  <si>
-    <t>liv_013951</t>
-  </si>
-  <si>
-    <t>liv_013952</t>
-  </si>
-  <si>
-    <t>liv_013953</t>
-  </si>
-  <si>
-    <t>liv_013954</t>
-  </si>
-  <si>
-    <t>liv_013955</t>
-  </si>
-  <si>
-    <t>liv_013956</t>
-  </si>
-  <si>
-    <t>liv_013957</t>
-  </si>
-  <si>
-    <t>liv_013958</t>
-  </si>
-  <si>
-    <t>liv_013959</t>
-  </si>
-  <si>
-    <t>liv_013960</t>
-  </si>
-  <si>
-    <t>liv_013961</t>
-  </si>
-  <si>
-    <t>liv_013962</t>
-  </si>
-  <si>
-    <t>liv_013963</t>
-  </si>
-  <si>
-    <t>liv_013964</t>
-  </si>
-  <si>
-    <t>liv_013965</t>
-  </si>
-  <si>
-    <t>liv_013966</t>
-  </si>
-  <si>
-    <t>liv_013967</t>
-  </si>
-  <si>
-    <t>liv_013968</t>
-  </si>
-  <si>
-    <t>liv_013969</t>
-  </si>
-  <si>
-    <t>liv_013970</t>
-  </si>
-  <si>
-    <t>liv_013971</t>
-  </si>
-  <si>
-    <t>liv_013972</t>
-  </si>
-  <si>
-    <t>liv_013973</t>
-  </si>
-  <si>
-    <t>liv_013974</t>
-  </si>
-  <si>
-    <t>liv_013975</t>
-  </si>
-  <si>
-    <t>liv_013976</t>
-  </si>
-  <si>
-    <t>liv_013977</t>
-  </si>
-  <si>
-    <t>liv_013978</t>
-  </si>
-  <si>
-    <t>liv_013979</t>
-  </si>
-  <si>
-    <t>liv_013980</t>
-  </si>
-  <si>
-    <t>liv_013981</t>
-  </si>
-  <si>
-    <t>liv_013982</t>
-  </si>
-  <si>
-    <t>liv_013983</t>
-  </si>
-  <si>
-    <t>liv_013984</t>
-  </si>
-  <si>
-    <t>liv_013985</t>
-  </si>
-  <si>
-    <t>liv_013986</t>
-  </si>
-  <si>
-    <t>liv_013987</t>
-  </si>
-  <si>
-    <t>liv_013988</t>
-  </si>
-  <si>
-    <t>liv_013989</t>
-  </si>
-  <si>
-    <t>liv_013990</t>
-  </si>
-  <si>
-    <t>liv_013991</t>
-  </si>
-  <si>
-    <t>liv_013992</t>
-  </si>
-  <si>
-    <t>liv_013993</t>
-  </si>
-  <si>
-    <t>liv_013994</t>
-  </si>
-  <si>
-    <t>liv_013995</t>
-  </si>
-  <si>
-    <t>liv_013996</t>
-  </si>
-  <si>
-    <t>liv_013997</t>
-  </si>
-  <si>
-    <t>liv_013998</t>
-  </si>
-  <si>
-    <t>liv_013999</t>
-  </si>
-  <si>
-    <t>liv_014000</t>
-  </si>
-  <si>
-    <t>liv_014001</t>
-  </si>
-  <si>
-    <t>liv_014002</t>
-  </si>
-  <si>
-    <t>liv_014003</t>
-  </si>
-  <si>
-    <t>liv_014004</t>
-  </si>
-  <si>
-    <t>liv_014005</t>
-  </si>
-  <si>
-    <t>liv_014006</t>
-  </si>
-  <si>
-    <t>liv_014007</t>
-  </si>
-  <si>
-    <t>liv_014008</t>
-  </si>
-  <si>
-    <t>liv_014009</t>
-  </si>
-  <si>
-    <t>liv_014010</t>
-  </si>
-  <si>
-    <t>liv_014011</t>
-  </si>
-  <si>
-    <t>liv_014012</t>
-  </si>
-  <si>
-    <t>liv_014013</t>
-  </si>
-  <si>
-    <t>liv_014014</t>
-  </si>
-  <si>
-    <t>liv_014015</t>
-  </si>
-  <si>
-    <t>liv_014016</t>
-  </si>
-  <si>
-    <t>liv_014017</t>
-  </si>
-  <si>
-    <t>liv_014018</t>
-  </si>
-  <si>
-    <t>liv_014019</t>
-  </si>
-  <si>
-    <t>liv_014020</t>
-  </si>
-  <si>
-    <t>liv_014021</t>
-  </si>
-  <si>
-    <t>liv_014022</t>
-  </si>
-  <si>
-    <t>liv_014023</t>
-  </si>
-  <si>
-    <t>liv_014024</t>
-  </si>
-  <si>
-    <t>liv_014025</t>
-  </si>
-  <si>
-    <t>liv_014026</t>
-  </si>
-  <si>
-    <t>liv_014027</t>
-  </si>
-  <si>
-    <t>liv_014028</t>
-  </si>
-  <si>
-    <t>liv_014029</t>
-  </si>
-  <si>
-    <t>liv_014030</t>
-  </si>
-  <si>
-    <t>liv_014031</t>
-  </si>
-  <si>
-    <t>liv_014032</t>
-  </si>
-  <si>
-    <t>liv_014033</t>
-  </si>
-  <si>
-    <t>liv_014034</t>
-  </si>
-  <si>
-    <t>liv_014035</t>
-  </si>
-  <si>
-    <t>liv_014036</t>
-  </si>
-  <si>
-    <t>liv_014037</t>
-  </si>
-  <si>
-    <t>liv_014038</t>
-  </si>
-  <si>
-    <t>liv_014039</t>
-  </si>
-  <si>
-    <t>liv_014040</t>
-  </si>
-  <si>
-    <t>liv_014041</t>
-  </si>
-  <si>
-    <t>liv_014042</t>
-  </si>
-  <si>
-    <t>liv_014043</t>
-  </si>
-  <si>
-    <t>liv_014044</t>
-  </si>
-  <si>
-    <t>liv_014045</t>
-  </si>
-  <si>
-    <t>liv_014046</t>
-  </si>
-  <si>
-    <t>liv_014047</t>
-  </si>
-  <si>
-    <t>liv_014048</t>
-  </si>
-  <si>
-    <t>liv_014049</t>
-  </si>
-  <si>
-    <t>liv_014050</t>
-  </si>
-  <si>
-    <t>liv_014051</t>
-  </si>
-  <si>
-    <t>liv_014052</t>
-  </si>
-  <si>
-    <t>liv_014053</t>
-  </si>
-  <si>
-    <t>liv_014054</t>
-  </si>
-  <si>
-    <t>liv_014055</t>
-  </si>
-  <si>
-    <t>liv_014056</t>
-  </si>
-  <si>
-    <t>liv_014057</t>
-  </si>
-  <si>
-    <t>liv_014058</t>
-  </si>
-  <si>
-    <t>liv_014059</t>
-  </si>
-  <si>
-    <t>liv_014060</t>
-  </si>
-  <si>
-    <t>liv_014061</t>
-  </si>
-  <si>
-    <t>liv_014062</t>
-  </si>
-  <si>
-    <t>liv_014063</t>
-  </si>
-  <si>
-    <t>liv_014064</t>
-  </si>
-  <si>
-    <t>liv_014065</t>
-  </si>
-  <si>
-    <t>liv_014066</t>
-  </si>
-  <si>
-    <t>liv_014067</t>
-  </si>
-  <si>
-    <t>liv_014068</t>
-  </si>
-  <si>
-    <t>liv_014069</t>
-  </si>
-  <si>
-    <t>liv_014070</t>
-  </si>
-  <si>
-    <t>liv_014071</t>
-  </si>
-  <si>
-    <t>liv_014072</t>
-  </si>
-  <si>
-    <t>liv_014073</t>
-  </si>
-  <si>
-    <t>liv_014074</t>
-  </si>
-  <si>
-    <t>liv_014075</t>
-  </si>
-  <si>
-    <t>liv_014076</t>
-  </si>
-  <si>
-    <t>liv_014077</t>
-  </si>
-  <si>
-    <t>liv_014078</t>
-  </si>
-  <si>
-    <t>liv_014079</t>
-  </si>
-  <si>
-    <t>liv_014080</t>
-  </si>
-  <si>
-    <t>liv_014081</t>
-  </si>
-  <si>
-    <t>liv_014082</t>
-  </si>
-  <si>
-    <t>liv_014083</t>
-  </si>
-  <si>
-    <t>liv_014084</t>
-  </si>
-  <si>
-    <t>liv_014085</t>
-  </si>
-  <si>
-    <t>liv_014086</t>
-  </si>
-  <si>
-    <t>liv_014087</t>
-  </si>
-  <si>
-    <t>liv_014088</t>
-  </si>
-  <si>
-    <t>liv_014089</t>
-  </si>
-  <si>
-    <t>liv_014090</t>
-  </si>
-  <si>
-    <t>liv_014091</t>
-  </si>
-  <si>
-    <t>liv_014092</t>
-  </si>
-  <si>
-    <t>liv_014093</t>
-  </si>
-  <si>
-    <t>liv_014094</t>
-  </si>
-  <si>
-    <t>liv_014095</t>
-  </si>
-  <si>
-    <t>liv_014096</t>
-  </si>
-  <si>
-    <t>liv_014097</t>
-  </si>
-  <si>
-    <t>liv_014098</t>
-  </si>
-  <si>
-    <t>liv_014099</t>
-  </si>
-  <si>
-    <t>liv_014100</t>
-  </si>
-  <si>
-    <t>liv_014101</t>
-  </si>
-  <si>
-    <t>liv_014102</t>
-  </si>
-  <si>
-    <t>liv_014103</t>
-  </si>
-  <si>
-    <t>liv_014104</t>
-  </si>
-  <si>
-    <t>liv_014105</t>
-  </si>
-  <si>
-    <t>liv_014106</t>
-  </si>
-  <si>
-    <t>liv_014107</t>
-  </si>
-  <si>
-    <t>liv_014108</t>
-  </si>
-  <si>
-    <t>liv_014109</t>
-  </si>
-  <si>
-    <t>liv_014110</t>
-  </si>
-  <si>
-    <t>liv_014111</t>
-  </si>
-  <si>
-    <t>liv_013943</t>
-  </si>
-  <si>
-    <t>liv_013944</t>
-  </si>
-  <si>
     <t>An image of a page of David Livingstone's 1871 Field Diary (CLVI), detail</t>
   </si>
   <si>
@@ -8451,12 +7944,6 @@
     <t>The National Library of Scotland, Edinburgh</t>
   </si>
   <si>
-    <t>David Livingstone Centre card index entry 297b (recto)</t>
-  </si>
-  <si>
-    <t>David Livingstone Centre card index entry 297b (verso)</t>
-  </si>
-  <si>
     <t>An image of a page from David Livingstone's Unyanyembe Journal (1866-72:[728])</t>
   </si>
   <si>
@@ -8940,12 +8427,6 @@
     <t>The National Library of Scotland, Edinburgh, 2010</t>
   </si>
   <si>
-    <t>David Livingstone Centre card index entry 297b (recto), 2010</t>
-  </si>
-  <si>
-    <t>David Livingstone Centre card index entry 297b (verso), 2010</t>
-  </si>
-  <si>
     <t>An image of a page from David Livingstone's Unyanyembe Journal (1866-72:[728]), 2013</t>
   </si>
   <si>
@@ -8955,12 +8436,6 @@
     <t>A processed spectral image of a page of David Livingstone's 1871 Field Diary (CIX spectral_ratio), detail, 2010-2011</t>
   </si>
   <si>
-    <t>David Livingstone Centre card index entry 297b (recto), 2008</t>
-  </si>
-  <si>
-    <t>David Livingstone Centre card index entry 297b (verso), 2008</t>
-  </si>
-  <si>
     <t>Home page of the Archimedes Palimpsest Project, 2017</t>
   </si>
   <si>
@@ -9253,6 +8728,537 @@
   </si>
   <si>
     <t>&amp;#169; Callum Bennetts - Maverick Photo Agency. Used by permission.</t>
+  </si>
+  <si>
+    <t>liv_016001</t>
+  </si>
+  <si>
+    <t>liv_016002</t>
+  </si>
+  <si>
+    <t>liv_016003</t>
+  </si>
+  <si>
+    <t>liv_016004</t>
+  </si>
+  <si>
+    <t>liv_016005</t>
+  </si>
+  <si>
+    <t>liv_016006</t>
+  </si>
+  <si>
+    <t>liv_016007</t>
+  </si>
+  <si>
+    <t>liv_016008</t>
+  </si>
+  <si>
+    <t>liv_016009</t>
+  </si>
+  <si>
+    <t>liv_016010</t>
+  </si>
+  <si>
+    <t>liv_016011</t>
+  </si>
+  <si>
+    <t>liv_016012</t>
+  </si>
+  <si>
+    <t>liv_016013</t>
+  </si>
+  <si>
+    <t>liv_016014</t>
+  </si>
+  <si>
+    <t>liv_016015</t>
+  </si>
+  <si>
+    <t>liv_016016</t>
+  </si>
+  <si>
+    <t>liv_016017</t>
+  </si>
+  <si>
+    <t>liv_016018</t>
+  </si>
+  <si>
+    <t>liv_016019</t>
+  </si>
+  <si>
+    <t>liv_016020</t>
+  </si>
+  <si>
+    <t>liv_016021</t>
+  </si>
+  <si>
+    <t>liv_016022</t>
+  </si>
+  <si>
+    <t>liv_016023</t>
+  </si>
+  <si>
+    <t>liv_016024</t>
+  </si>
+  <si>
+    <t>liv_016025</t>
+  </si>
+  <si>
+    <t>liv_016026</t>
+  </si>
+  <si>
+    <t>liv_016027</t>
+  </si>
+  <si>
+    <t>liv_016028</t>
+  </si>
+  <si>
+    <t>liv_016029</t>
+  </si>
+  <si>
+    <t>liv_016030</t>
+  </si>
+  <si>
+    <t>liv_016031</t>
+  </si>
+  <si>
+    <t>liv_016032</t>
+  </si>
+  <si>
+    <t>liv_016033</t>
+  </si>
+  <si>
+    <t>liv_016034</t>
+  </si>
+  <si>
+    <t>liv_016035</t>
+  </si>
+  <si>
+    <t>liv_016036</t>
+  </si>
+  <si>
+    <t>liv_016037</t>
+  </si>
+  <si>
+    <t>liv_016038</t>
+  </si>
+  <si>
+    <t>liv_016039</t>
+  </si>
+  <si>
+    <t>liv_016040</t>
+  </si>
+  <si>
+    <t>liv_016041</t>
+  </si>
+  <si>
+    <t>liv_016042</t>
+  </si>
+  <si>
+    <t>liv_016043</t>
+  </si>
+  <si>
+    <t>liv_016044</t>
+  </si>
+  <si>
+    <t>liv_016045</t>
+  </si>
+  <si>
+    <t>liv_016046</t>
+  </si>
+  <si>
+    <t>liv_016047</t>
+  </si>
+  <si>
+    <t>liv_016048</t>
+  </si>
+  <si>
+    <t>liv_016049</t>
+  </si>
+  <si>
+    <t>liv_016050</t>
+  </si>
+  <si>
+    <t>liv_016051</t>
+  </si>
+  <si>
+    <t>liv_016052</t>
+  </si>
+  <si>
+    <t>liv_016053</t>
+  </si>
+  <si>
+    <t>liv_016054</t>
+  </si>
+  <si>
+    <t>liv_016055</t>
+  </si>
+  <si>
+    <t>liv_016056</t>
+  </si>
+  <si>
+    <t>liv_016057</t>
+  </si>
+  <si>
+    <t>liv_016058</t>
+  </si>
+  <si>
+    <t>liv_016059</t>
+  </si>
+  <si>
+    <t>liv_016060</t>
+  </si>
+  <si>
+    <t>liv_016061</t>
+  </si>
+  <si>
+    <t>liv_016062</t>
+  </si>
+  <si>
+    <t>liv_016063</t>
+  </si>
+  <si>
+    <t>liv_016064</t>
+  </si>
+  <si>
+    <t>liv_016065</t>
+  </si>
+  <si>
+    <t>liv_016066</t>
+  </si>
+  <si>
+    <t>liv_016067</t>
+  </si>
+  <si>
+    <t>liv_016068</t>
+  </si>
+  <si>
+    <t>liv_016069</t>
+  </si>
+  <si>
+    <t>liv_016070</t>
+  </si>
+  <si>
+    <t>liv_016071</t>
+  </si>
+  <si>
+    <t>liv_016072</t>
+  </si>
+  <si>
+    <t>liv_016073</t>
+  </si>
+  <si>
+    <t>liv_016074</t>
+  </si>
+  <si>
+    <t>liv_016075</t>
+  </si>
+  <si>
+    <t>liv_016076</t>
+  </si>
+  <si>
+    <t>liv_016077</t>
+  </si>
+  <si>
+    <t>liv_016078</t>
+  </si>
+  <si>
+    <t>liv_016079</t>
+  </si>
+  <si>
+    <t>liv_016080</t>
+  </si>
+  <si>
+    <t>liv_016081</t>
+  </si>
+  <si>
+    <t>liv_016082</t>
+  </si>
+  <si>
+    <t>liv_016083</t>
+  </si>
+  <si>
+    <t>liv_016084</t>
+  </si>
+  <si>
+    <t>liv_016085</t>
+  </si>
+  <si>
+    <t>liv_016086</t>
+  </si>
+  <si>
+    <t>liv_016087</t>
+  </si>
+  <si>
+    <t>liv_016088</t>
+  </si>
+  <si>
+    <t>liv_016089</t>
+  </si>
+  <si>
+    <t>liv_016090</t>
+  </si>
+  <si>
+    <t>liv_016091</t>
+  </si>
+  <si>
+    <t>liv_016092</t>
+  </si>
+  <si>
+    <t>liv_016093</t>
+  </si>
+  <si>
+    <t>liv_016094</t>
+  </si>
+  <si>
+    <t>liv_016095</t>
+  </si>
+  <si>
+    <t>liv_016096</t>
+  </si>
+  <si>
+    <t>liv_016097</t>
+  </si>
+  <si>
+    <t>liv_016098</t>
+  </si>
+  <si>
+    <t>liv_016099</t>
+  </si>
+  <si>
+    <t>liv_016100</t>
+  </si>
+  <si>
+    <t>liv_016101</t>
+  </si>
+  <si>
+    <t>liv_016102</t>
+  </si>
+  <si>
+    <t>liv_016103</t>
+  </si>
+  <si>
+    <t>liv_016104</t>
+  </si>
+  <si>
+    <t>liv_016105</t>
+  </si>
+  <si>
+    <t>liv_016106</t>
+  </si>
+  <si>
+    <t>liv_016107</t>
+  </si>
+  <si>
+    <t>liv_016108</t>
+  </si>
+  <si>
+    <t>liv_016109</t>
+  </si>
+  <si>
+    <t>liv_016110</t>
+  </si>
+  <si>
+    <t>liv_016111</t>
+  </si>
+  <si>
+    <t>liv_016112</t>
+  </si>
+  <si>
+    <t>liv_016113</t>
+  </si>
+  <si>
+    <t>liv_016114</t>
+  </si>
+  <si>
+    <t>liv_016115</t>
+  </si>
+  <si>
+    <t>liv_016116</t>
+  </si>
+  <si>
+    <t>liv_016117</t>
+  </si>
+  <si>
+    <t>liv_016118</t>
+  </si>
+  <si>
+    <t>liv_016119</t>
+  </si>
+  <si>
+    <t>liv_016120</t>
+  </si>
+  <si>
+    <t>liv_016121</t>
+  </si>
+  <si>
+    <t>liv_016122</t>
+  </si>
+  <si>
+    <t>liv_016123</t>
+  </si>
+  <si>
+    <t>liv_016124</t>
+  </si>
+  <si>
+    <t>liv_016125</t>
+  </si>
+  <si>
+    <t>liv_016126</t>
+  </si>
+  <si>
+    <t>liv_016127</t>
+  </si>
+  <si>
+    <t>liv_016128</t>
+  </si>
+  <si>
+    <t>liv_016129</t>
+  </si>
+  <si>
+    <t>liv_016130</t>
+  </si>
+  <si>
+    <t>liv_016131</t>
+  </si>
+  <si>
+    <t>liv_016132</t>
+  </si>
+  <si>
+    <t>liv_016133</t>
+  </si>
+  <si>
+    <t>liv_016134</t>
+  </si>
+  <si>
+    <t>liv_016135</t>
+  </si>
+  <si>
+    <t>liv_016136</t>
+  </si>
+  <si>
+    <t>liv_016137</t>
+  </si>
+  <si>
+    <t>liv_016138</t>
+  </si>
+  <si>
+    <t>liv_016139</t>
+  </si>
+  <si>
+    <t>liv_016140</t>
+  </si>
+  <si>
+    <t>liv_016141</t>
+  </si>
+  <si>
+    <t>liv_016142</t>
+  </si>
+  <si>
+    <t>liv_016143</t>
+  </si>
+  <si>
+    <t>liv_016144</t>
+  </si>
+  <si>
+    <t>liv_016145</t>
+  </si>
+  <si>
+    <t>liv_016146</t>
+  </si>
+  <si>
+    <t>liv_016147</t>
+  </si>
+  <si>
+    <t>liv_016148</t>
+  </si>
+  <si>
+    <t>liv_016149</t>
+  </si>
+  <si>
+    <t>liv_016150</t>
+  </si>
+  <si>
+    <t>liv_016151</t>
+  </si>
+  <si>
+    <t>liv_016152</t>
+  </si>
+  <si>
+    <t>liv_016153</t>
+  </si>
+  <si>
+    <t>liv_016154</t>
+  </si>
+  <si>
+    <t>liv_016155</t>
+  </si>
+  <si>
+    <t>liv_016156</t>
+  </si>
+  <si>
+    <t>liv_016157</t>
+  </si>
+  <si>
+    <t>liv_016158</t>
+  </si>
+  <si>
+    <t>liv_016159</t>
+  </si>
+  <si>
+    <t>liv_016160</t>
+  </si>
+  <si>
+    <t>liv_016161</t>
+  </si>
+  <si>
+    <t>liv_016162</t>
+  </si>
+  <si>
+    <t>liv_016163</t>
+  </si>
+  <si>
+    <t>liv_016164</t>
+  </si>
+  <si>
+    <t>liv_016165</t>
+  </si>
+  <si>
+    <t>liv_016166</t>
+  </si>
+  <si>
+    <t>liv_016167</t>
+  </si>
+  <si>
+    <t>liv_016168</t>
+  </si>
+  <si>
+    <t>liv_016169</t>
+  </si>
+  <si>
+    <t>David Livingstone Centre card index entry 297a and 297b (recto); updated to include 297c and 297d</t>
+  </si>
+  <si>
+    <t>David Livingstone Centre card index entry 297a and 297b (verso); updated to include 297c and 297d</t>
+  </si>
+  <si>
+    <t>David Livingstone Centre card index entry 297a and 297b (verso); updated to include 297c and 297d, 2010</t>
+  </si>
+  <si>
+    <t>David Livingstone Centre card index entry 297a and 297b (recto); updated to include 297c and 297d, 2010</t>
+  </si>
+  <si>
+    <t>David Livingstone Centre card index entry 297a and 297b (recto)</t>
+  </si>
+  <si>
+    <t>David Livingstone Centre card index entry 297a and 297b (recto), 2008</t>
+  </si>
+  <si>
+    <t>David Livingstone Centre card index entry 297a and 297b (verso)</t>
+  </si>
+  <si>
+    <t>David Livingstone Centre card index entry 297a and 297b (verso), 2008</t>
   </si>
 </sst>
 </file>
@@ -9349,7 +9355,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -9372,8 +9378,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="804">
+  <cellStyleXfs count="806">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -10178,8 +10197,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -10358,8 +10379,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="804">
+  <cellStyles count="806">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -10770,6 +10794,7 @@
     <cellStyle name="Followed Hyperlink" xfId="799" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="801" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="803" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="805" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -11163,6 +11188,7 @@
     <cellStyle name="Hyperlink" xfId="798" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="800" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="802" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="804" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -11494,9 +11520,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A379" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A385" sqref="A385:XFD385"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1005" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1009" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -50041,13 +50067,13 @@
     </row>
     <row r="940" spans="1:16" ht="90">
       <c r="A940" s="15" t="s">
-        <v>2760</v>
+        <v>2903</v>
       </c>
       <c r="B940" s="34" t="s">
-        <v>2762</v>
+        <v>2593</v>
       </c>
       <c r="C940" s="9" t="s">
-        <v>2923</v>
+        <v>2752</v>
       </c>
       <c r="F940" s="15" t="s">
         <v>1179</v>
@@ -50062,10 +50088,10 @@
         <v>972</v>
       </c>
       <c r="J940" s="37" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K940" s="37" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L940" s="4" t="s">
         <v>1531</v>
@@ -50080,18 +50106,18 @@
         <v>1148</v>
       </c>
       <c r="P940" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="941" spans="1:16" ht="45">
-      <c r="A941" s="15" t="s">
-        <v>2761</v>
+      <c r="A941" s="60" t="s">
+        <v>2904</v>
       </c>
       <c r="B941" s="34" t="s">
-        <v>2763</v>
+        <v>2594</v>
       </c>
       <c r="C941" s="9" t="s">
-        <v>2924</v>
+        <v>2753</v>
       </c>
       <c r="F941" s="15" t="s">
         <v>1179</v>
@@ -50106,10 +50132,10 @@
         <v>972</v>
       </c>
       <c r="J941" s="37" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K941" s="37" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L941" s="4" t="s">
         <v>1531</v>
@@ -50124,18 +50150,18 @@
         <v>1148</v>
       </c>
       <c r="P941" s="15" t="s">
-        <v>3061</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="942" spans="1:16" ht="90">
-      <c r="A942" s="15" t="s">
-        <v>2593</v>
+      <c r="A942" s="60" t="s">
+        <v>2905</v>
       </c>
       <c r="B942" s="34" t="s">
-        <v>2764</v>
+        <v>2595</v>
       </c>
       <c r="C942" s="9" t="s">
-        <v>2925</v>
+        <v>2754</v>
       </c>
       <c r="F942" s="15" t="s">
         <v>1179</v>
@@ -50150,10 +50176,10 @@
         <v>972</v>
       </c>
       <c r="J942" s="37" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K942" s="37" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L942" s="4" t="s">
         <v>1531</v>
@@ -50168,18 +50194,18 @@
         <v>1148</v>
       </c>
       <c r="P942" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="943" spans="1:16" ht="45">
-      <c r="A943" s="15" t="s">
+      <c r="A943" s="60" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B943" s="34" t="s">
         <v>2594</v>
       </c>
-      <c r="B943" s="34" t="s">
-        <v>2763</v>
-      </c>
       <c r="C943" s="9" t="s">
-        <v>2924</v>
+        <v>2753</v>
       </c>
       <c r="F943" s="15" t="s">
         <v>1179</v>
@@ -50194,31 +50220,31 @@
         <v>972</v>
       </c>
       <c r="J943" s="37" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K943" s="37" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L943" s="4" t="s">
         <v>1531</v>
       </c>
       <c r="M943" s="11" t="s">
-        <v>2918</v>
+        <v>2747</v>
       </c>
       <c r="N943" s="37"/>
       <c r="P943" s="11" t="s">
-        <v>3062</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="944" spans="1:16" ht="90">
-      <c r="A944" s="15" t="s">
-        <v>2595</v>
+      <c r="A944" s="60" t="s">
+        <v>2907</v>
       </c>
       <c r="B944" s="34" t="s">
-        <v>2765</v>
+        <v>2596</v>
       </c>
       <c r="C944" s="9" t="s">
-        <v>2926</v>
+        <v>2755</v>
       </c>
       <c r="F944" s="15" t="s">
         <v>1179</v>
@@ -50233,10 +50259,10 @@
         <v>972</v>
       </c>
       <c r="J944" s="37" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K944" s="37" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L944" s="4" t="s">
         <v>1531</v>
@@ -50251,18 +50277,18 @@
         <v>1148</v>
       </c>
       <c r="P944" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="945" spans="1:16" ht="90">
-      <c r="A945" s="15" t="s">
-        <v>2596</v>
+      <c r="A945" s="60" t="s">
+        <v>2908</v>
       </c>
       <c r="B945" s="34" t="s">
-        <v>2766</v>
+        <v>2597</v>
       </c>
       <c r="C945" s="9" t="s">
-        <v>2927</v>
+        <v>2756</v>
       </c>
       <c r="F945" s="15" t="s">
         <v>1179</v>
@@ -50277,10 +50303,10 @@
         <v>972</v>
       </c>
       <c r="J945" s="37" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K945" s="37" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L945" s="4" t="s">
         <v>1531</v>
@@ -50295,18 +50321,18 @@
         <v>1148</v>
       </c>
       <c r="P945" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="946" spans="1:16" ht="90">
-      <c r="A946" s="15" t="s">
-        <v>2597</v>
+      <c r="A946" s="60" t="s">
+        <v>2909</v>
       </c>
       <c r="B946" s="34" t="s">
-        <v>2767</v>
+        <v>2598</v>
       </c>
       <c r="C946" s="9" t="s">
-        <v>2928</v>
+        <v>2757</v>
       </c>
       <c r="F946" s="15" t="s">
         <v>1179</v>
@@ -50321,10 +50347,10 @@
         <v>972</v>
       </c>
       <c r="J946" s="37" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K946" s="37" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L946" s="4" t="s">
         <v>1531</v>
@@ -50339,18 +50365,18 @@
         <v>1148</v>
       </c>
       <c r="P946" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="947" spans="1:16" ht="45">
-      <c r="A947" s="15" t="s">
-        <v>2598</v>
+      <c r="A947" s="60" t="s">
+        <v>2910</v>
       </c>
       <c r="B947" s="34" t="s">
-        <v>2768</v>
+        <v>2599</v>
       </c>
       <c r="C947" s="9" t="s">
-        <v>2929</v>
+        <v>2758</v>
       </c>
       <c r="F947" s="34" t="s">
         <v>2493</v>
@@ -50365,10 +50391,10 @@
         <v>972</v>
       </c>
       <c r="J947" s="37" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K947" s="37" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L947" s="4" t="s">
         <v>1531</v>
@@ -50380,14 +50406,14 @@
       </c>
     </row>
     <row r="948" spans="1:16" ht="45">
-      <c r="A948" s="15" t="s">
-        <v>2599</v>
+      <c r="A948" s="60" t="s">
+        <v>2911</v>
       </c>
       <c r="B948" s="34" t="s">
-        <v>2769</v>
+        <v>2600</v>
       </c>
       <c r="C948" s="9" t="s">
-        <v>2930</v>
+        <v>2759</v>
       </c>
       <c r="F948" s="34" t="s">
         <v>2493</v>
@@ -50402,10 +50428,10 @@
         <v>972</v>
       </c>
       <c r="J948" s="37" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K948" s="37" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L948" s="4" t="s">
         <v>1531</v>
@@ -50417,14 +50443,14 @@
       </c>
     </row>
     <row r="949" spans="1:16" ht="90">
-      <c r="A949" s="15" t="s">
-        <v>2600</v>
+      <c r="A949" s="60" t="s">
+        <v>2912</v>
       </c>
       <c r="B949" s="34" t="s">
-        <v>2770</v>
+        <v>2601</v>
       </c>
       <c r="C949" s="9" t="s">
-        <v>2931</v>
+        <v>2760</v>
       </c>
       <c r="F949" s="15" t="s">
         <v>1179</v>
@@ -50439,10 +50465,10 @@
         <v>972</v>
       </c>
       <c r="J949" s="37" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K949" s="37" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L949" s="4" t="s">
         <v>1531</v>
@@ -50457,18 +50483,18 @@
         <v>1148</v>
       </c>
       <c r="P949" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="950" spans="1:16" ht="90">
-      <c r="A950" s="15" t="s">
-        <v>2601</v>
+      <c r="A950" s="60" t="s">
+        <v>2913</v>
       </c>
       <c r="B950" s="34" t="s">
-        <v>2771</v>
+        <v>2602</v>
       </c>
       <c r="C950" s="9" t="s">
-        <v>2932</v>
+        <v>2761</v>
       </c>
       <c r="F950" s="15" t="s">
         <v>1179</v>
@@ -50483,10 +50509,10 @@
         <v>972</v>
       </c>
       <c r="J950" s="37" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K950" s="37" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L950" s="4" t="s">
         <v>1531</v>
@@ -50501,18 +50527,18 @@
         <v>1148</v>
       </c>
       <c r="P950" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="951" spans="1:16" ht="90">
-      <c r="A951" s="15" t="s">
-        <v>2602</v>
+      <c r="A951" s="60" t="s">
+        <v>2914</v>
       </c>
       <c r="B951" s="34" t="s">
-        <v>2772</v>
+        <v>2603</v>
       </c>
       <c r="C951" s="9" t="s">
-        <v>2933</v>
+        <v>2762</v>
       </c>
       <c r="F951" s="15" t="s">
         <v>1179</v>
@@ -50527,10 +50553,10 @@
         <v>972</v>
       </c>
       <c r="J951" s="37" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K951" s="37" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L951" s="4" t="s">
         <v>1531</v>
@@ -50545,18 +50571,18 @@
         <v>1148</v>
       </c>
       <c r="P951" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="952" spans="1:16" ht="90">
-      <c r="A952" s="15" t="s">
-        <v>2603</v>
+      <c r="A952" s="60" t="s">
+        <v>2915</v>
       </c>
       <c r="B952" s="34" t="s">
-        <v>2773</v>
+        <v>2604</v>
       </c>
       <c r="C952" s="9" t="s">
-        <v>2934</v>
+        <v>2763</v>
       </c>
       <c r="F952" s="15" t="s">
         <v>1179</v>
@@ -50571,10 +50597,10 @@
         <v>972</v>
       </c>
       <c r="J952" s="37" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K952" s="37" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L952" s="4" t="s">
         <v>1531</v>
@@ -50589,18 +50615,18 @@
         <v>1148</v>
       </c>
       <c r="P952" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="953" spans="1:16" ht="90">
-      <c r="A953" s="15" t="s">
-        <v>2604</v>
+      <c r="A953" s="60" t="s">
+        <v>2916</v>
       </c>
       <c r="B953" s="34" t="s">
-        <v>2774</v>
+        <v>2605</v>
       </c>
       <c r="C953" s="9" t="s">
-        <v>2935</v>
+        <v>2764</v>
       </c>
       <c r="F953" s="15" t="s">
         <v>1179</v>
@@ -50615,10 +50641,10 @@
         <v>972</v>
       </c>
       <c r="J953" s="37" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K953" s="37" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L953" s="4" t="s">
         <v>1531</v>
@@ -50633,18 +50659,18 @@
         <v>1148</v>
       </c>
       <c r="P953" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="954" spans="1:16" ht="90">
-      <c r="A954" s="15" t="s">
-        <v>2605</v>
+      <c r="A954" s="60" t="s">
+        <v>2917</v>
       </c>
       <c r="B954" s="34" t="s">
-        <v>2775</v>
+        <v>2606</v>
       </c>
       <c r="C954" s="9" t="s">
-        <v>2936</v>
+        <v>2765</v>
       </c>
       <c r="F954" s="15" t="s">
         <v>1179</v>
@@ -50659,10 +50685,10 @@
         <v>972</v>
       </c>
       <c r="J954" s="37" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K954" s="37" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L954" s="4" t="s">
         <v>1531</v>
@@ -50677,18 +50703,18 @@
         <v>1148</v>
       </c>
       <c r="P954" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="955" spans="1:16" ht="90">
-      <c r="A955" s="15" t="s">
-        <v>2606</v>
+      <c r="A955" s="60" t="s">
+        <v>2918</v>
       </c>
       <c r="B955" s="35" t="s">
-        <v>2776</v>
+        <v>2607</v>
       </c>
       <c r="C955" s="9" t="s">
-        <v>2937</v>
+        <v>2766</v>
       </c>
       <c r="F955" s="15" t="s">
         <v>1179</v>
@@ -50703,10 +50729,10 @@
         <v>972</v>
       </c>
       <c r="J955" s="37" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K955" s="37" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L955" s="4" t="s">
         <v>1531</v>
@@ -50721,18 +50747,18 @@
         <v>1148</v>
       </c>
       <c r="P955" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="956" spans="1:16" ht="45">
-      <c r="A956" s="15" t="s">
-        <v>2607</v>
+      <c r="A956" s="60" t="s">
+        <v>2919</v>
       </c>
       <c r="B956" s="34" t="s">
-        <v>2777</v>
+        <v>2608</v>
       </c>
       <c r="C956" s="9" t="s">
-        <v>2938</v>
+        <v>2767</v>
       </c>
       <c r="F956" s="34" t="s">
         <v>2493</v>
@@ -50747,10 +50773,10 @@
         <v>972</v>
       </c>
       <c r="J956" s="37" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K956" s="37" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L956" s="4" t="s">
         <v>1531</v>
@@ -50762,14 +50788,14 @@
       </c>
     </row>
     <row r="957" spans="1:16" ht="45">
-      <c r="A957" s="15" t="s">
-        <v>2608</v>
+      <c r="A957" s="60" t="s">
+        <v>2920</v>
       </c>
       <c r="B957" s="34" t="s">
-        <v>2778</v>
+        <v>2609</v>
       </c>
       <c r="C957" s="9" t="s">
-        <v>2939</v>
+        <v>2768</v>
       </c>
       <c r="F957" s="34" t="s">
         <v>2493</v>
@@ -50784,10 +50810,10 @@
         <v>972</v>
       </c>
       <c r="J957" s="37" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K957" s="37" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L957" s="4" t="s">
         <v>1531</v>
@@ -50799,14 +50825,14 @@
       </c>
     </row>
     <row r="958" spans="1:16" ht="45">
-      <c r="A958" s="15" t="s">
-        <v>2609</v>
+      <c r="A958" s="60" t="s">
+        <v>2921</v>
       </c>
       <c r="B958" s="34" t="s">
-        <v>2779</v>
+        <v>2610</v>
       </c>
       <c r="C958" s="9" t="s">
-        <v>2940</v>
+        <v>2769</v>
       </c>
       <c r="F958" s="34" t="s">
         <v>2493</v>
@@ -50821,10 +50847,10 @@
         <v>972</v>
       </c>
       <c r="J958" s="37" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K958" s="37" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L958" s="4" t="s">
         <v>1531</v>
@@ -50836,14 +50862,14 @@
       </c>
     </row>
     <row r="959" spans="1:16" ht="45">
-      <c r="A959" s="15" t="s">
-        <v>2610</v>
+      <c r="A959" s="60" t="s">
+        <v>2922</v>
       </c>
       <c r="B959" s="36" t="s">
-        <v>2780</v>
+        <v>2611</v>
       </c>
       <c r="C959" s="9" t="s">
-        <v>2941</v>
+        <v>2770</v>
       </c>
       <c r="F959" s="15" t="s">
         <v>1179</v>
@@ -50858,10 +50884,10 @@
         <v>972</v>
       </c>
       <c r="J959" s="38" t="s">
-        <v>2911</v>
+        <v>2740</v>
       </c>
       <c r="K959" s="38" t="s">
-        <v>2911</v>
+        <v>2740</v>
       </c>
       <c r="L959" s="4" t="s">
         <v>1531</v>
@@ -50876,18 +50902,18 @@
         <v>1148</v>
       </c>
       <c r="P959" s="15" t="s">
-        <v>3061</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="960" spans="1:16" ht="90">
-      <c r="A960" s="15" t="s">
-        <v>2611</v>
+      <c r="A960" s="60" t="s">
+        <v>2923</v>
       </c>
       <c r="B960" s="34" t="s">
-        <v>2781</v>
+        <v>2612</v>
       </c>
       <c r="C960" s="9" t="s">
-        <v>2942</v>
+        <v>2771</v>
       </c>
       <c r="F960" s="15" t="s">
         <v>1179</v>
@@ -50902,10 +50928,10 @@
         <v>972</v>
       </c>
       <c r="J960" s="39" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K960" s="39" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L960" s="4" t="s">
         <v>1531</v>
@@ -50920,18 +50946,18 @@
         <v>1148</v>
       </c>
       <c r="P960" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="961" spans="1:16" ht="90">
-      <c r="A961" s="15" t="s">
-        <v>2612</v>
+      <c r="A961" s="60" t="s">
+        <v>2924</v>
       </c>
       <c r="B961" s="34" t="s">
-        <v>2782</v>
+        <v>2613</v>
       </c>
       <c r="C961" s="9" t="s">
-        <v>2943</v>
+        <v>2772</v>
       </c>
       <c r="F961" s="15" t="s">
         <v>1179</v>
@@ -50946,10 +50972,10 @@
         <v>972</v>
       </c>
       <c r="J961" s="39" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K961" s="39" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L961" s="4" t="s">
         <v>1531</v>
@@ -50964,18 +50990,18 @@
         <v>1148</v>
       </c>
       <c r="P961" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="962" spans="1:16" ht="90">
-      <c r="A962" s="15" t="s">
-        <v>2613</v>
+      <c r="A962" s="60" t="s">
+        <v>2925</v>
       </c>
       <c r="B962" s="34" t="s">
-        <v>2783</v>
+        <v>2614</v>
       </c>
       <c r="C962" s="9" t="s">
-        <v>2944</v>
+        <v>2773</v>
       </c>
       <c r="F962" s="15" t="s">
         <v>1179</v>
@@ -50990,10 +51016,10 @@
         <v>972</v>
       </c>
       <c r="J962" s="39" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K962" s="39" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L962" s="4" t="s">
         <v>1531</v>
@@ -51008,21 +51034,21 @@
         <v>1148</v>
       </c>
       <c r="P962" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="963" spans="1:16" ht="45">
-      <c r="A963" s="15" t="s">
-        <v>2614</v>
+      <c r="A963" s="60" t="s">
+        <v>2926</v>
       </c>
       <c r="B963" s="9" t="s">
-        <v>2784</v>
+        <v>2615</v>
       </c>
       <c r="C963" s="9" t="s">
-        <v>2945</v>
+        <v>2774</v>
       </c>
       <c r="F963" s="9" t="s">
-        <v>2895</v>
+        <v>2724</v>
       </c>
       <c r="G963" s="9" t="s">
         <v>1140</v>
@@ -51043,27 +51069,27 @@
         <v>1531</v>
       </c>
       <c r="M963" s="11" t="s">
-        <v>2919</v>
+        <v>2748</v>
       </c>
       <c r="N963" s="7" t="s">
-        <v>2920</v>
+        <v>2749</v>
       </c>
       <c r="O963" s="14" t="s">
         <v>1148</v>
       </c>
       <c r="P963" s="28" t="s">
-        <v>3063</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="964" spans="1:16" ht="45">
-      <c r="A964" s="15" t="s">
-        <v>2615</v>
+      <c r="A964" s="60" t="s">
+        <v>2927</v>
       </c>
       <c r="B964" s="9" t="s">
-        <v>2785</v>
+        <v>2616</v>
       </c>
       <c r="C964" s="9" t="s">
-        <v>2946</v>
+        <v>2775</v>
       </c>
       <c r="F964" s="15" t="s">
         <v>1179</v>
@@ -51087,27 +51113,27 @@
         <v>1531</v>
       </c>
       <c r="M964" s="11" t="s">
-        <v>2919</v>
+        <v>2748</v>
       </c>
       <c r="N964" s="7" t="s">
-        <v>2920</v>
+        <v>2749</v>
       </c>
       <c r="O964" s="14" t="s">
         <v>1148</v>
       </c>
       <c r="P964" s="28" t="s">
-        <v>3063</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="965" spans="1:16" ht="60">
-      <c r="A965" s="15" t="s">
-        <v>2616</v>
+      <c r="A965" s="60" t="s">
+        <v>2928</v>
       </c>
       <c r="B965" s="9" t="s">
         <v>615</v>
       </c>
       <c r="C965" s="9" t="s">
-        <v>2947</v>
+        <v>2776</v>
       </c>
       <c r="D965" s="18" t="s">
         <v>1178</v>
@@ -51144,17 +51170,17 @@
       </c>
     </row>
     <row r="966" spans="1:16" ht="45">
-      <c r="A966" s="15" t="s">
+      <c r="A966" s="60" t="s">
+        <v>2929</v>
+      </c>
+      <c r="B966" s="9" t="s">
         <v>2617</v>
       </c>
-      <c r="B966" s="9" t="s">
-        <v>2786</v>
-      </c>
       <c r="C966" s="9" t="s">
-        <v>2948</v>
+        <v>2777</v>
       </c>
       <c r="F966" s="9" t="s">
-        <v>2896</v>
+        <v>2725</v>
       </c>
       <c r="G966" s="9" t="s">
         <v>1140</v>
@@ -51177,21 +51203,21 @@
       <c r="M966" s="40"/>
       <c r="N966" s="40"/>
       <c r="P966" s="28" t="s">
-        <v>3064</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="967" spans="1:16" ht="60">
-      <c r="A967" s="15" t="s">
+      <c r="A967" s="60" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B967" s="9" t="s">
         <v>2618</v>
       </c>
-      <c r="B967" s="9" t="s">
-        <v>2787</v>
-      </c>
       <c r="C967" s="9" t="s">
-        <v>2949</v>
+        <v>2778</v>
       </c>
       <c r="F967" s="9" t="s">
-        <v>2897</v>
+        <v>2726</v>
       </c>
       <c r="G967" s="9" t="s">
         <v>1140</v>
@@ -51225,17 +51251,17 @@
       </c>
     </row>
     <row r="968" spans="1:16" ht="60">
-      <c r="A968" s="15" t="s">
+      <c r="A968" s="60" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B968" s="9" t="s">
         <v>2619</v>
       </c>
-      <c r="B968" s="9" t="s">
-        <v>2788</v>
-      </c>
       <c r="C968" s="9" t="s">
-        <v>2950</v>
+        <v>2779</v>
       </c>
       <c r="F968" s="9" t="s">
-        <v>2897</v>
+        <v>2726</v>
       </c>
       <c r="G968" s="9" t="s">
         <v>1140</v>
@@ -51269,14 +51295,14 @@
       </c>
     </row>
     <row r="969" spans="1:16" ht="60">
-      <c r="A969" s="15" t="s">
+      <c r="A969" s="60" t="s">
+        <v>2932</v>
+      </c>
+      <c r="B969" s="34" t="s">
         <v>2620</v>
       </c>
-      <c r="B969" s="34" t="s">
-        <v>2789</v>
-      </c>
       <c r="C969" s="9" t="s">
-        <v>2951</v>
+        <v>2780</v>
       </c>
       <c r="F969" s="15" t="s">
         <v>1179</v>
@@ -51291,10 +51317,10 @@
         <v>972</v>
       </c>
       <c r="J969" s="37" t="s">
-        <v>2911</v>
+        <v>2740</v>
       </c>
       <c r="K969" s="37" t="s">
-        <v>2911</v>
+        <v>2740</v>
       </c>
       <c r="L969" s="4" t="s">
         <v>1531</v>
@@ -51313,14 +51339,14 @@
       </c>
     </row>
     <row r="970" spans="1:16" ht="60">
-      <c r="A970" s="15" t="s">
-        <v>2621</v>
+      <c r="A970" s="60" t="s">
+        <v>2933</v>
       </c>
       <c r="B970" s="34" t="s">
-        <v>2789</v>
+        <v>2620</v>
       </c>
       <c r="C970" s="9" t="s">
-        <v>2951</v>
+        <v>2780</v>
       </c>
       <c r="F970" s="15" t="s">
         <v>1179</v>
@@ -51335,10 +51361,10 @@
         <v>972</v>
       </c>
       <c r="J970" s="37" t="s">
-        <v>2911</v>
+        <v>2740</v>
       </c>
       <c r="K970" s="37" t="s">
-        <v>2911</v>
+        <v>2740</v>
       </c>
       <c r="L970" s="4" t="s">
         <v>1531</v>
@@ -51357,17 +51383,17 @@
       </c>
     </row>
     <row r="971" spans="1:16" ht="60">
-      <c r="A971" s="15" t="s">
-        <v>2622</v>
+      <c r="A971" s="60" t="s">
+        <v>2934</v>
       </c>
       <c r="B971" s="9" t="s">
-        <v>2790</v>
+        <v>2621</v>
       </c>
       <c r="C971" s="9" t="s">
-        <v>2952</v>
+        <v>2781</v>
       </c>
       <c r="F971" s="9" t="s">
-        <v>2895</v>
+        <v>2724</v>
       </c>
       <c r="G971" s="9" t="s">
         <v>1140</v>
@@ -51388,25 +51414,25 @@
         <v>1531</v>
       </c>
       <c r="M971" s="11" t="s">
-        <v>2921</v>
+        <v>2750</v>
       </c>
       <c r="N971" s="7"/>
       <c r="P971" s="28" t="s">
-        <v>3065</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="972" spans="1:16" ht="60">
-      <c r="A972" s="15" t="s">
-        <v>2623</v>
+      <c r="A972" s="60" t="s">
+        <v>2935</v>
       </c>
       <c r="B972" s="9" t="s">
-        <v>2791</v>
+        <v>2622</v>
       </c>
       <c r="C972" s="9" t="s">
-        <v>2953</v>
+        <v>2782</v>
       </c>
       <c r="F972" s="9" t="s">
-        <v>2897</v>
+        <v>2726</v>
       </c>
       <c r="G972" s="9" t="s">
         <v>1140</v>
@@ -51440,14 +51466,14 @@
       </c>
     </row>
     <row r="973" spans="1:16" ht="45">
-      <c r="A973" s="15" t="s">
-        <v>2624</v>
+      <c r="A973" s="60" t="s">
+        <v>2936</v>
       </c>
       <c r="B973" s="9" t="s">
-        <v>2785</v>
+        <v>2616</v>
       </c>
       <c r="C973" s="9" t="s">
-        <v>2946</v>
+        <v>2775</v>
       </c>
       <c r="F973" s="15" t="s">
         <v>1179</v>
@@ -51471,30 +51497,30 @@
         <v>1531</v>
       </c>
       <c r="M973" s="11" t="s">
-        <v>2919</v>
+        <v>2748</v>
       </c>
       <c r="N973" s="7" t="s">
-        <v>2920</v>
+        <v>2749</v>
       </c>
       <c r="O973" s="14" t="s">
         <v>1148</v>
       </c>
       <c r="P973" s="28" t="s">
-        <v>3063</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="974" spans="1:16" ht="60">
-      <c r="A974" s="15" t="s">
-        <v>2625</v>
+      <c r="A974" s="60" t="s">
+        <v>2937</v>
       </c>
       <c r="B974" s="9" t="s">
-        <v>2792</v>
+        <v>2623</v>
       </c>
       <c r="C974" s="9" t="s">
-        <v>2954</v>
+        <v>2783</v>
       </c>
       <c r="F974" s="9" t="s">
-        <v>2898</v>
+        <v>2727</v>
       </c>
       <c r="G974" s="9" t="s">
         <v>1140</v>
@@ -51524,18 +51550,18 @@
         <v>1148</v>
       </c>
       <c r="P974" s="28" t="s">
-        <v>3066</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="975" spans="1:16" ht="90">
-      <c r="A975" s="15" t="s">
-        <v>2626</v>
+      <c r="A975" s="60" t="s">
+        <v>2938</v>
       </c>
       <c r="B975" s="34" t="s">
-        <v>2793</v>
+        <v>2624</v>
       </c>
       <c r="C975" s="9" t="s">
-        <v>2955</v>
+        <v>2784</v>
       </c>
       <c r="F975" s="15" t="s">
         <v>1179</v>
@@ -51550,10 +51576,10 @@
         <v>972</v>
       </c>
       <c r="J975" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K975" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L975" s="4" t="s">
         <v>1531</v>
@@ -51568,18 +51594,18 @@
         <v>1148</v>
       </c>
       <c r="P975" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="976" spans="1:16" ht="60">
-      <c r="A976" s="15" t="s">
-        <v>2627</v>
+      <c r="A976" s="60" t="s">
+        <v>2939</v>
       </c>
       <c r="B976" s="9" t="s">
         <v>615</v>
       </c>
       <c r="C976" s="9" t="s">
-        <v>2956</v>
+        <v>2785</v>
       </c>
       <c r="D976" s="15" t="s">
         <v>1178</v>
@@ -51616,14 +51642,14 @@
       </c>
     </row>
     <row r="977" spans="1:16" ht="90">
-      <c r="A977" s="15" t="s">
-        <v>2628</v>
+      <c r="A977" s="60" t="s">
+        <v>2940</v>
       </c>
       <c r="B977" s="34" t="s">
-        <v>2794</v>
+        <v>2625</v>
       </c>
       <c r="C977" s="9" t="s">
-        <v>2957</v>
+        <v>2786</v>
       </c>
       <c r="F977" s="15" t="s">
         <v>1179</v>
@@ -51638,10 +51664,10 @@
         <v>972</v>
       </c>
       <c r="J977" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K977" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L977" s="4" t="s">
         <v>1531</v>
@@ -51656,18 +51682,18 @@
         <v>1148</v>
       </c>
       <c r="P977" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="978" spans="1:16" ht="90">
-      <c r="A978" s="15" t="s">
-        <v>2629</v>
+      <c r="A978" s="60" t="s">
+        <v>2941</v>
       </c>
       <c r="B978" s="34" t="s">
-        <v>2794</v>
+        <v>2625</v>
       </c>
       <c r="C978" s="9" t="s">
-        <v>2957</v>
+        <v>2786</v>
       </c>
       <c r="F978" s="15" t="s">
         <v>1179</v>
@@ -51682,10 +51708,10 @@
         <v>972</v>
       </c>
       <c r="J978" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K978" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L978" s="4" t="s">
         <v>1531</v>
@@ -51700,18 +51726,18 @@
         <v>1148</v>
       </c>
       <c r="P978" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="979" spans="1:16" ht="90">
-      <c r="A979" s="15" t="s">
-        <v>2630</v>
+      <c r="A979" s="60" t="s">
+        <v>2942</v>
       </c>
       <c r="B979" s="34" t="s">
-        <v>2795</v>
+        <v>2626</v>
       </c>
       <c r="C979" s="9" t="s">
-        <v>2958</v>
+        <v>2787</v>
       </c>
       <c r="F979" s="15" t="s">
         <v>1179</v>
@@ -51726,10 +51752,10 @@
         <v>972</v>
       </c>
       <c r="J979" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K979" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L979" s="4" t="s">
         <v>1531</v>
@@ -51744,18 +51770,18 @@
         <v>1148</v>
       </c>
       <c r="P979" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="980" spans="1:16" ht="90">
-      <c r="A980" s="15" t="s">
-        <v>2631</v>
+      <c r="A980" s="60" t="s">
+        <v>2943</v>
       </c>
       <c r="B980" s="36" t="s">
-        <v>2796</v>
+        <v>2627</v>
       </c>
       <c r="C980" s="9" t="s">
-        <v>2959</v>
+        <v>2788</v>
       </c>
       <c r="F980" s="15" t="s">
         <v>1179</v>
@@ -51770,10 +51796,10 @@
         <v>972</v>
       </c>
       <c r="J980" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K980" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L980" s="4" t="s">
         <v>1531</v>
@@ -51788,18 +51814,18 @@
         <v>1148</v>
       </c>
       <c r="P980" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="981" spans="1:16" ht="90">
-      <c r="A981" s="15" t="s">
-        <v>2632</v>
+      <c r="A981" s="60" t="s">
+        <v>2944</v>
       </c>
       <c r="B981" s="34" t="s">
-        <v>2797</v>
+        <v>2628</v>
       </c>
       <c r="C981" s="9" t="s">
-        <v>2960</v>
+        <v>2789</v>
       </c>
       <c r="F981" s="15" t="s">
         <v>1179</v>
@@ -51814,10 +51840,10 @@
         <v>972</v>
       </c>
       <c r="J981" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K981" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L981" s="4" t="s">
         <v>1531</v>
@@ -51832,18 +51858,18 @@
         <v>1148</v>
       </c>
       <c r="P981" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="982" spans="1:16" ht="90">
-      <c r="A982" s="15" t="s">
-        <v>2633</v>
+      <c r="A982" s="60" t="s">
+        <v>2945</v>
       </c>
       <c r="B982" s="34" t="s">
-        <v>2798</v>
+        <v>2629</v>
       </c>
       <c r="C982" s="9" t="s">
-        <v>2961</v>
+        <v>2790</v>
       </c>
       <c r="F982" s="15" t="s">
         <v>1179</v>
@@ -51858,10 +51884,10 @@
         <v>972</v>
       </c>
       <c r="J982" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K982" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L982" s="4" t="s">
         <v>1531</v>
@@ -51876,18 +51902,18 @@
         <v>1148</v>
       </c>
       <c r="P982" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="983" spans="1:16" ht="90">
-      <c r="A983" s="15" t="s">
-        <v>2634</v>
+      <c r="A983" s="60" t="s">
+        <v>2946</v>
       </c>
       <c r="B983" s="34" t="s">
-        <v>2799</v>
+        <v>2630</v>
       </c>
       <c r="C983" s="9" t="s">
-        <v>2962</v>
+        <v>2791</v>
       </c>
       <c r="F983" s="15" t="s">
         <v>1179</v>
@@ -51902,10 +51928,10 @@
         <v>972</v>
       </c>
       <c r="J983" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K983" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L983" s="4" t="s">
         <v>1531</v>
@@ -51920,18 +51946,18 @@
         <v>1148</v>
       </c>
       <c r="P983" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="984" spans="1:16" ht="90">
-      <c r="A984" s="15" t="s">
-        <v>2635</v>
+      <c r="A984" s="60" t="s">
+        <v>2947</v>
       </c>
       <c r="B984" s="36" t="s">
-        <v>2800</v>
+        <v>2631</v>
       </c>
       <c r="C984" s="9" t="s">
-        <v>2963</v>
+        <v>2792</v>
       </c>
       <c r="F984" s="15" t="s">
         <v>1179</v>
@@ -51946,10 +51972,10 @@
         <v>972</v>
       </c>
       <c r="J984" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K984" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L984" s="4" t="s">
         <v>1531</v>
@@ -51964,18 +51990,18 @@
         <v>1148</v>
       </c>
       <c r="P984" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="985" spans="1:16" ht="60">
-      <c r="A985" s="15" t="s">
-        <v>2636</v>
+      <c r="A985" s="60" t="s">
+        <v>2948</v>
       </c>
       <c r="B985" s="34" t="s">
-        <v>2801</v>
+        <v>2632</v>
       </c>
       <c r="C985" s="9" t="s">
-        <v>2964</v>
+        <v>2793</v>
       </c>
       <c r="F985" s="15" t="s">
         <v>1179</v>
@@ -51990,10 +52016,10 @@
         <v>972</v>
       </c>
       <c r="J985" s="37" t="s">
-        <v>2911</v>
+        <v>2740</v>
       </c>
       <c r="K985" s="37" t="s">
-        <v>2911</v>
+        <v>2740</v>
       </c>
       <c r="L985" s="4" t="s">
         <v>1531</v>
@@ -52012,14 +52038,14 @@
       </c>
     </row>
     <row r="986" spans="1:16" ht="90">
-      <c r="A986" s="15" t="s">
-        <v>2637</v>
+      <c r="A986" s="60" t="s">
+        <v>2949</v>
       </c>
       <c r="B986" s="34" t="s">
-        <v>2802</v>
+        <v>2633</v>
       </c>
       <c r="C986" s="9" t="s">
-        <v>2965</v>
+        <v>2794</v>
       </c>
       <c r="F986" s="15" t="s">
         <v>1179</v>
@@ -52034,10 +52060,10 @@
         <v>972</v>
       </c>
       <c r="J986" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K986" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L986" s="4" t="s">
         <v>1531</v>
@@ -52052,18 +52078,18 @@
         <v>1148</v>
       </c>
       <c r="P986" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="987" spans="1:16" ht="90">
-      <c r="A987" s="15" t="s">
-        <v>2638</v>
+      <c r="A987" s="60" t="s">
+        <v>2950</v>
       </c>
       <c r="B987" s="34" t="s">
-        <v>2803</v>
+        <v>2634</v>
       </c>
       <c r="C987" s="9" t="s">
-        <v>2966</v>
+        <v>2795</v>
       </c>
       <c r="F987" s="15" t="s">
         <v>1179</v>
@@ -52078,10 +52104,10 @@
         <v>972</v>
       </c>
       <c r="J987" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K987" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L987" s="4" t="s">
         <v>1531</v>
@@ -52096,18 +52122,18 @@
         <v>1148</v>
       </c>
       <c r="P987" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="988" spans="1:16" ht="90">
-      <c r="A988" s="15" t="s">
-        <v>2639</v>
+      <c r="A988" s="60" t="s">
+        <v>2951</v>
       </c>
       <c r="B988" s="34" t="s">
-        <v>2804</v>
+        <v>2635</v>
       </c>
       <c r="C988" s="9" t="s">
-        <v>2967</v>
+        <v>2796</v>
       </c>
       <c r="F988" s="15" t="s">
         <v>1179</v>
@@ -52122,10 +52148,10 @@
         <v>972</v>
       </c>
       <c r="J988" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K988" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L988" s="4" t="s">
         <v>1531</v>
@@ -52140,18 +52166,18 @@
         <v>1148</v>
       </c>
       <c r="P988" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="989" spans="1:16" ht="45">
-      <c r="A989" s="15" t="s">
-        <v>2640</v>
+      <c r="A989" s="60" t="s">
+        <v>2952</v>
       </c>
       <c r="B989" s="34" t="s">
-        <v>2805</v>
+        <v>2636</v>
       </c>
       <c r="C989" s="9" t="s">
-        <v>2968</v>
+        <v>2797</v>
       </c>
       <c r="F989" s="15" t="s">
         <v>1179</v>
@@ -52166,31 +52192,31 @@
         <v>972</v>
       </c>
       <c r="J989" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K989" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L989" s="4" t="s">
         <v>1531</v>
       </c>
       <c r="M989" s="41" t="s">
-        <v>2922</v>
+        <v>2751</v>
       </c>
       <c r="N989" s="41"/>
       <c r="P989" s="11" t="s">
-        <v>3067</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="990" spans="1:16" ht="90">
-      <c r="A990" s="15" t="s">
-        <v>2641</v>
+      <c r="A990" s="60" t="s">
+        <v>2953</v>
       </c>
       <c r="B990" s="34" t="s">
-        <v>2806</v>
+        <v>2637</v>
       </c>
       <c r="C990" s="9" t="s">
-        <v>2969</v>
+        <v>2798</v>
       </c>
       <c r="F990" s="15" t="s">
         <v>1179</v>
@@ -52205,10 +52231,10 @@
         <v>972</v>
       </c>
       <c r="J990" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K990" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L990" s="4" t="s">
         <v>1531</v>
@@ -52223,18 +52249,18 @@
         <v>1148</v>
       </c>
       <c r="P990" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="991" spans="1:16" ht="90">
-      <c r="A991" s="15" t="s">
-        <v>2642</v>
+      <c r="A991" s="60" t="s">
+        <v>2954</v>
       </c>
       <c r="B991" s="34" t="s">
-        <v>2802</v>
+        <v>2633</v>
       </c>
       <c r="C991" s="9" t="s">
-        <v>2965</v>
+        <v>2794</v>
       </c>
       <c r="F991" s="15" t="s">
         <v>1179</v>
@@ -52249,10 +52275,10 @@
         <v>972</v>
       </c>
       <c r="J991" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K991" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L991" s="4" t="s">
         <v>1531</v>
@@ -52267,18 +52293,18 @@
         <v>1148</v>
       </c>
       <c r="P991" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="992" spans="1:16" ht="45">
-      <c r="A992" s="15" t="s">
-        <v>2643</v>
+      <c r="A992" s="60" t="s">
+        <v>2955</v>
       </c>
       <c r="B992" s="34" t="s">
-        <v>2764</v>
+        <v>2595</v>
       </c>
       <c r="C992" s="9" t="s">
-        <v>2925</v>
+        <v>2754</v>
       </c>
       <c r="F992" s="15" t="s">
         <v>1179</v>
@@ -52293,34 +52319,34 @@
         <v>972</v>
       </c>
       <c r="J992" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K992" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L992" s="4" t="s">
         <v>1531</v>
       </c>
       <c r="M992" s="11" t="s">
-        <v>2918</v>
+        <v>2747</v>
       </c>
       <c r="N992" s="35"/>
       <c r="P992" s="11" t="s">
-        <v>3062</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="993" spans="1:16" ht="60">
-      <c r="A993" s="15" t="s">
-        <v>2644</v>
+      <c r="A993" s="60" t="s">
+        <v>2956</v>
       </c>
       <c r="B993" s="9" t="s">
-        <v>3076</v>
+        <v>2901</v>
       </c>
       <c r="C993" s="9" t="s">
-        <v>3075</v>
+        <v>2900</v>
       </c>
       <c r="E993" s="9" t="s">
-        <v>2899</v>
+        <v>2728</v>
       </c>
       <c r="G993" s="9" t="s">
         <v>1140</v>
@@ -52354,14 +52380,14 @@
       </c>
     </row>
     <row r="994" spans="1:16" ht="45">
-      <c r="A994" s="15" t="s">
-        <v>2645</v>
+      <c r="A994" s="60" t="s">
+        <v>2957</v>
       </c>
       <c r="B994" s="34" t="s">
-        <v>2807</v>
+        <v>2638</v>
       </c>
       <c r="C994" s="9" t="s">
-        <v>2970</v>
+        <v>2799</v>
       </c>
       <c r="F994" s="15" t="s">
         <v>1179</v>
@@ -52376,31 +52402,31 @@
         <v>972</v>
       </c>
       <c r="J994" s="37" t="s">
-        <v>2911</v>
+        <v>2740</v>
       </c>
       <c r="K994" s="37" t="s">
-        <v>2911</v>
+        <v>2740</v>
       </c>
       <c r="L994" s="4" t="s">
         <v>1531</v>
       </c>
       <c r="M994" s="11" t="s">
-        <v>2918</v>
+        <v>2747</v>
       </c>
       <c r="N994" s="37"/>
       <c r="P994" s="11" t="s">
-        <v>3062</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="995" spans="1:16" ht="45">
-      <c r="A995" s="15" t="s">
-        <v>2646</v>
+      <c r="A995" s="60" t="s">
+        <v>2958</v>
       </c>
       <c r="B995" s="9" t="s">
-        <v>2808</v>
+        <v>2639</v>
       </c>
       <c r="C995" s="9" t="s">
-        <v>2971</v>
+        <v>2800</v>
       </c>
       <c r="E995" s="9" t="s">
         <v>2</v>
@@ -52433,18 +52459,18 @@
         <v>1148</v>
       </c>
       <c r="P995" s="28" t="s">
-        <v>3068</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="996" spans="1:16" ht="45">
-      <c r="A996" s="15" t="s">
-        <v>2647</v>
+      <c r="A996" s="60" t="s">
+        <v>2959</v>
       </c>
       <c r="B996" s="9" t="s">
-        <v>2809</v>
+        <v>2640</v>
       </c>
       <c r="C996" s="9" t="s">
-        <v>2972</v>
+        <v>2801</v>
       </c>
       <c r="E996" s="9" t="s">
         <v>543</v>
@@ -52477,18 +52503,18 @@
         <v>1148</v>
       </c>
       <c r="P996" s="28" t="s">
-        <v>3066</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="997" spans="1:16" ht="60">
-      <c r="A997" s="15" t="s">
-        <v>2648</v>
+      <c r="A997" s="60" t="s">
+        <v>2960</v>
       </c>
       <c r="B997" s="34" t="s">
-        <v>2810</v>
+        <v>3072</v>
       </c>
       <c r="C997" s="9" t="s">
-        <v>2973</v>
+        <v>3075</v>
       </c>
       <c r="E997" s="34" t="s">
         <v>2</v>
@@ -52503,10 +52529,10 @@
         <v>972</v>
       </c>
       <c r="J997" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="K997" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="L997" s="4" t="s">
         <v>1531</v>
@@ -52525,14 +52551,14 @@
       </c>
     </row>
     <row r="998" spans="1:16" ht="60">
-      <c r="A998" s="15" t="s">
-        <v>2649</v>
+      <c r="A998" s="60" t="s">
+        <v>2961</v>
       </c>
       <c r="B998" s="34" t="s">
-        <v>2811</v>
+        <v>3073</v>
       </c>
       <c r="C998" s="9" t="s">
-        <v>2974</v>
+        <v>3074</v>
       </c>
       <c r="E998" s="34" t="s">
         <v>2</v>
@@ -52547,10 +52573,10 @@
         <v>972</v>
       </c>
       <c r="J998" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="K998" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="L998" s="4" t="s">
         <v>1531</v>
@@ -52569,14 +52595,14 @@
       </c>
     </row>
     <row r="999" spans="1:16" ht="150">
-      <c r="A999" s="15" t="s">
-        <v>2650</v>
+      <c r="A999" s="60" t="s">
+        <v>2962</v>
       </c>
       <c r="B999" s="34" t="s">
-        <v>2812</v>
+        <v>2641</v>
       </c>
       <c r="C999" s="9" t="s">
-        <v>2975</v>
+        <v>2802</v>
       </c>
       <c r="F999" s="15" t="s">
         <v>1179</v>
@@ -52591,10 +52617,10 @@
         <v>972</v>
       </c>
       <c r="J999" s="37" t="s">
-        <v>2913</v>
+        <v>2742</v>
       </c>
       <c r="K999" s="37" t="s">
-        <v>2913</v>
+        <v>2742</v>
       </c>
       <c r="L999" s="4" t="s">
         <v>1531</v>
@@ -52609,18 +52635,18 @@
         <v>1148</v>
       </c>
       <c r="P999" s="15" t="s">
-        <v>3069</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="1000" spans="1:16" ht="90">
-      <c r="A1000" s="15" t="s">
-        <v>2651</v>
+      <c r="A1000" s="60" t="s">
+        <v>2963</v>
       </c>
       <c r="B1000" s="36" t="s">
-        <v>2813</v>
+        <v>2642</v>
       </c>
       <c r="C1000" s="9" t="s">
-        <v>2976</v>
+        <v>2803</v>
       </c>
       <c r="F1000" s="15" t="s">
         <v>1179</v>
@@ -52635,10 +52661,10 @@
         <v>972</v>
       </c>
       <c r="J1000" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1000" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1000" s="4" t="s">
         <v>1531</v>
@@ -52653,18 +52679,18 @@
         <v>1148</v>
       </c>
       <c r="P1000" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1001" spans="1:16" ht="90">
-      <c r="A1001" s="15" t="s">
-        <v>2652</v>
+      <c r="A1001" s="60" t="s">
+        <v>2964</v>
       </c>
       <c r="B1001" s="36" t="s">
-        <v>2804</v>
+        <v>2635</v>
       </c>
       <c r="C1001" s="9" t="s">
-        <v>2967</v>
+        <v>2796</v>
       </c>
       <c r="F1001" s="15" t="s">
         <v>1179</v>
@@ -52679,10 +52705,10 @@
         <v>972</v>
       </c>
       <c r="J1001" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1001" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1001" s="4" t="s">
         <v>1531</v>
@@ -52697,18 +52723,18 @@
         <v>1148</v>
       </c>
       <c r="P1001" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1002" spans="1:16" ht="90">
-      <c r="A1002" s="15" t="s">
-        <v>2653</v>
+      <c r="A1002" s="60" t="s">
+        <v>2965</v>
       </c>
       <c r="B1002" s="36" t="s">
-        <v>2814</v>
+        <v>2643</v>
       </c>
       <c r="C1002" s="9" t="s">
-        <v>2977</v>
+        <v>2804</v>
       </c>
       <c r="F1002" s="15" t="s">
         <v>1179</v>
@@ -52723,10 +52749,10 @@
         <v>972</v>
       </c>
       <c r="J1002" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1002" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1002" s="4" t="s">
         <v>1531</v>
@@ -52741,18 +52767,18 @@
         <v>1148</v>
       </c>
       <c r="P1002" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1003" spans="1:16" ht="90">
-      <c r="A1003" s="15" t="s">
-        <v>2654</v>
+      <c r="A1003" s="60" t="s">
+        <v>2966</v>
       </c>
       <c r="B1003" s="36" t="s">
-        <v>2814</v>
+        <v>2643</v>
       </c>
       <c r="C1003" s="9" t="s">
-        <v>2977</v>
+        <v>2804</v>
       </c>
       <c r="F1003" s="15" t="s">
         <v>1179</v>
@@ -52767,10 +52793,10 @@
         <v>972</v>
       </c>
       <c r="J1003" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1003" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1003" s="4" t="s">
         <v>1531</v>
@@ -52785,18 +52811,18 @@
         <v>1148</v>
       </c>
       <c r="P1003" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1004" spans="1:16" ht="90">
-      <c r="A1004" s="15" t="s">
-        <v>2655</v>
+      <c r="A1004" s="60" t="s">
+        <v>2967</v>
       </c>
       <c r="B1004" s="36" t="s">
-        <v>2814</v>
+        <v>2643</v>
       </c>
       <c r="C1004" s="9" t="s">
-        <v>2977</v>
+        <v>2804</v>
       </c>
       <c r="F1004" s="15" t="s">
         <v>1179</v>
@@ -52811,10 +52837,10 @@
         <v>972</v>
       </c>
       <c r="J1004" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1004" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1004" s="4" t="s">
         <v>1531</v>
@@ -52829,18 +52855,18 @@
         <v>1148</v>
       </c>
       <c r="P1004" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1005" spans="1:16" ht="90">
-      <c r="A1005" s="15" t="s">
-        <v>2656</v>
+      <c r="A1005" s="60" t="s">
+        <v>2968</v>
       </c>
       <c r="B1005" s="36" t="s">
-        <v>2814</v>
+        <v>2643</v>
       </c>
       <c r="C1005" s="9" t="s">
-        <v>2977</v>
+        <v>2804</v>
       </c>
       <c r="F1005" s="15" t="s">
         <v>1179</v>
@@ -52855,10 +52881,10 @@
         <v>972</v>
       </c>
       <c r="J1005" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1005" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1005" s="4" t="s">
         <v>1531</v>
@@ -52873,18 +52899,18 @@
         <v>1148</v>
       </c>
       <c r="P1005" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1006" spans="1:16" ht="45">
-      <c r="A1006" s="15" t="s">
-        <v>2657</v>
+      <c r="A1006" s="60" t="s">
+        <v>2969</v>
       </c>
       <c r="B1006" s="9" t="s">
-        <v>2808</v>
+        <v>2639</v>
       </c>
       <c r="C1006" s="9" t="s">
-        <v>2971</v>
+        <v>2800</v>
       </c>
       <c r="E1006" s="9" t="s">
         <v>2</v>
@@ -52917,18 +52943,18 @@
         <v>1148</v>
       </c>
       <c r="P1006" s="28" t="s">
-        <v>3068</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1007" spans="1:16" ht="45">
-      <c r="A1007" s="15" t="s">
-        <v>2658</v>
+      <c r="A1007" s="60" t="s">
+        <v>2970</v>
       </c>
       <c r="B1007" s="9" t="s">
-        <v>2809</v>
+        <v>2640</v>
       </c>
       <c r="C1007" s="9" t="s">
-        <v>2972</v>
+        <v>2801</v>
       </c>
       <c r="E1007" s="9" t="s">
         <v>543</v>
@@ -52961,18 +52987,18 @@
         <v>1148</v>
       </c>
       <c r="P1007" s="28" t="s">
-        <v>3066</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="1008" spans="1:16" ht="60">
-      <c r="A1008" s="15" t="s">
-        <v>2659</v>
+      <c r="A1008" s="60" t="s">
+        <v>2971</v>
       </c>
       <c r="B1008" s="34" t="s">
-        <v>2810</v>
+        <v>3076</v>
       </c>
       <c r="C1008" s="9" t="s">
-        <v>2978</v>
+        <v>3077</v>
       </c>
       <c r="E1008" s="34" t="s">
         <v>2</v>
@@ -52987,10 +53013,10 @@
         <v>972</v>
       </c>
       <c r="J1008" s="37" t="s">
-        <v>2914</v>
+        <v>2743</v>
       </c>
       <c r="K1008" s="37" t="s">
-        <v>2914</v>
+        <v>2743</v>
       </c>
       <c r="L1008" s="4" t="s">
         <v>1531</v>
@@ -53009,14 +53035,14 @@
       </c>
     </row>
     <row r="1009" spans="1:16" ht="60">
-      <c r="A1009" s="15" t="s">
-        <v>2660</v>
+      <c r="A1009" s="60" t="s">
+        <v>2972</v>
       </c>
       <c r="B1009" s="34" t="s">
-        <v>2811</v>
+        <v>3078</v>
       </c>
       <c r="C1009" s="9" t="s">
-        <v>2979</v>
+        <v>3079</v>
       </c>
       <c r="E1009" s="34" t="s">
         <v>2</v>
@@ -53031,10 +53057,10 @@
         <v>972</v>
       </c>
       <c r="J1009" s="37" t="s">
-        <v>2914</v>
+        <v>2743</v>
       </c>
       <c r="K1009" s="37" t="s">
-        <v>2914</v>
+        <v>2743</v>
       </c>
       <c r="L1009" s="4" t="s">
         <v>1531</v>
@@ -53053,17 +53079,17 @@
       </c>
     </row>
     <row r="1010" spans="1:16" ht="45">
-      <c r="A1010" s="15" t="s">
-        <v>2661</v>
+      <c r="A1010" s="60" t="s">
+        <v>2973</v>
       </c>
       <c r="B1010" s="34" t="s">
-        <v>2815</v>
+        <v>2644</v>
       </c>
       <c r="C1010" s="9" t="s">
-        <v>2980</v>
+        <v>2805</v>
       </c>
       <c r="E1010" s="34" t="s">
-        <v>2900</v>
+        <v>2729</v>
       </c>
       <c r="G1010" s="9" t="s">
         <v>1140</v>
@@ -53075,10 +53101,10 @@
         <v>972</v>
       </c>
       <c r="J1010" s="37" t="s">
-        <v>2915</v>
+        <v>2744</v>
       </c>
       <c r="K1010" s="37" t="s">
-        <v>2915</v>
+        <v>2744</v>
       </c>
       <c r="L1010" s="4" t="s">
         <v>1531</v>
@@ -53086,21 +53112,21 @@
       <c r="M1010" s="37"/>
       <c r="N1010" s="37"/>
       <c r="P1010" s="15" t="s">
-        <v>3070</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="1011" spans="1:16" ht="45">
-      <c r="A1011" s="15" t="s">
-        <v>2662</v>
+      <c r="A1011" s="60" t="s">
+        <v>2974</v>
       </c>
       <c r="B1011" s="34" t="s">
-        <v>2816</v>
+        <v>2645</v>
       </c>
       <c r="C1011" s="9" t="s">
-        <v>2981</v>
+        <v>2806</v>
       </c>
       <c r="E1011" s="34" t="s">
-        <v>2901</v>
+        <v>2730</v>
       </c>
       <c r="G1011" s="9" t="s">
         <v>1140</v>
@@ -53112,10 +53138,10 @@
         <v>972</v>
       </c>
       <c r="J1011" s="37" t="s">
-        <v>2916</v>
+        <v>2745</v>
       </c>
       <c r="K1011" s="37" t="s">
-        <v>2916</v>
+        <v>2745</v>
       </c>
       <c r="L1011" s="4" t="s">
         <v>1531</v>
@@ -53127,17 +53153,17 @@
       </c>
     </row>
     <row r="1012" spans="1:16" ht="45">
-      <c r="A1012" s="15" t="s">
-        <v>2663</v>
+      <c r="A1012" s="60" t="s">
+        <v>2975</v>
       </c>
       <c r="B1012" s="34" t="s">
-        <v>2817</v>
+        <v>2646</v>
       </c>
       <c r="C1012" s="9" t="s">
-        <v>2982</v>
+        <v>2807</v>
       </c>
       <c r="E1012" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1012" s="9" t="s">
         <v>1140</v>
@@ -53149,10 +53175,10 @@
         <v>972</v>
       </c>
       <c r="J1012" s="37" t="s">
-        <v>2916</v>
+        <v>2745</v>
       </c>
       <c r="K1012" s="37" t="s">
-        <v>2916</v>
+        <v>2745</v>
       </c>
       <c r="L1012" s="4" t="s">
         <v>1531</v>
@@ -53160,21 +53186,21 @@
       <c r="M1012" s="37"/>
       <c r="N1012" s="37"/>
       <c r="P1012" s="15" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1013" spans="1:16" ht="45">
-      <c r="A1013" s="15" t="s">
-        <v>2664</v>
+      <c r="A1013" s="60" t="s">
+        <v>2976</v>
       </c>
       <c r="B1013" s="34" t="s">
-        <v>2818</v>
+        <v>2647</v>
       </c>
       <c r="C1013" s="9" t="s">
-        <v>2983</v>
+        <v>2808</v>
       </c>
       <c r="E1013" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1013" s="9" t="s">
         <v>1140</v>
@@ -53186,10 +53212,10 @@
         <v>972</v>
       </c>
       <c r="J1013" s="37" t="s">
-        <v>2916</v>
+        <v>2745</v>
       </c>
       <c r="K1013" s="37" t="s">
-        <v>2916</v>
+        <v>2745</v>
       </c>
       <c r="L1013" s="4" t="s">
         <v>1531</v>
@@ -53197,18 +53223,18 @@
       <c r="M1013" s="37"/>
       <c r="N1013" s="37"/>
       <c r="P1013" s="15" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1014" spans="1:16" ht="90">
-      <c r="A1014" s="15" t="s">
-        <v>2665</v>
+      <c r="A1014" s="60" t="s">
+        <v>2977</v>
       </c>
       <c r="B1014" s="34" t="s">
-        <v>2819</v>
+        <v>2648</v>
       </c>
       <c r="C1014" s="9" t="s">
-        <v>2984</v>
+        <v>2809</v>
       </c>
       <c r="F1014" s="15" t="s">
         <v>1179</v>
@@ -53223,10 +53249,10 @@
         <v>972</v>
       </c>
       <c r="J1014" s="37" t="s">
-        <v>2916</v>
+        <v>2745</v>
       </c>
       <c r="K1014" s="37" t="s">
-        <v>2916</v>
+        <v>2745</v>
       </c>
       <c r="L1014" s="4" t="s">
         <v>1531</v>
@@ -53241,21 +53267,21 @@
         <v>1148</v>
       </c>
       <c r="P1014" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1015" spans="1:16" ht="45">
-      <c r="A1015" s="15" t="s">
-        <v>2666</v>
+      <c r="A1015" s="60" t="s">
+        <v>2978</v>
       </c>
       <c r="B1015" s="34" t="s">
-        <v>2820</v>
+        <v>2649</v>
       </c>
       <c r="C1015" s="9" t="s">
-        <v>2985</v>
+        <v>2810</v>
       </c>
       <c r="E1015" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1015" s="9" t="s">
         <v>1140</v>
@@ -53267,10 +53293,10 @@
         <v>972</v>
       </c>
       <c r="J1015" s="37" t="s">
-        <v>2916</v>
+        <v>2745</v>
       </c>
       <c r="K1015" s="37" t="s">
-        <v>2916</v>
+        <v>2745</v>
       </c>
       <c r="L1015" s="4" t="s">
         <v>1531</v>
@@ -53278,21 +53304,21 @@
       <c r="M1015" s="37"/>
       <c r="N1015" s="37"/>
       <c r="P1015" s="15" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1016" spans="1:16" ht="45">
-      <c r="A1016" s="15" t="s">
-        <v>2667</v>
+      <c r="A1016" s="60" t="s">
+        <v>2979</v>
       </c>
       <c r="B1016" s="9" t="s">
-        <v>2821</v>
+        <v>2650</v>
       </c>
       <c r="C1016" s="9" t="s">
-        <v>2986</v>
+        <v>2811</v>
       </c>
       <c r="E1016" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1016" s="9" t="s">
         <v>1140</v>
@@ -53315,18 +53341,18 @@
       <c r="M1016" s="40"/>
       <c r="N1016" s="40"/>
       <c r="P1016" s="9" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1017" spans="1:16" ht="45">
-      <c r="A1017" s="15" t="s">
-        <v>2668</v>
+      <c r="A1017" s="60" t="s">
+        <v>2980</v>
       </c>
       <c r="B1017" s="9" t="s">
-        <v>2808</v>
+        <v>2639</v>
       </c>
       <c r="C1017" s="9" t="s">
-        <v>2971</v>
+        <v>2800</v>
       </c>
       <c r="E1017" s="9" t="s">
         <v>2</v>
@@ -53359,18 +53385,18 @@
         <v>1148</v>
       </c>
       <c r="P1017" s="28" t="s">
-        <v>3068</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1018" spans="1:16" ht="45">
-      <c r="A1018" s="15" t="s">
-        <v>2669</v>
+      <c r="A1018" s="60" t="s">
+        <v>2981</v>
       </c>
       <c r="B1018" s="9" t="s">
-        <v>2809</v>
+        <v>2640</v>
       </c>
       <c r="C1018" s="9" t="s">
-        <v>2972</v>
+        <v>2801</v>
       </c>
       <c r="E1018" s="9" t="s">
         <v>543</v>
@@ -53403,18 +53429,18 @@
         <v>1148</v>
       </c>
       <c r="P1018" s="28" t="s">
-        <v>3066</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="1019" spans="1:16" ht="60">
-      <c r="A1019" s="15" t="s">
-        <v>2670</v>
+      <c r="A1019" s="60" t="s">
+        <v>2982</v>
       </c>
       <c r="B1019" s="9" t="s">
         <v>615</v>
       </c>
       <c r="C1019" s="9" t="s">
-        <v>2956</v>
+        <v>2785</v>
       </c>
       <c r="D1019" s="17" t="s">
         <v>1178</v>
@@ -53451,17 +53477,17 @@
       </c>
     </row>
     <row r="1020" spans="1:16" ht="45">
-      <c r="A1020" s="15" t="s">
-        <v>2671</v>
+      <c r="A1020" s="60" t="s">
+        <v>2983</v>
       </c>
       <c r="B1020" s="34" t="s">
-        <v>2822</v>
+        <v>2651</v>
       </c>
       <c r="C1020" s="9" t="s">
-        <v>2987</v>
+        <v>2812</v>
       </c>
       <c r="E1020" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1020" s="9" t="s">
         <v>1140</v>
@@ -53473,10 +53499,10 @@
         <v>972</v>
       </c>
       <c r="J1020" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1020" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1020" s="4" t="s">
         <v>1531</v>
@@ -53484,21 +53510,21 @@
       <c r="M1020" s="35"/>
       <c r="N1020" s="35"/>
       <c r="P1020" s="15" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1021" spans="1:16" ht="45">
-      <c r="A1021" s="15" t="s">
-        <v>2672</v>
+      <c r="A1021" s="60" t="s">
+        <v>2984</v>
       </c>
       <c r="B1021" s="9" t="s">
-        <v>2823</v>
+        <v>2652</v>
       </c>
       <c r="C1021" s="9" t="s">
-        <v>2988</v>
+        <v>2813</v>
       </c>
       <c r="E1021" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1021" s="9" t="s">
         <v>1140</v>
@@ -53521,21 +53547,21 @@
       <c r="M1021" s="40"/>
       <c r="N1021" s="40"/>
       <c r="P1021" s="9" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1022" spans="1:16" ht="45">
-      <c r="A1022" s="15" t="s">
-        <v>2673</v>
+      <c r="A1022" s="60" t="s">
+        <v>2985</v>
       </c>
       <c r="B1022" s="9" t="s">
-        <v>2823</v>
+        <v>2652</v>
       </c>
       <c r="C1022" s="9" t="s">
-        <v>2988</v>
+        <v>2813</v>
       </c>
       <c r="E1022" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1022" s="9" t="s">
         <v>1140</v>
@@ -53558,21 +53584,21 @@
       <c r="M1022" s="40"/>
       <c r="N1022" s="40"/>
       <c r="P1022" s="9" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1023" spans="1:16" ht="45">
-      <c r="A1023" s="15" t="s">
-        <v>2674</v>
+      <c r="A1023" s="60" t="s">
+        <v>2986</v>
       </c>
       <c r="B1023" s="9" t="s">
-        <v>2823</v>
+        <v>2652</v>
       </c>
       <c r="C1023" s="9" t="s">
-        <v>2988</v>
+        <v>2813</v>
       </c>
       <c r="E1023" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1023" s="9" t="s">
         <v>1140</v>
@@ -53595,21 +53621,21 @@
       <c r="M1023" s="40"/>
       <c r="N1023" s="40"/>
       <c r="P1023" s="9" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1024" spans="1:16" ht="45">
-      <c r="A1024" s="15" t="s">
-        <v>2675</v>
+      <c r="A1024" s="60" t="s">
+        <v>2987</v>
       </c>
       <c r="B1024" s="9" t="s">
-        <v>2823</v>
+        <v>2652</v>
       </c>
       <c r="C1024" s="9" t="s">
-        <v>2988</v>
+        <v>2813</v>
       </c>
       <c r="E1024" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1024" s="9" t="s">
         <v>1140</v>
@@ -53632,21 +53658,21 @@
       <c r="M1024" s="40"/>
       <c r="N1024" s="40"/>
       <c r="P1024" s="9" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1025" spans="1:16" ht="45">
-      <c r="A1025" s="15" t="s">
-        <v>2676</v>
+      <c r="A1025" s="60" t="s">
+        <v>2988</v>
       </c>
       <c r="B1025" s="9" t="s">
-        <v>2823</v>
+        <v>2652</v>
       </c>
       <c r="C1025" s="9" t="s">
-        <v>2988</v>
+        <v>2813</v>
       </c>
       <c r="E1025" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1025" s="9" t="s">
         <v>1140</v>
@@ -53669,21 +53695,21 @@
       <c r="M1025" s="40"/>
       <c r="N1025" s="40"/>
       <c r="P1025" s="9" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1026" spans="1:16" ht="45">
-      <c r="A1026" s="15" t="s">
-        <v>2677</v>
+      <c r="A1026" s="60" t="s">
+        <v>2989</v>
       </c>
       <c r="B1026" s="9" t="s">
-        <v>2823</v>
+        <v>2652</v>
       </c>
       <c r="C1026" s="9" t="s">
-        <v>2988</v>
+        <v>2813</v>
       </c>
       <c r="E1026" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1026" s="9" t="s">
         <v>1140</v>
@@ -53706,21 +53732,21 @@
       <c r="M1026" s="40"/>
       <c r="N1026" s="40"/>
       <c r="P1026" s="9" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1027" spans="1:16" ht="75">
-      <c r="A1027" s="15" t="s">
-        <v>2678</v>
+      <c r="A1027" s="60" t="s">
+        <v>2990</v>
       </c>
       <c r="B1027" s="34" t="s">
-        <v>2824</v>
+        <v>2653</v>
       </c>
       <c r="C1027" s="9" t="s">
-        <v>2989</v>
+        <v>2814</v>
       </c>
       <c r="E1027" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1027" s="9" t="s">
         <v>1140</v>
@@ -53732,10 +53758,10 @@
         <v>972</v>
       </c>
       <c r="J1027" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="K1027" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="L1027" s="4" t="s">
         <v>1531</v>
@@ -53743,21 +53769,21 @@
       <c r="M1027" s="37"/>
       <c r="N1027" s="37"/>
       <c r="P1027" s="15" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1028" spans="1:16" ht="45">
-      <c r="A1028" s="15" t="s">
-        <v>2679</v>
+      <c r="A1028" s="60" t="s">
+        <v>2991</v>
       </c>
       <c r="B1028" s="34" t="s">
-        <v>2825</v>
+        <v>2654</v>
       </c>
       <c r="C1028" s="9" t="s">
-        <v>2990</v>
+        <v>2815</v>
       </c>
       <c r="E1028" s="34" t="s">
-        <v>2903</v>
+        <v>2732</v>
       </c>
       <c r="G1028" s="9" t="s">
         <v>1140</v>
@@ -53769,10 +53795,10 @@
         <v>972</v>
       </c>
       <c r="J1028" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="K1028" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="L1028" s="4" t="s">
         <v>1531</v>
@@ -53780,21 +53806,21 @@
       <c r="M1028" s="37"/>
       <c r="N1028" s="37"/>
       <c r="P1028" s="28" t="s">
-        <v>3077</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1029" spans="1:16" ht="60">
-      <c r="A1029" s="15" t="s">
-        <v>2680</v>
+      <c r="A1029" s="60" t="s">
+        <v>2992</v>
       </c>
       <c r="B1029" s="34" t="s">
-        <v>2826</v>
+        <v>2655</v>
       </c>
       <c r="C1029" s="9" t="s">
-        <v>2991</v>
+        <v>2816</v>
       </c>
       <c r="E1029" s="34" t="s">
-        <v>2903</v>
+        <v>2732</v>
       </c>
       <c r="G1029" s="9" t="s">
         <v>1140</v>
@@ -53806,10 +53832,10 @@
         <v>972</v>
       </c>
       <c r="J1029" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="K1029" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="L1029" s="4" t="s">
         <v>1531</v>
@@ -53817,21 +53843,21 @@
       <c r="M1029" s="37"/>
       <c r="N1029" s="37"/>
       <c r="P1029" s="28" t="s">
-        <v>3077</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1030" spans="1:16" ht="45">
-      <c r="A1030" s="15" t="s">
-        <v>2681</v>
+      <c r="A1030" s="60" t="s">
+        <v>2993</v>
       </c>
       <c r="B1030" s="9" t="s">
-        <v>2827</v>
+        <v>2656</v>
       </c>
       <c r="C1030" s="9" t="s">
-        <v>2992</v>
+        <v>2817</v>
       </c>
       <c r="E1030" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1030" s="9" t="s">
         <v>1140</v>
@@ -53843,10 +53869,10 @@
         <v>972</v>
       </c>
       <c r="J1030" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="K1030" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="L1030" s="4" t="s">
         <v>1531</v>
@@ -53854,21 +53880,21 @@
       <c r="M1030" s="37"/>
       <c r="N1030" s="37"/>
       <c r="P1030" s="15" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1031" spans="1:16" ht="45">
-      <c r="A1031" s="15" t="s">
-        <v>2682</v>
+      <c r="A1031" s="60" t="s">
+        <v>2994</v>
       </c>
       <c r="B1031" s="9" t="s">
-        <v>2827</v>
+        <v>2656</v>
       </c>
       <c r="C1031" s="9" t="s">
-        <v>2992</v>
+        <v>2817</v>
       </c>
       <c r="E1031" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1031" s="9" t="s">
         <v>1140</v>
@@ -53880,10 +53906,10 @@
         <v>972</v>
       </c>
       <c r="J1031" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="K1031" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="L1031" s="4" t="s">
         <v>1531</v>
@@ -53891,21 +53917,21 @@
       <c r="M1031" s="37"/>
       <c r="N1031" s="37"/>
       <c r="P1031" s="15" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1032" spans="1:16" ht="45">
-      <c r="A1032" s="15" t="s">
-        <v>2683</v>
+      <c r="A1032" s="60" t="s">
+        <v>2995</v>
       </c>
       <c r="B1032" s="34" t="s">
-        <v>2828</v>
+        <v>2657</v>
       </c>
       <c r="C1032" s="9" t="s">
-        <v>2993</v>
+        <v>2818</v>
       </c>
       <c r="E1032" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1032" s="9" t="s">
         <v>1140</v>
@@ -53917,10 +53943,10 @@
         <v>972</v>
       </c>
       <c r="J1032" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="K1032" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="L1032" s="4" t="s">
         <v>1531</v>
@@ -53928,21 +53954,21 @@
       <c r="M1032" s="37"/>
       <c r="N1032" s="37"/>
       <c r="P1032" s="15" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1033" spans="1:16" ht="45">
-      <c r="A1033" s="15" t="s">
-        <v>2684</v>
+      <c r="A1033" s="60" t="s">
+        <v>2996</v>
       </c>
       <c r="B1033" s="34" t="s">
-        <v>2829</v>
+        <v>2658</v>
       </c>
       <c r="C1033" s="9" t="s">
-        <v>2994</v>
+        <v>2819</v>
       </c>
       <c r="E1033" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1033" s="9" t="s">
         <v>1140</v>
@@ -53954,10 +53980,10 @@
         <v>972</v>
       </c>
       <c r="J1033" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="K1033" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="L1033" s="4" t="s">
         <v>1531</v>
@@ -53965,21 +53991,21 @@
       <c r="M1033" s="37"/>
       <c r="N1033" s="37"/>
       <c r="P1033" s="15" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1034" spans="1:16" ht="45">
-      <c r="A1034" s="15" t="s">
-        <v>2685</v>
+      <c r="A1034" s="60" t="s">
+        <v>2997</v>
       </c>
       <c r="B1034" s="9" t="s">
-        <v>2830</v>
+        <v>2659</v>
       </c>
       <c r="C1034" s="9" t="s">
-        <v>2995</v>
+        <v>2820</v>
       </c>
       <c r="E1034" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1034" s="9" t="s">
         <v>1140</v>
@@ -54002,21 +54028,21 @@
       <c r="M1034" s="40"/>
       <c r="N1034" s="40"/>
       <c r="P1034" s="15" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1035" spans="1:16" ht="45">
-      <c r="A1035" s="15" t="s">
-        <v>2686</v>
+      <c r="A1035" s="60" t="s">
+        <v>2998</v>
       </c>
       <c r="B1035" s="34" t="s">
-        <v>2831</v>
+        <v>2660</v>
       </c>
       <c r="C1035" s="9" t="s">
-        <v>2996</v>
+        <v>2821</v>
       </c>
       <c r="E1035" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1035" s="9" t="s">
         <v>1140</v>
@@ -54028,10 +54054,10 @@
         <v>972</v>
       </c>
       <c r="J1035" s="37" t="s">
-        <v>2917</v>
+        <v>2746</v>
       </c>
       <c r="K1035" s="37" t="s">
-        <v>2917</v>
+        <v>2746</v>
       </c>
       <c r="L1035" s="4" t="s">
         <v>1531</v>
@@ -54039,21 +54065,21 @@
       <c r="M1035" s="37"/>
       <c r="N1035" s="37"/>
       <c r="P1035" s="9" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1036" spans="1:16" ht="45">
-      <c r="A1036" s="15" t="s">
-        <v>2687</v>
+      <c r="A1036" s="60" t="s">
+        <v>2999</v>
       </c>
       <c r="B1036" s="34" t="s">
-        <v>2832</v>
+        <v>2661</v>
       </c>
       <c r="C1036" s="9" t="s">
-        <v>2997</v>
+        <v>2822</v>
       </c>
       <c r="F1036" s="9" t="s">
-        <v>2904</v>
+        <v>2733</v>
       </c>
       <c r="G1036" s="9" t="s">
         <v>1140</v>
@@ -54065,10 +54091,10 @@
         <v>972</v>
       </c>
       <c r="J1036" s="37" t="s">
-        <v>2916</v>
+        <v>2745</v>
       </c>
       <c r="K1036" s="37" t="s">
-        <v>2916</v>
+        <v>2745</v>
       </c>
       <c r="L1036" s="4" t="s">
         <v>1531</v>
@@ -54076,21 +54102,21 @@
       <c r="M1036" s="37"/>
       <c r="N1036" s="37"/>
       <c r="P1036" s="9" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1037" spans="1:16" ht="45">
-      <c r="A1037" s="15" t="s">
-        <v>2688</v>
+      <c r="A1037" s="60" t="s">
+        <v>3000</v>
       </c>
       <c r="B1037" s="34" t="s">
-        <v>2833</v>
+        <v>2662</v>
       </c>
       <c r="C1037" s="9" t="s">
-        <v>2998</v>
+        <v>2823</v>
       </c>
       <c r="F1037" s="9" t="s">
-        <v>2904</v>
+        <v>2733</v>
       </c>
       <c r="G1037" s="9" t="s">
         <v>1140</v>
@@ -54102,10 +54128,10 @@
         <v>972</v>
       </c>
       <c r="J1037" s="37" t="s">
-        <v>2916</v>
+        <v>2745</v>
       </c>
       <c r="K1037" s="37" t="s">
-        <v>2916</v>
+        <v>2745</v>
       </c>
       <c r="L1037" s="4" t="s">
         <v>1531</v>
@@ -54113,21 +54139,21 @@
       <c r="M1037" s="37"/>
       <c r="N1037" s="37"/>
       <c r="P1037" s="15" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1038" spans="1:16" ht="45">
-      <c r="A1038" s="15" t="s">
-        <v>2689</v>
+      <c r="A1038" s="60" t="s">
+        <v>3001</v>
       </c>
       <c r="B1038" s="34" t="s">
-        <v>2834</v>
+        <v>2663</v>
       </c>
       <c r="C1038" s="9" t="s">
-        <v>2999</v>
+        <v>2824</v>
       </c>
       <c r="F1038" s="9" t="s">
-        <v>2904</v>
+        <v>2733</v>
       </c>
       <c r="G1038" s="9" t="s">
         <v>1140</v>
@@ -54139,10 +54165,10 @@
         <v>972</v>
       </c>
       <c r="J1038" s="37" t="s">
-        <v>2916</v>
+        <v>2745</v>
       </c>
       <c r="K1038" s="37" t="s">
-        <v>2916</v>
+        <v>2745</v>
       </c>
       <c r="L1038" s="4" t="s">
         <v>1531</v>
@@ -54150,18 +54176,18 @@
       <c r="M1038" s="37"/>
       <c r="N1038" s="37"/>
       <c r="P1038" s="15" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1039" spans="1:16" ht="90">
-      <c r="A1039" s="15" t="s">
-        <v>2690</v>
+      <c r="A1039" s="60" t="s">
+        <v>3002</v>
       </c>
       <c r="B1039" s="34" t="s">
-        <v>2835</v>
+        <v>2664</v>
       </c>
       <c r="C1039" s="9" t="s">
-        <v>3000</v>
+        <v>2825</v>
       </c>
       <c r="F1039" s="15" t="s">
         <v>1179</v>
@@ -54176,10 +54202,10 @@
         <v>972</v>
       </c>
       <c r="J1039" s="37" t="s">
-        <v>2916</v>
+        <v>2745</v>
       </c>
       <c r="K1039" s="37" t="s">
-        <v>2916</v>
+        <v>2745</v>
       </c>
       <c r="L1039" s="4" t="s">
         <v>1531</v>
@@ -54194,18 +54220,18 @@
         <v>1148</v>
       </c>
       <c r="P1039" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1040" spans="1:16" ht="90">
-      <c r="A1040" s="15" t="s">
-        <v>2691</v>
+      <c r="A1040" s="60" t="s">
+        <v>3003</v>
       </c>
       <c r="B1040" s="34" t="s">
-        <v>2836</v>
+        <v>2665</v>
       </c>
       <c r="C1040" s="9" t="s">
-        <v>3001</v>
+        <v>2826</v>
       </c>
       <c r="F1040" s="15" t="s">
         <v>1179</v>
@@ -54220,10 +54246,10 @@
         <v>972</v>
       </c>
       <c r="J1040" s="37" t="s">
-        <v>2916</v>
+        <v>2745</v>
       </c>
       <c r="K1040" s="37" t="s">
-        <v>2916</v>
+        <v>2745</v>
       </c>
       <c r="L1040" s="4" t="s">
         <v>1531</v>
@@ -54238,18 +54264,18 @@
         <v>1148</v>
       </c>
       <c r="P1040" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1041" spans="1:16" ht="90">
-      <c r="A1041" s="15" t="s">
-        <v>2692</v>
+      <c r="A1041" s="60" t="s">
+        <v>3004</v>
       </c>
       <c r="B1041" s="34" t="s">
-        <v>2836</v>
+        <v>2665</v>
       </c>
       <c r="C1041" s="9" t="s">
-        <v>3001</v>
+        <v>2826</v>
       </c>
       <c r="F1041" s="15" t="s">
         <v>1179</v>
@@ -54264,10 +54290,10 @@
         <v>972</v>
       </c>
       <c r="J1041" s="37" t="s">
-        <v>2916</v>
+        <v>2745</v>
       </c>
       <c r="K1041" s="37" t="s">
-        <v>2916</v>
+        <v>2745</v>
       </c>
       <c r="L1041" s="4" t="s">
         <v>1531</v>
@@ -54282,21 +54308,21 @@
         <v>1148</v>
       </c>
       <c r="P1041" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1042" spans="1:16" ht="45">
-      <c r="A1042" s="15" t="s">
-        <v>2693</v>
+      <c r="A1042" s="60" t="s">
+        <v>3005</v>
       </c>
       <c r="B1042" s="34" t="s">
-        <v>2837</v>
+        <v>2666</v>
       </c>
       <c r="C1042" s="9" t="s">
-        <v>3002</v>
+        <v>2827</v>
       </c>
       <c r="E1042" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1042" s="9" t="s">
         <v>1140</v>
@@ -54308,10 +54334,10 @@
         <v>972</v>
       </c>
       <c r="J1042" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="K1042" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="L1042" s="4" t="s">
         <v>1531</v>
@@ -54319,21 +54345,21 @@
       <c r="M1042" s="37"/>
       <c r="N1042" s="37"/>
       <c r="P1042" s="15" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1043" spans="1:16" ht="45">
-      <c r="A1043" s="15" t="s">
-        <v>2694</v>
+      <c r="A1043" s="60" t="s">
+        <v>3006</v>
       </c>
       <c r="B1043" s="34" t="s">
-        <v>2838</v>
+        <v>2667</v>
       </c>
       <c r="C1043" s="9" t="s">
-        <v>3003</v>
+        <v>2828</v>
       </c>
       <c r="E1043" s="34" t="s">
-        <v>2903</v>
+        <v>2732</v>
       </c>
       <c r="G1043" s="9" t="s">
         <v>1140</v>
@@ -54345,10 +54371,10 @@
         <v>972</v>
       </c>
       <c r="J1043" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="K1043" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="L1043" s="4" t="s">
         <v>1531</v>
@@ -54356,18 +54382,18 @@
       <c r="M1043" s="37"/>
       <c r="N1043" s="37"/>
       <c r="P1043" s="28" t="s">
-        <v>3077</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1044" spans="1:16" ht="90">
-      <c r="A1044" s="15" t="s">
-        <v>2695</v>
+      <c r="A1044" s="60" t="s">
+        <v>3007</v>
       </c>
       <c r="B1044" s="34" t="s">
-        <v>2839</v>
+        <v>2668</v>
       </c>
       <c r="C1044" s="9" t="s">
-        <v>3004</v>
+        <v>2829</v>
       </c>
       <c r="F1044" s="15" t="s">
         <v>1179</v>
@@ -54382,10 +54408,10 @@
         <v>972</v>
       </c>
       <c r="J1044" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1044" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1044" s="4" t="s">
         <v>1531</v>
@@ -54400,18 +54426,18 @@
         <v>1148</v>
       </c>
       <c r="P1044" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1045" spans="1:16" ht="90">
-      <c r="A1045" s="15" t="s">
-        <v>2696</v>
+      <c r="A1045" s="60" t="s">
+        <v>3008</v>
       </c>
       <c r="B1045" s="36" t="s">
-        <v>2840</v>
+        <v>2669</v>
       </c>
       <c r="C1045" s="9" t="s">
-        <v>3005</v>
+        <v>2830</v>
       </c>
       <c r="F1045" s="15" t="s">
         <v>1179</v>
@@ -54426,10 +54452,10 @@
         <v>972</v>
       </c>
       <c r="J1045" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1045" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1045" s="4" t="s">
         <v>1531</v>
@@ -54444,18 +54470,18 @@
         <v>1148</v>
       </c>
       <c r="P1045" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1046" spans="1:16" ht="90">
-      <c r="A1046" s="15" t="s">
-        <v>2697</v>
+      <c r="A1046" s="60" t="s">
+        <v>3009</v>
       </c>
       <c r="B1046" s="36" t="s">
-        <v>2841</v>
+        <v>2670</v>
       </c>
       <c r="C1046" s="9" t="s">
-        <v>3006</v>
+        <v>2831</v>
       </c>
       <c r="F1046" s="15" t="s">
         <v>1179</v>
@@ -54470,10 +54496,10 @@
         <v>972</v>
       </c>
       <c r="J1046" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1046" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1046" s="4" t="s">
         <v>1531</v>
@@ -54488,18 +54514,18 @@
         <v>1148</v>
       </c>
       <c r="P1046" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1047" spans="1:16" ht="90">
-      <c r="A1047" s="15" t="s">
-        <v>2698</v>
+      <c r="A1047" s="60" t="s">
+        <v>3010</v>
       </c>
       <c r="B1047" s="34" t="s">
-        <v>2842</v>
+        <v>2671</v>
       </c>
       <c r="C1047" s="9" t="s">
-        <v>3007</v>
+        <v>2832</v>
       </c>
       <c r="F1047" s="15" t="s">
         <v>1179</v>
@@ -54514,10 +54540,10 @@
         <v>972</v>
       </c>
       <c r="J1047" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1047" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1047" s="4" t="s">
         <v>1531</v>
@@ -54532,21 +54558,21 @@
         <v>1148</v>
       </c>
       <c r="P1047" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1048" spans="1:16" ht="45">
-      <c r="A1048" s="15" t="s">
-        <v>2699</v>
+      <c r="A1048" s="60" t="s">
+        <v>3011</v>
       </c>
       <c r="B1048" s="34" t="s">
-        <v>2843</v>
+        <v>2672</v>
       </c>
       <c r="C1048" s="9" t="s">
-        <v>3008</v>
+        <v>2833</v>
       </c>
       <c r="E1048" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1048" s="9" t="s">
         <v>1140</v>
@@ -54558,10 +54584,10 @@
         <v>972</v>
       </c>
       <c r="J1048" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1048" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1048" s="4" t="s">
         <v>1531</v>
@@ -54569,21 +54595,21 @@
       <c r="M1048" s="35"/>
       <c r="N1048" s="35"/>
       <c r="P1048" s="15" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1049" spans="1:16" ht="45">
-      <c r="A1049" s="15" t="s">
-        <v>2700</v>
+      <c r="A1049" s="60" t="s">
+        <v>3012</v>
       </c>
       <c r="B1049" s="34" t="s">
-        <v>2844</v>
+        <v>2673</v>
       </c>
       <c r="C1049" s="9" t="s">
-        <v>3009</v>
+        <v>2834</v>
       </c>
       <c r="E1049" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1049" s="9" t="s">
         <v>1140</v>
@@ -54595,10 +54621,10 @@
         <v>972</v>
       </c>
       <c r="J1049" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="K1049" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="L1049" s="4" t="s">
         <v>1531</v>
@@ -54606,18 +54632,18 @@
       <c r="M1049" s="37"/>
       <c r="N1049" s="37"/>
       <c r="P1049" s="15" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1050" spans="1:16" ht="90">
-      <c r="A1050" s="15" t="s">
-        <v>2701</v>
+      <c r="A1050" s="60" t="s">
+        <v>3013</v>
       </c>
       <c r="B1050" s="34" t="s">
-        <v>2845</v>
+        <v>2674</v>
       </c>
       <c r="C1050" s="9" t="s">
-        <v>3010</v>
+        <v>2835</v>
       </c>
       <c r="F1050" s="15" t="s">
         <v>1179</v>
@@ -54632,10 +54658,10 @@
         <v>972</v>
       </c>
       <c r="J1050" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1050" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1050" s="4" t="s">
         <v>1531</v>
@@ -54650,21 +54676,21 @@
         <v>1148</v>
       </c>
       <c r="P1050" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1051" spans="1:16" ht="45">
-      <c r="A1051" s="15" t="s">
-        <v>2702</v>
+      <c r="A1051" s="60" t="s">
+        <v>3014</v>
       </c>
       <c r="B1051" s="34" t="s">
-        <v>2846</v>
+        <v>2675</v>
       </c>
       <c r="C1051" s="9" t="s">
-        <v>3011</v>
+        <v>2836</v>
       </c>
       <c r="E1051" s="34" t="s">
-        <v>2903</v>
+        <v>2732</v>
       </c>
       <c r="G1051" s="9" t="s">
         <v>1140</v>
@@ -54676,10 +54702,10 @@
         <v>972</v>
       </c>
       <c r="J1051" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="K1051" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="L1051" s="4" t="s">
         <v>1531</v>
@@ -54687,18 +54713,18 @@
       <c r="M1051" s="37"/>
       <c r="N1051" s="37"/>
       <c r="P1051" s="28" t="s">
-        <v>3077</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1052" spans="1:16" ht="45">
-      <c r="A1052" s="15" t="s">
-        <v>2703</v>
+      <c r="A1052" s="60" t="s">
+        <v>3015</v>
       </c>
       <c r="B1052" s="34" t="s">
-        <v>2847</v>
+        <v>2676</v>
       </c>
       <c r="C1052" s="9" t="s">
-        <v>3012</v>
+        <v>2837</v>
       </c>
       <c r="F1052" s="15" t="s">
         <v>1179</v>
@@ -54713,10 +54739,10 @@
         <v>972</v>
       </c>
       <c r="J1052" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1052" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1052" s="4" t="s">
         <v>1531</v>
@@ -54731,18 +54757,18 @@
         <v>1148</v>
       </c>
       <c r="P1052" s="15" t="s">
-        <v>3061</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="1053" spans="1:16" ht="45">
-      <c r="A1053" s="15" t="s">
-        <v>2704</v>
+      <c r="A1053" s="60" t="s">
+        <v>3016</v>
       </c>
       <c r="B1053" s="34" t="s">
-        <v>2848</v>
+        <v>2677</v>
       </c>
       <c r="C1053" s="9" t="s">
-        <v>3013</v>
+        <v>2838</v>
       </c>
       <c r="F1053" s="15" t="s">
         <v>1179</v>
@@ -54757,10 +54783,10 @@
         <v>972</v>
       </c>
       <c r="J1053" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1053" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1053" s="4" t="s">
         <v>1531</v>
@@ -54775,21 +54801,21 @@
         <v>1148</v>
       </c>
       <c r="P1053" s="15" t="s">
-        <v>3061</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="1054" spans="1:16" ht="45">
-      <c r="A1054" s="15" t="s">
-        <v>2705</v>
+      <c r="A1054" s="60" t="s">
+        <v>3017</v>
       </c>
       <c r="B1054" s="9" t="s">
-        <v>2849</v>
+        <v>2678</v>
       </c>
       <c r="C1054" s="9" t="s">
-        <v>3014</v>
+        <v>2839</v>
       </c>
       <c r="E1054" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1054" s="9" t="s">
         <v>1140</v>
@@ -54801,10 +54827,10 @@
         <v>972</v>
       </c>
       <c r="J1054" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1054" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1054" s="4" t="s">
         <v>1531</v>
@@ -54812,21 +54838,21 @@
       <c r="M1054" s="35"/>
       <c r="N1054" s="35"/>
       <c r="P1054" s="15" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1055" spans="1:16" ht="45">
-      <c r="A1055" s="15" t="s">
-        <v>2706</v>
+      <c r="A1055" s="60" t="s">
+        <v>3018</v>
       </c>
       <c r="B1055" s="34" t="s">
-        <v>2850</v>
+        <v>2679</v>
       </c>
       <c r="C1055" s="9" t="s">
-        <v>3015</v>
+        <v>2840</v>
       </c>
       <c r="E1055" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1055" s="9" t="s">
         <v>1140</v>
@@ -54838,10 +54864,10 @@
         <v>972</v>
       </c>
       <c r="J1055" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="K1055" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="L1055" s="4" t="s">
         <v>1531</v>
@@ -54849,21 +54875,21 @@
       <c r="M1055" s="37"/>
       <c r="N1055" s="37"/>
       <c r="P1055" s="15" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1056" spans="1:16" ht="45">
-      <c r="A1056" s="15" t="s">
-        <v>2707</v>
+      <c r="A1056" s="60" t="s">
+        <v>3019</v>
       </c>
       <c r="B1056" s="9" t="s">
-        <v>2851</v>
+        <v>2680</v>
       </c>
       <c r="C1056" s="9" t="s">
-        <v>3016</v>
+        <v>2841</v>
       </c>
       <c r="E1056" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1056" s="9" t="s">
         <v>1140</v>
@@ -54875,10 +54901,10 @@
         <v>972</v>
       </c>
       <c r="J1056" s="37" t="s">
-        <v>2917</v>
+        <v>2746</v>
       </c>
       <c r="K1056" s="37" t="s">
-        <v>2917</v>
+        <v>2746</v>
       </c>
       <c r="L1056" s="4" t="s">
         <v>1531</v>
@@ -54886,21 +54912,21 @@
       <c r="M1056" s="37"/>
       <c r="N1056" s="37"/>
       <c r="P1056" s="9" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1057" spans="1:16" ht="45">
-      <c r="A1057" s="15" t="s">
-        <v>2708</v>
+      <c r="A1057" s="60" t="s">
+        <v>3020</v>
       </c>
       <c r="B1057" s="34" t="s">
-        <v>2852</v>
+        <v>2681</v>
       </c>
       <c r="C1057" s="9" t="s">
-        <v>3017</v>
+        <v>2842</v>
       </c>
       <c r="E1057" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1057" s="9" t="s">
         <v>1140</v>
@@ -54912,10 +54938,10 @@
         <v>972</v>
       </c>
       <c r="J1057" s="37" t="s">
-        <v>2917</v>
+        <v>2746</v>
       </c>
       <c r="K1057" s="37" t="s">
-        <v>2917</v>
+        <v>2746</v>
       </c>
       <c r="L1057" s="4" t="s">
         <v>1531</v>
@@ -54923,21 +54949,21 @@
       <c r="M1057" s="37"/>
       <c r="N1057" s="37"/>
       <c r="P1057" s="15" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1058" spans="1:16" ht="45">
-      <c r="A1058" s="15" t="s">
-        <v>2709</v>
+      <c r="A1058" s="60" t="s">
+        <v>3021</v>
       </c>
       <c r="B1058" s="34" t="s">
-        <v>2853</v>
+        <v>2682</v>
       </c>
       <c r="C1058" s="9" t="s">
-        <v>3018</v>
+        <v>2843</v>
       </c>
       <c r="E1058" s="34" t="s">
-        <v>2903</v>
+        <v>2732</v>
       </c>
       <c r="G1058" s="9" t="s">
         <v>1140</v>
@@ -54949,10 +54975,10 @@
         <v>972</v>
       </c>
       <c r="J1058" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="K1058" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="L1058" s="4" t="s">
         <v>1531</v>
@@ -54960,21 +54986,21 @@
       <c r="M1058" s="37"/>
       <c r="N1058" s="37"/>
       <c r="P1058" s="28" t="s">
-        <v>3077</v>
+        <v>2902</v>
       </c>
     </row>
     <row r="1059" spans="1:16" ht="45">
-      <c r="A1059" s="15" t="s">
-        <v>2710</v>
+      <c r="A1059" s="60" t="s">
+        <v>3022</v>
       </c>
       <c r="B1059" s="34" t="s">
-        <v>2854</v>
+        <v>2683</v>
       </c>
       <c r="C1059" s="9" t="s">
-        <v>3019</v>
+        <v>2844</v>
       </c>
       <c r="E1059" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1059" s="9" t="s">
         <v>1140</v>
@@ -54986,10 +55012,10 @@
         <v>972</v>
       </c>
       <c r="J1059" s="37" t="s">
-        <v>2917</v>
+        <v>2746</v>
       </c>
       <c r="K1059" s="37" t="s">
-        <v>2917</v>
+        <v>2746</v>
       </c>
       <c r="L1059" s="4" t="s">
         <v>1531</v>
@@ -54997,21 +55023,21 @@
       <c r="M1059" s="37"/>
       <c r="N1059" s="37"/>
       <c r="P1059" s="15" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1060" spans="1:16" ht="45">
-      <c r="A1060" s="15" t="s">
-        <v>2711</v>
+      <c r="A1060" s="60" t="s">
+        <v>3023</v>
       </c>
       <c r="B1060" s="34" t="s">
-        <v>2855</v>
+        <v>2684</v>
       </c>
       <c r="C1060" s="9" t="s">
-        <v>3020</v>
+        <v>2845</v>
       </c>
       <c r="E1060" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1060" s="9" t="s">
         <v>1140</v>
@@ -55023,10 +55049,10 @@
         <v>972</v>
       </c>
       <c r="J1060" s="37" t="s">
-        <v>2917</v>
+        <v>2746</v>
       </c>
       <c r="K1060" s="37" t="s">
-        <v>2917</v>
+        <v>2746</v>
       </c>
       <c r="L1060" s="4" t="s">
         <v>1531</v>
@@ -55034,21 +55060,21 @@
       <c r="M1060" s="37"/>
       <c r="N1060" s="37"/>
       <c r="P1060" s="15" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1061" spans="1:16" ht="45">
-      <c r="A1061" s="15" t="s">
-        <v>2712</v>
+      <c r="A1061" s="60" t="s">
+        <v>3024</v>
       </c>
       <c r="B1061" s="34" t="s">
-        <v>2856</v>
+        <v>2685</v>
       </c>
       <c r="C1061" s="9" t="s">
-        <v>3021</v>
+        <v>2846</v>
       </c>
       <c r="E1061" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1061" s="9" t="s">
         <v>1140</v>
@@ -55060,10 +55086,10 @@
         <v>972</v>
       </c>
       <c r="J1061" s="37" t="s">
-        <v>2917</v>
+        <v>2746</v>
       </c>
       <c r="K1061" s="37" t="s">
-        <v>2917</v>
+        <v>2746</v>
       </c>
       <c r="L1061" s="4" t="s">
         <v>1531</v>
@@ -55071,21 +55097,21 @@
       <c r="M1061" s="37"/>
       <c r="N1061" s="37"/>
       <c r="P1061" s="15" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1062" spans="1:16" ht="60">
-      <c r="A1062" s="15" t="s">
-        <v>2713</v>
+      <c r="A1062" s="60" t="s">
+        <v>3025</v>
       </c>
       <c r="B1062" s="9" t="s">
-        <v>2857</v>
+        <v>2686</v>
       </c>
       <c r="C1062" s="9" t="s">
-        <v>3022</v>
+        <v>2847</v>
       </c>
       <c r="E1062" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1062" s="9" t="s">
         <v>1140</v>
@@ -55108,21 +55134,21 @@
       <c r="M1062" s="40"/>
       <c r="N1062" s="40"/>
       <c r="P1062" s="9" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1063" spans="1:16" ht="60">
-      <c r="A1063" s="15" t="s">
-        <v>2714</v>
+      <c r="A1063" s="60" t="s">
+        <v>3026</v>
       </c>
       <c r="B1063" s="9" t="s">
-        <v>2858</v>
+        <v>2687</v>
       </c>
       <c r="C1063" s="9" t="s">
-        <v>3023</v>
+        <v>2848</v>
       </c>
       <c r="E1063" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1063" s="9" t="s">
         <v>1140</v>
@@ -55145,18 +55171,18 @@
       <c r="M1063" s="40"/>
       <c r="N1063" s="40"/>
       <c r="P1063" s="15" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1064" spans="1:16" ht="90">
-      <c r="A1064" s="15" t="s">
-        <v>2715</v>
+      <c r="A1064" s="60" t="s">
+        <v>3027</v>
       </c>
       <c r="B1064" s="34" t="s">
-        <v>2767</v>
+        <v>2598</v>
       </c>
       <c r="C1064" s="9" t="s">
-        <v>2928</v>
+        <v>2757</v>
       </c>
       <c r="F1064" s="15" t="s">
         <v>1179</v>
@@ -55171,10 +55197,10 @@
         <v>972</v>
       </c>
       <c r="J1064" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1064" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1064" s="4" t="s">
         <v>1531</v>
@@ -55189,18 +55215,18 @@
         <v>1148</v>
       </c>
       <c r="P1064" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1065" spans="1:16" ht="90">
-      <c r="A1065" s="15" t="s">
-        <v>2716</v>
+      <c r="A1065" s="60" t="s">
+        <v>3028</v>
       </c>
       <c r="B1065" s="34" t="s">
-        <v>2798</v>
+        <v>2629</v>
       </c>
       <c r="C1065" s="9" t="s">
-        <v>2961</v>
+        <v>2790</v>
       </c>
       <c r="F1065" s="15" t="s">
         <v>1179</v>
@@ -55215,10 +55241,10 @@
         <v>972</v>
       </c>
       <c r="J1065" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1065" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1065" s="4" t="s">
         <v>1531</v>
@@ -55233,18 +55259,18 @@
         <v>1148</v>
       </c>
       <c r="P1065" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1066" spans="1:16" ht="45">
-      <c r="A1066" s="15" t="s">
-        <v>2717</v>
+      <c r="A1066" s="60" t="s">
+        <v>3029</v>
       </c>
       <c r="B1066" s="34" t="s">
-        <v>2859</v>
+        <v>2688</v>
       </c>
       <c r="C1066" s="9" t="s">
-        <v>3024</v>
+        <v>2849</v>
       </c>
       <c r="F1066" s="34" t="s">
         <v>2493</v>
@@ -55259,10 +55285,10 @@
         <v>972</v>
       </c>
       <c r="J1066" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1066" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1066" s="4" t="s">
         <v>1531</v>
@@ -55274,17 +55300,17 @@
       </c>
     </row>
     <row r="1067" spans="1:16" ht="45">
-      <c r="A1067" s="15" t="s">
-        <v>2718</v>
+      <c r="A1067" s="60" t="s">
+        <v>3030</v>
       </c>
       <c r="B1067" s="9" t="s">
-        <v>2860</v>
+        <v>2689</v>
       </c>
       <c r="C1067" s="9" t="s">
-        <v>3025</v>
+        <v>2850</v>
       </c>
       <c r="F1067" s="9" t="s">
-        <v>2905</v>
+        <v>2734</v>
       </c>
       <c r="G1067" s="9" t="s">
         <v>1140</v>
@@ -55307,21 +55333,21 @@
       <c r="M1067" s="40"/>
       <c r="N1067" s="40"/>
       <c r="P1067" s="28" t="s">
-        <v>3072</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="1068" spans="1:16" ht="45">
-      <c r="A1068" s="15" t="s">
-        <v>2719</v>
+      <c r="A1068" s="60" t="s">
+        <v>3031</v>
       </c>
       <c r="B1068" s="34" t="s">
-        <v>2861</v>
+        <v>2690</v>
       </c>
       <c r="C1068" s="9" t="s">
-        <v>3026</v>
+        <v>2851</v>
       </c>
       <c r="F1068" s="34" t="s">
-        <v>2906</v>
+        <v>2735</v>
       </c>
       <c r="G1068" s="9" t="s">
         <v>1140</v>
@@ -55333,10 +55359,10 @@
         <v>972</v>
       </c>
       <c r="J1068" s="37" t="s">
-        <v>2917</v>
+        <v>2746</v>
       </c>
       <c r="K1068" s="37" t="s">
-        <v>2917</v>
+        <v>2746</v>
       </c>
       <c r="L1068" s="4" t="s">
         <v>1531</v>
@@ -55344,21 +55370,21 @@
       <c r="M1068" s="37"/>
       <c r="N1068" s="37"/>
       <c r="P1068" s="28" t="s">
-        <v>3073</v>
+        <v>2898</v>
       </c>
     </row>
     <row r="1069" spans="1:16" ht="45">
-      <c r="A1069" s="15" t="s">
-        <v>2720</v>
+      <c r="A1069" s="60" t="s">
+        <v>3032</v>
       </c>
       <c r="B1069" s="34" t="s">
-        <v>2862</v>
+        <v>2691</v>
       </c>
       <c r="C1069" s="9" t="s">
-        <v>3027</v>
+        <v>2852</v>
       </c>
       <c r="F1069" s="34" t="s">
-        <v>2907</v>
+        <v>2736</v>
       </c>
       <c r="G1069" s="9" t="s">
         <v>1140</v>
@@ -55370,10 +55396,10 @@
         <v>972</v>
       </c>
       <c r="J1069" s="37" t="s">
-        <v>2917</v>
+        <v>2746</v>
       </c>
       <c r="K1069" s="37" t="s">
-        <v>2917</v>
+        <v>2746</v>
       </c>
       <c r="L1069" s="4" t="s">
         <v>1531</v>
@@ -55381,21 +55407,21 @@
       <c r="M1069" s="37"/>
       <c r="N1069" s="37"/>
       <c r="P1069" s="28" t="s">
-        <v>3074</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="1070" spans="1:16" ht="75">
-      <c r="A1070" s="15" t="s">
-        <v>2721</v>
+      <c r="A1070" s="60" t="s">
+        <v>3033</v>
       </c>
       <c r="B1070" s="34" t="s">
-        <v>2863</v>
+        <v>2692</v>
       </c>
       <c r="C1070" s="9" t="s">
-        <v>3028</v>
+        <v>2853</v>
       </c>
       <c r="E1070" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1070" s="9" t="s">
         <v>1140</v>
@@ -55407,10 +55433,10 @@
         <v>972</v>
       </c>
       <c r="J1070" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="K1070" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="L1070" s="4" t="s">
         <v>1531</v>
@@ -55418,21 +55444,21 @@
       <c r="M1070" s="37"/>
       <c r="N1070" s="37"/>
       <c r="P1070" s="15" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1071" spans="1:16" ht="75">
-      <c r="A1071" s="15" t="s">
-        <v>2722</v>
+      <c r="A1071" s="60" t="s">
+        <v>3034</v>
       </c>
       <c r="B1071" s="34" t="s">
-        <v>2864</v>
+        <v>2693</v>
       </c>
       <c r="C1071" s="9" t="s">
-        <v>3029</v>
+        <v>2854</v>
       </c>
       <c r="E1071" s="9" t="s">
-        <v>2902</v>
+        <v>2731</v>
       </c>
       <c r="G1071" s="9" t="s">
         <v>1140</v>
@@ -55444,10 +55470,10 @@
         <v>972</v>
       </c>
       <c r="J1071" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="K1071" s="37" t="s">
-        <v>2912</v>
+        <v>2741</v>
       </c>
       <c r="L1071" s="4" t="s">
         <v>1531</v>
@@ -55455,21 +55481,21 @@
       <c r="M1071" s="37"/>
       <c r="N1071" s="37"/>
       <c r="P1071" s="15" t="s">
-        <v>3071</v>
+        <v>2896</v>
       </c>
     </row>
     <row r="1072" spans="1:16" ht="45">
-      <c r="A1072" s="15" t="s">
-        <v>2723</v>
+      <c r="A1072" s="60" t="s">
+        <v>3035</v>
       </c>
       <c r="B1072" s="34" t="s">
-        <v>2865</v>
+        <v>2694</v>
       </c>
       <c r="C1072" s="9" t="s">
-        <v>3030</v>
+        <v>2855</v>
       </c>
       <c r="F1072" s="36" t="s">
-        <v>2908</v>
+        <v>2737</v>
       </c>
       <c r="G1072" s="9" t="s">
         <v>1140</v>
@@ -55481,10 +55507,10 @@
         <v>972</v>
       </c>
       <c r="J1072" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1072" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1072" s="4" t="s">
         <v>1531</v>
@@ -55499,21 +55525,21 @@
         <v>1148</v>
       </c>
       <c r="P1072" s="15" t="s">
-        <v>3061</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="1073" spans="1:16" ht="45">
-      <c r="A1073" s="15" t="s">
-        <v>2724</v>
+      <c r="A1073" s="60" t="s">
+        <v>3036</v>
       </c>
       <c r="B1073" s="34" t="s">
-        <v>2866</v>
+        <v>2695</v>
       </c>
       <c r="C1073" s="9" t="s">
-        <v>3031</v>
+        <v>2856</v>
       </c>
       <c r="F1073" s="36" t="s">
-        <v>2908</v>
+        <v>2737</v>
       </c>
       <c r="G1073" s="9" t="s">
         <v>1140</v>
@@ -55525,10 +55551,10 @@
         <v>972</v>
       </c>
       <c r="J1073" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1073" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1073" s="4" t="s">
         <v>1531</v>
@@ -55543,18 +55569,18 @@
         <v>1148</v>
       </c>
       <c r="P1073" s="15" t="s">
-        <v>3061</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="1074" spans="1:16" ht="90">
-      <c r="A1074" s="15" t="s">
-        <v>2725</v>
+      <c r="A1074" s="60" t="s">
+        <v>3037</v>
       </c>
       <c r="B1074" s="34" t="s">
-        <v>2867</v>
+        <v>2696</v>
       </c>
       <c r="C1074" s="9" t="s">
-        <v>3032</v>
+        <v>2857</v>
       </c>
       <c r="F1074" s="15" t="s">
         <v>1179</v>
@@ -55569,10 +55595,10 @@
         <v>972</v>
       </c>
       <c r="J1074" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1074" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1074" s="4" t="s">
         <v>1531</v>
@@ -55587,18 +55613,18 @@
         <v>1148</v>
       </c>
       <c r="P1074" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1075" spans="1:16" ht="90">
-      <c r="A1075" s="15" t="s">
-        <v>2726</v>
+      <c r="A1075" s="60" t="s">
+        <v>3038</v>
       </c>
       <c r="B1075" s="34" t="s">
-        <v>2868</v>
+        <v>2697</v>
       </c>
       <c r="C1075" s="9" t="s">
-        <v>3033</v>
+        <v>2858</v>
       </c>
       <c r="F1075" s="15" t="s">
         <v>1179</v>
@@ -55613,10 +55639,10 @@
         <v>972</v>
       </c>
       <c r="J1075" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1075" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1075" s="4" t="s">
         <v>1531</v>
@@ -55631,18 +55657,18 @@
         <v>1148</v>
       </c>
       <c r="P1075" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1076" spans="1:16" ht="90">
-      <c r="A1076" s="15" t="s">
-        <v>2727</v>
+      <c r="A1076" s="60" t="s">
+        <v>3039</v>
       </c>
       <c r="B1076" s="34" t="s">
-        <v>2869</v>
+        <v>2698</v>
       </c>
       <c r="C1076" s="9" t="s">
-        <v>3034</v>
+        <v>2859</v>
       </c>
       <c r="F1076" s="15" t="s">
         <v>1179</v>
@@ -55657,10 +55683,10 @@
         <v>972</v>
       </c>
       <c r="J1076" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1076" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1076" s="4" t="s">
         <v>1531</v>
@@ -55675,18 +55701,18 @@
         <v>1148</v>
       </c>
       <c r="P1076" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1077" spans="1:16" ht="90">
-      <c r="A1077" s="15" t="s">
-        <v>2728</v>
+      <c r="A1077" s="60" t="s">
+        <v>3040</v>
       </c>
       <c r="B1077" s="34" t="s">
-        <v>2870</v>
+        <v>2699</v>
       </c>
       <c r="C1077" s="9" t="s">
-        <v>3035</v>
+        <v>2860</v>
       </c>
       <c r="F1077" s="15" t="s">
         <v>1179</v>
@@ -55701,10 +55727,10 @@
         <v>972</v>
       </c>
       <c r="J1077" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1077" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1077" s="4" t="s">
         <v>1531</v>
@@ -55719,18 +55745,18 @@
         <v>1148</v>
       </c>
       <c r="P1077" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1078" spans="1:16" ht="90">
-      <c r="A1078" s="15" t="s">
-        <v>2729</v>
+      <c r="A1078" s="60" t="s">
+        <v>3041</v>
       </c>
       <c r="B1078" s="34" t="s">
-        <v>2871</v>
+        <v>2700</v>
       </c>
       <c r="C1078" s="9" t="s">
-        <v>3036</v>
+        <v>2861</v>
       </c>
       <c r="F1078" s="15" t="s">
         <v>1179</v>
@@ -55745,10 +55771,10 @@
         <v>972</v>
       </c>
       <c r="J1078" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1078" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1078" s="4" t="s">
         <v>1531</v>
@@ -55763,18 +55789,18 @@
         <v>1148</v>
       </c>
       <c r="P1078" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1079" spans="1:16" ht="90">
-      <c r="A1079" s="15" t="s">
-        <v>2730</v>
+      <c r="A1079" s="60" t="s">
+        <v>3042</v>
       </c>
       <c r="B1079" s="34" t="s">
-        <v>2872</v>
+        <v>2701</v>
       </c>
       <c r="C1079" s="9" t="s">
-        <v>3037</v>
+        <v>2862</v>
       </c>
       <c r="F1079" s="15" t="s">
         <v>1179</v>
@@ -55789,10 +55815,10 @@
         <v>972</v>
       </c>
       <c r="J1079" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1079" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1079" s="4" t="s">
         <v>1531</v>
@@ -55807,18 +55833,18 @@
         <v>1148</v>
       </c>
       <c r="P1079" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1080" spans="1:16" ht="90">
-      <c r="A1080" s="15" t="s">
-        <v>2731</v>
+      <c r="A1080" s="60" t="s">
+        <v>3043</v>
       </c>
       <c r="B1080" s="34" t="s">
-        <v>2873</v>
+        <v>2702</v>
       </c>
       <c r="C1080" s="9" t="s">
-        <v>3038</v>
+        <v>2863</v>
       </c>
       <c r="F1080" s="15" t="s">
         <v>1179</v>
@@ -55833,10 +55859,10 @@
         <v>972</v>
       </c>
       <c r="J1080" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1080" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1080" s="4" t="s">
         <v>1531</v>
@@ -55851,18 +55877,18 @@
         <v>1148</v>
       </c>
       <c r="P1080" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1081" spans="1:16" ht="90">
-      <c r="A1081" s="15" t="s">
-        <v>2732</v>
+      <c r="A1081" s="60" t="s">
+        <v>3044</v>
       </c>
       <c r="B1081" s="34" t="s">
-        <v>2874</v>
+        <v>2703</v>
       </c>
       <c r="C1081" s="9" t="s">
-        <v>3039</v>
+        <v>2864</v>
       </c>
       <c r="F1081" s="15" t="s">
         <v>1179</v>
@@ -55877,10 +55903,10 @@
         <v>972</v>
       </c>
       <c r="J1081" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1081" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1081" s="4" t="s">
         <v>1531</v>
@@ -55895,18 +55921,18 @@
         <v>1148</v>
       </c>
       <c r="P1081" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1082" spans="1:16" ht="90">
-      <c r="A1082" s="15" t="s">
-        <v>2733</v>
+      <c r="A1082" s="60" t="s">
+        <v>3045</v>
       </c>
       <c r="B1082" s="35" t="s">
-        <v>2875</v>
+        <v>2704</v>
       </c>
       <c r="C1082" s="9" t="s">
-        <v>3040</v>
+        <v>2865</v>
       </c>
       <c r="F1082" s="15" t="s">
         <v>1179</v>
@@ -55921,10 +55947,10 @@
         <v>972</v>
       </c>
       <c r="J1082" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1082" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1082" s="4" t="s">
         <v>1531</v>
@@ -55939,18 +55965,18 @@
         <v>1148</v>
       </c>
       <c r="P1082" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1083" spans="1:16" ht="90">
-      <c r="A1083" s="15" t="s">
-        <v>2734</v>
+      <c r="A1083" s="60" t="s">
+        <v>3046</v>
       </c>
       <c r="B1083" s="34" t="s">
-        <v>2876</v>
+        <v>2705</v>
       </c>
       <c r="C1083" s="9" t="s">
-        <v>3041</v>
+        <v>2866</v>
       </c>
       <c r="F1083" s="15" t="s">
         <v>1179</v>
@@ -55965,10 +55991,10 @@
         <v>972</v>
       </c>
       <c r="J1083" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1083" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1083" s="4" t="s">
         <v>1531</v>
@@ -55983,18 +56009,18 @@
         <v>1148</v>
       </c>
       <c r="P1083" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1084" spans="1:16" ht="90">
-      <c r="A1084" s="15" t="s">
-        <v>2735</v>
+      <c r="A1084" s="60" t="s">
+        <v>3047</v>
       </c>
       <c r="B1084" s="34" t="s">
-        <v>2877</v>
+        <v>2706</v>
       </c>
       <c r="C1084" s="9" t="s">
-        <v>3042</v>
+        <v>2867</v>
       </c>
       <c r="F1084" s="15" t="s">
         <v>1179</v>
@@ -56009,10 +56035,10 @@
         <v>972</v>
       </c>
       <c r="J1084" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1084" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1084" s="4" t="s">
         <v>1531</v>
@@ -56027,18 +56053,18 @@
         <v>1148</v>
       </c>
       <c r="P1084" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1085" spans="1:16" ht="90">
-      <c r="A1085" s="15" t="s">
-        <v>2736</v>
+      <c r="A1085" s="60" t="s">
+        <v>3048</v>
       </c>
       <c r="B1085" s="35" t="s">
-        <v>2873</v>
+        <v>2702</v>
       </c>
       <c r="C1085" s="9" t="s">
-        <v>3038</v>
+        <v>2863</v>
       </c>
       <c r="F1085" s="15" t="s">
         <v>1179</v>
@@ -56053,10 +56079,10 @@
         <v>972</v>
       </c>
       <c r="J1085" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1085" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1085" s="4" t="s">
         <v>1531</v>
@@ -56071,18 +56097,18 @@
         <v>1148</v>
       </c>
       <c r="P1085" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1086" spans="1:16" ht="90">
-      <c r="A1086" s="15" t="s">
-        <v>2737</v>
+      <c r="A1086" s="60" t="s">
+        <v>3049</v>
       </c>
       <c r="B1086" s="35" t="s">
-        <v>2878</v>
+        <v>2707</v>
       </c>
       <c r="C1086" s="9" t="s">
-        <v>3043</v>
+        <v>2868</v>
       </c>
       <c r="F1086" s="15" t="s">
         <v>1179</v>
@@ -56097,10 +56123,10 @@
         <v>972</v>
       </c>
       <c r="J1086" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1086" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1086" s="4" t="s">
         <v>1531</v>
@@ -56115,18 +56141,18 @@
         <v>1148</v>
       </c>
       <c r="P1086" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1087" spans="1:16" ht="90">
-      <c r="A1087" s="15" t="s">
-        <v>2738</v>
+      <c r="A1087" s="60" t="s">
+        <v>3050</v>
       </c>
       <c r="B1087" s="35" t="s">
-        <v>2773</v>
+        <v>2604</v>
       </c>
       <c r="C1087" s="9" t="s">
-        <v>2934</v>
+        <v>2763</v>
       </c>
       <c r="F1087" s="15" t="s">
         <v>1179</v>
@@ -56141,10 +56167,10 @@
         <v>972</v>
       </c>
       <c r="J1087" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1087" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1087" s="4" t="s">
         <v>1531</v>
@@ -56159,18 +56185,18 @@
         <v>1148</v>
       </c>
       <c r="P1087" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1088" spans="1:16" ht="90">
-      <c r="A1088" s="15" t="s">
-        <v>2739</v>
+      <c r="A1088" s="60" t="s">
+        <v>3051</v>
       </c>
       <c r="B1088" s="35" t="s">
-        <v>2879</v>
+        <v>2708</v>
       </c>
       <c r="C1088" s="9" t="s">
-        <v>3044</v>
+        <v>2869</v>
       </c>
       <c r="F1088" s="15" t="s">
         <v>1179</v>
@@ -56185,10 +56211,10 @@
         <v>972</v>
       </c>
       <c r="J1088" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1088" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1088" s="4" t="s">
         <v>1531</v>
@@ -56203,18 +56229,18 @@
         <v>1148</v>
       </c>
       <c r="P1088" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1089" spans="1:16" ht="90">
-      <c r="A1089" s="15" t="s">
-        <v>2740</v>
+      <c r="A1089" s="60" t="s">
+        <v>3052</v>
       </c>
       <c r="B1089" s="35" t="s">
-        <v>2880</v>
+        <v>2709</v>
       </c>
       <c r="C1089" s="9" t="s">
-        <v>3045</v>
+        <v>2870</v>
       </c>
       <c r="F1089" s="15" t="s">
         <v>1179</v>
@@ -56229,10 +56255,10 @@
         <v>972</v>
       </c>
       <c r="J1089" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1089" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1089" s="4" t="s">
         <v>1531</v>
@@ -56247,18 +56273,18 @@
         <v>1148</v>
       </c>
       <c r="P1089" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1090" spans="1:16" ht="90">
-      <c r="A1090" s="15" t="s">
-        <v>2741</v>
+      <c r="A1090" s="60" t="s">
+        <v>3053</v>
       </c>
       <c r="B1090" s="35" t="s">
-        <v>2798</v>
+        <v>2629</v>
       </c>
       <c r="C1090" s="9" t="s">
-        <v>2961</v>
+        <v>2790</v>
       </c>
       <c r="F1090" s="15" t="s">
         <v>1179</v>
@@ -56273,10 +56299,10 @@
         <v>972</v>
       </c>
       <c r="J1090" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1090" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1090" s="4" t="s">
         <v>1531</v>
@@ -56291,18 +56317,18 @@
         <v>1148</v>
       </c>
       <c r="P1090" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1091" spans="1:16" ht="90">
-      <c r="A1091" s="15" t="s">
-        <v>2742</v>
+      <c r="A1091" s="60" t="s">
+        <v>3054</v>
       </c>
       <c r="B1091" s="35" t="s">
-        <v>2881</v>
+        <v>2710</v>
       </c>
       <c r="C1091" s="9" t="s">
-        <v>3046</v>
+        <v>2871</v>
       </c>
       <c r="F1091" s="15" t="s">
         <v>1179</v>
@@ -56317,10 +56343,10 @@
         <v>972</v>
       </c>
       <c r="J1091" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1091" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1091" s="4" t="s">
         <v>1531</v>
@@ -56335,18 +56361,18 @@
         <v>1148</v>
       </c>
       <c r="P1091" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1092" spans="1:16" ht="90">
-      <c r="A1092" s="15" t="s">
-        <v>2743</v>
+      <c r="A1092" s="60" t="s">
+        <v>3055</v>
       </c>
       <c r="B1092" s="35" t="s">
-        <v>2882</v>
+        <v>2711</v>
       </c>
       <c r="C1092" s="9" t="s">
-        <v>3047</v>
+        <v>2872</v>
       </c>
       <c r="F1092" s="15" t="s">
         <v>1179</v>
@@ -56361,10 +56387,10 @@
         <v>972</v>
       </c>
       <c r="J1092" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1092" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1092" s="4" t="s">
         <v>1531</v>
@@ -56379,18 +56405,18 @@
         <v>1148</v>
       </c>
       <c r="P1092" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1093" spans="1:16" ht="90">
-      <c r="A1093" s="15" t="s">
-        <v>2744</v>
+      <c r="A1093" s="60" t="s">
+        <v>3056</v>
       </c>
       <c r="B1093" s="35" t="s">
-        <v>2800</v>
+        <v>2631</v>
       </c>
       <c r="C1093" s="9" t="s">
-        <v>2963</v>
+        <v>2792</v>
       </c>
       <c r="F1093" s="15" t="s">
         <v>1179</v>
@@ -56405,10 +56431,10 @@
         <v>972</v>
       </c>
       <c r="J1093" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1093" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1093" s="4" t="s">
         <v>1531</v>
@@ -56423,18 +56449,18 @@
         <v>1148</v>
       </c>
       <c r="P1093" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1094" spans="1:16" ht="90">
-      <c r="A1094" s="15" t="s">
-        <v>2745</v>
+      <c r="A1094" s="60" t="s">
+        <v>3057</v>
       </c>
       <c r="B1094" s="35" t="s">
-        <v>2814</v>
+        <v>2643</v>
       </c>
       <c r="C1094" s="9" t="s">
-        <v>2977</v>
+        <v>2804</v>
       </c>
       <c r="F1094" s="15" t="s">
         <v>1179</v>
@@ -56449,10 +56475,10 @@
         <v>972</v>
       </c>
       <c r="J1094" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1094" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1094" s="4" t="s">
         <v>1531</v>
@@ -56467,18 +56493,18 @@
         <v>1148</v>
       </c>
       <c r="P1094" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1095" spans="1:16" ht="90">
-      <c r="A1095" s="15" t="s">
-        <v>2746</v>
+      <c r="A1095" s="60" t="s">
+        <v>3058</v>
       </c>
       <c r="B1095" s="34" t="s">
-        <v>2795</v>
+        <v>2626</v>
       </c>
       <c r="C1095" s="9" t="s">
-        <v>2958</v>
+        <v>2787</v>
       </c>
       <c r="F1095" s="15" t="s">
         <v>1179</v>
@@ -56493,10 +56519,10 @@
         <v>972</v>
       </c>
       <c r="J1095" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1095" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1095" s="4" t="s">
         <v>1531</v>
@@ -56511,18 +56537,18 @@
         <v>1148</v>
       </c>
       <c r="P1095" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1096" spans="1:16" ht="90">
-      <c r="A1096" s="15" t="s">
-        <v>2747</v>
+      <c r="A1096" s="60" t="s">
+        <v>3059</v>
       </c>
       <c r="B1096" s="35" t="s">
-        <v>2883</v>
+        <v>2712</v>
       </c>
       <c r="C1096" s="9" t="s">
-        <v>3048</v>
+        <v>2873</v>
       </c>
       <c r="F1096" s="15" t="s">
         <v>1179</v>
@@ -56537,10 +56563,10 @@
         <v>972</v>
       </c>
       <c r="J1096" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1096" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1096" s="4" t="s">
         <v>1531</v>
@@ -56555,18 +56581,18 @@
         <v>1148</v>
       </c>
       <c r="P1096" s="15" t="s">
+        <v>2885</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:16" ht="90">
+      <c r="A1097" s="60" t="s">
         <v>3060</v>
       </c>
-    </row>
-    <row r="1097" spans="1:16" ht="90">
-      <c r="A1097" s="15" t="s">
-        <v>2748</v>
-      </c>
       <c r="B1097" s="35" t="s">
-        <v>2884</v>
+        <v>2713</v>
       </c>
       <c r="C1097" s="9" t="s">
-        <v>3049</v>
+        <v>2874</v>
       </c>
       <c r="F1097" s="15" t="s">
         <v>1179</v>
@@ -56581,10 +56607,10 @@
         <v>972</v>
       </c>
       <c r="J1097" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1097" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1097" s="4" t="s">
         <v>1531</v>
@@ -56599,18 +56625,18 @@
         <v>1148</v>
       </c>
       <c r="P1097" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1098" spans="1:16" ht="90">
-      <c r="A1098" s="15" t="s">
-        <v>2749</v>
+      <c r="A1098" s="60" t="s">
+        <v>3061</v>
       </c>
       <c r="B1098" s="34" t="s">
-        <v>2885</v>
+        <v>2714</v>
       </c>
       <c r="C1098" s="9" t="s">
-        <v>3050</v>
+        <v>2875</v>
       </c>
       <c r="F1098" s="15" t="s">
         <v>1179</v>
@@ -56625,10 +56651,10 @@
         <v>972</v>
       </c>
       <c r="J1098" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1098" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1098" s="4" t="s">
         <v>1531</v>
@@ -56643,18 +56669,18 @@
         <v>1148</v>
       </c>
       <c r="P1098" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1099" spans="1:16" ht="90">
-      <c r="A1099" s="15" t="s">
-        <v>2750</v>
+      <c r="A1099" s="60" t="s">
+        <v>3062</v>
       </c>
       <c r="B1099" s="35" t="s">
-        <v>2886</v>
+        <v>2715</v>
       </c>
       <c r="C1099" s="9" t="s">
-        <v>3051</v>
+        <v>2876</v>
       </c>
       <c r="F1099" s="15" t="s">
         <v>1179</v>
@@ -56669,10 +56695,10 @@
         <v>972</v>
       </c>
       <c r="J1099" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1099" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1099" s="4" t="s">
         <v>1531</v>
@@ -56687,18 +56713,18 @@
         <v>1148</v>
       </c>
       <c r="P1099" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1100" spans="1:16" ht="45">
-      <c r="A1100" s="15" t="s">
-        <v>2751</v>
+      <c r="A1100" s="60" t="s">
+        <v>3063</v>
       </c>
       <c r="B1100" s="34" t="s">
-        <v>2887</v>
+        <v>2716</v>
       </c>
       <c r="C1100" s="9" t="s">
-        <v>3052</v>
+        <v>2877</v>
       </c>
       <c r="F1100" s="15" t="s">
         <v>1179</v>
@@ -56713,10 +56739,10 @@
         <v>972</v>
       </c>
       <c r="J1100" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1100" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1100" s="4" t="s">
         <v>1531</v>
@@ -56731,18 +56757,18 @@
         <v>1148</v>
       </c>
       <c r="P1100" s="15" t="s">
-        <v>3061</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="1101" spans="1:16" ht="90">
-      <c r="A1101" s="15" t="s">
-        <v>2752</v>
+      <c r="A1101" s="60" t="s">
+        <v>3064</v>
       </c>
       <c r="B1101" s="35" t="s">
-        <v>2888</v>
+        <v>2717</v>
       </c>
       <c r="C1101" s="9" t="s">
-        <v>3053</v>
+        <v>2878</v>
       </c>
       <c r="F1101" s="15" t="s">
         <v>1179</v>
@@ -56757,10 +56783,10 @@
         <v>972</v>
       </c>
       <c r="J1101" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1101" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1101" s="4" t="s">
         <v>1531</v>
@@ -56775,18 +56801,18 @@
         <v>1148</v>
       </c>
       <c r="P1101" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1102" spans="1:16" ht="90">
-      <c r="A1102" s="15" t="s">
-        <v>2753</v>
+      <c r="A1102" s="60" t="s">
+        <v>3065</v>
       </c>
       <c r="B1102" s="35" t="s">
-        <v>2889</v>
+        <v>2718</v>
       </c>
       <c r="C1102" s="9" t="s">
-        <v>3054</v>
+        <v>2879</v>
       </c>
       <c r="F1102" s="15" t="s">
         <v>1179</v>
@@ -56801,10 +56827,10 @@
         <v>972</v>
       </c>
       <c r="J1102" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1102" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1102" s="4" t="s">
         <v>1531</v>
@@ -56819,18 +56845,18 @@
         <v>1148</v>
       </c>
       <c r="P1102" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1103" spans="1:16" ht="90">
-      <c r="A1103" s="15" t="s">
-        <v>2754</v>
+      <c r="A1103" s="60" t="s">
+        <v>3066</v>
       </c>
       <c r="B1103" s="35" t="s">
-        <v>2890</v>
+        <v>2719</v>
       </c>
       <c r="C1103" s="9" t="s">
-        <v>3055</v>
+        <v>2880</v>
       </c>
       <c r="F1103" s="15" t="s">
         <v>1179</v>
@@ -56845,10 +56871,10 @@
         <v>972</v>
       </c>
       <c r="J1103" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1103" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1103" s="4" t="s">
         <v>1531</v>
@@ -56863,18 +56889,18 @@
         <v>1148</v>
       </c>
       <c r="P1103" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1104" spans="1:16" ht="45">
-      <c r="A1104" s="15" t="s">
-        <v>2755</v>
+      <c r="A1104" s="60" t="s">
+        <v>3067</v>
       </c>
       <c r="B1104" s="35" t="s">
-        <v>2891</v>
+        <v>2720</v>
       </c>
       <c r="C1104" s="9" t="s">
-        <v>3056</v>
+        <v>2881</v>
       </c>
       <c r="F1104" s="15" t="s">
         <v>1179</v>
@@ -56889,10 +56915,10 @@
         <v>972</v>
       </c>
       <c r="J1104" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1104" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1104" s="4" t="s">
         <v>1531</v>
@@ -56907,18 +56933,18 @@
         <v>1148</v>
       </c>
       <c r="P1104" s="15" t="s">
-        <v>3061</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="1105" spans="1:16" ht="45">
-      <c r="A1105" s="15" t="s">
-        <v>2756</v>
+      <c r="A1105" s="60" t="s">
+        <v>3068</v>
       </c>
       <c r="B1105" s="34" t="s">
-        <v>2763</v>
+        <v>2594</v>
       </c>
       <c r="C1105" s="9" t="s">
-        <v>2924</v>
+        <v>2753</v>
       </c>
       <c r="F1105" s="15" t="s">
         <v>1179</v>
@@ -56933,31 +56959,31 @@
         <v>972</v>
       </c>
       <c r="J1105" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1105" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1105" s="4" t="s">
         <v>1531</v>
       </c>
       <c r="M1105" s="11" t="s">
-        <v>2918</v>
+        <v>2747</v>
       </c>
       <c r="N1105" s="35"/>
       <c r="P1105" s="11" t="s">
-        <v>3062</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="1106" spans="1:16" ht="90">
-      <c r="A1106" s="15" t="s">
-        <v>2757</v>
+      <c r="A1106" s="60" t="s">
+        <v>3069</v>
       </c>
       <c r="B1106" s="34" t="s">
-        <v>2892</v>
+        <v>2721</v>
       </c>
       <c r="C1106" s="9" t="s">
-        <v>3057</v>
+        <v>2882</v>
       </c>
       <c r="F1106" s="15" t="s">
         <v>1179</v>
@@ -56972,10 +56998,10 @@
         <v>972</v>
       </c>
       <c r="J1106" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1106" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1106" s="4" t="s">
         <v>1531</v>
@@ -56990,18 +57016,18 @@
         <v>1148</v>
       </c>
       <c r="P1106" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1107" spans="1:16" ht="90">
-      <c r="A1107" s="15" t="s">
-        <v>2758</v>
+      <c r="A1107" s="60" t="s">
+        <v>3070</v>
       </c>
       <c r="B1107" s="34" t="s">
-        <v>2893</v>
+        <v>2722</v>
       </c>
       <c r="C1107" s="9" t="s">
-        <v>3058</v>
+        <v>2883</v>
       </c>
       <c r="F1107" s="15" t="s">
         <v>1179</v>
@@ -57016,10 +57042,10 @@
         <v>972</v>
       </c>
       <c r="J1107" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1107" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1107" s="4" t="s">
         <v>1531</v>
@@ -57034,18 +57060,18 @@
         <v>1148</v>
       </c>
       <c r="P1107" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1108" spans="1:16" ht="90">
-      <c r="A1108" s="15" t="s">
-        <v>2759</v>
+      <c r="A1108" s="60" t="s">
+        <v>3071</v>
       </c>
       <c r="B1108" s="34" t="s">
-        <v>2894</v>
+        <v>2723</v>
       </c>
       <c r="C1108" s="9" t="s">
-        <v>3059</v>
+        <v>2884</v>
       </c>
       <c r="F1108" s="15" t="s">
         <v>1179</v>
@@ -57060,10 +57086,10 @@
         <v>972</v>
       </c>
       <c r="J1108" s="35" t="s">
-        <v>2909</v>
+        <v>2738</v>
       </c>
       <c r="K1108" s="35" t="s">
-        <v>2910</v>
+        <v>2739</v>
       </c>
       <c r="L1108" s="4" t="s">
         <v>1531</v>
@@ -57078,7 +57104,7 @@
         <v>1148</v>
       </c>
       <c r="P1108" s="15" t="s">
-        <v>3060</v>
+        <v>2885</v>
       </c>
     </row>
   </sheetData>
